--- a/REV20180525A/AMDC_BOM.xlsx
+++ b/REV20180525A/AMDC_BOM.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E866D9-58CE-4D9A-BAB1-041A5412E0A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31155036-006B-4BCE-91CF-8EEEB3BB0212}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{83F8854B-BB18-4338-8AE1-D011671247A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{D5149B8E-25E8-40EE-B8E2-029FB852EF9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB_v1_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="AMDC_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="266">
   <si>
     <t>Supplier Part Number 1</t>
   </si>
@@ -46,388 +46,760 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>TC4468COE-ND</t>
+  </si>
+  <si>
+    <t>TC4468COE</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>TC4468</t>
+  </si>
+  <si>
+    <t>U12A, U12B, U12C, U12D, U12E, U12F, U15A, U15B, U15C, U15D, U15E, U15F</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>SOIC16_N</t>
+  </si>
+  <si>
+    <t>RP40-2415DGW-ND</t>
+  </si>
+  <si>
+    <t>RP40-2415DGW</t>
+  </si>
+  <si>
+    <t>Recom</t>
+  </si>
+  <si>
+    <t>RP40-2415DG</t>
+  </si>
+  <si>
+    <t>U35</t>
+  </si>
+  <si>
+    <t>RP40-G</t>
+  </si>
+  <si>
+    <t>RB521S30T1GOSTR-ND</t>
+  </si>
+  <si>
+    <t>RB521S30T1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>RB521</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+  </si>
+  <si>
+    <t>MAX3097ECEE+-ND</t>
+  </si>
+  <si>
+    <t>MAX3097ECEE+</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>MAX3097E</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOP127P826-16L</t>
+  </si>
+  <si>
+    <t>LTC2320CUKG-14#PBF-ND</t>
+  </si>
+  <si>
+    <t>LTC2320CUKG-14#PBF</t>
+  </si>
+  <si>
+    <t>Analog Devices / Linear Technology</t>
+  </si>
+  <si>
+    <t>LTC2320-14</t>
+  </si>
+  <si>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>QFN52</t>
+  </si>
+  <si>
+    <t>LT1764EQ-3.3#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1764EQ-3.3#PBF</t>
+  </si>
+  <si>
+    <t>U39</t>
+  </si>
+  <si>
+    <t>5-DDPAK</t>
+  </si>
+  <si>
+    <t>LT1764EQ-1.8#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1764EQ-1.8#PBF</t>
+  </si>
+  <si>
+    <t>U37A, U37B</t>
+  </si>
+  <si>
+    <t>LT1529CQ-5#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1529CQ-5#PBF</t>
+  </si>
+  <si>
+    <t>U40A, U40B</t>
+  </si>
+  <si>
+    <t>LT1461CCS8-2.5#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1461CCS8-2.5#PBF</t>
+  </si>
+  <si>
+    <t>U45</t>
+  </si>
+  <si>
+    <t>SOIC8_N</t>
+  </si>
+  <si>
+    <t>INA2143UA-ND</t>
+  </si>
+  <si>
+    <t>INA2143UA</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>U47A, U47B, U48A, U48B</t>
+  </si>
+  <si>
+    <t>SOIC14_N</t>
+  </si>
+  <si>
+    <t>F2895TR-ND</t>
+  </si>
+  <si>
+    <t>SP1001-04JTG</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>D1, D3, D7, D8</t>
+  </si>
+  <si>
+    <t>SC70-5</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7DITR-ND</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
+  </si>
+  <si>
+    <t>SOT95P250-3N</t>
+  </si>
+  <si>
+    <t>CT1943MST-ND</t>
+  </si>
+  <si>
+    <t>194-3MST</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>AE10921-ND</t>
+  </si>
+  <si>
+    <t>A-DF09A/KG-T2S</t>
+  </si>
+  <si>
+    <t>Assmann</t>
+  </si>
+  <si>
+    <t>A-DF 09 A/KG-T2S</t>
+  </si>
+  <si>
+    <t>CON5</t>
+  </si>
+  <si>
+    <t>ADP7182AUJZ-R7-ND</t>
+  </si>
+  <si>
+    <t>ADP7182AUJZ-R7</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>U42A, U42B, U42C, U42D</t>
+  </si>
+  <si>
+    <t>TSOT-23</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-R7-ND</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-R7</t>
+  </si>
+  <si>
+    <t>U41A, U41B, U41C, U41D</t>
+  </si>
+  <si>
+    <t>ADG3308BRUZ-ND</t>
+  </si>
+  <si>
+    <t>ADG3308BRUZ</t>
+  </si>
+  <si>
+    <t>ADG3308</t>
+  </si>
+  <si>
+    <t>U4, U13A, U13B, U13C, U13D, U13E, U13F</t>
+  </si>
+  <si>
+    <t>TSSOP50P640-20N</t>
+  </si>
+  <si>
+    <t>ADA4522-4ARZ-ND</t>
+  </si>
+  <si>
+    <t>ADA4522-4ARZ</t>
+  </si>
+  <si>
+    <t>ADA4522-4</t>
+  </si>
+  <si>
+    <t>U3A, U3B, U3C, U3D, U3E, U3F, U3G, U3H, U46A, U46B</t>
+  </si>
+  <si>
+    <t>TSSOP14</t>
+  </si>
+  <si>
+    <t>A115463-ND</t>
+  </si>
+  <si>
+    <t>5569257-1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>A97799TR-ND</t>
+  </si>
+  <si>
+    <t>1981584-1</t>
+  </si>
+  <si>
+    <t>CON11, CON12</t>
+  </si>
+  <si>
+    <t>1727-4560-2-ND</t>
+  </si>
+  <si>
+    <t>74LVC1T45GW,125</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>U34</t>
+  </si>
+  <si>
+    <t>SOT363-6N</t>
+  </si>
+  <si>
+    <t>1115FFE-ND</t>
+  </si>
+  <si>
+    <t>178-015-513R571</t>
+  </si>
+  <si>
+    <t>NorComp</t>
+  </si>
+  <si>
+    <t>CON7, CON8A, CON8B, CON8C, CON8D</t>
+  </si>
+  <si>
+    <t>945-2397-5-ND</t>
+  </si>
+  <si>
+    <t>RP40-2405SG</t>
+  </si>
+  <si>
+    <t>U36</t>
+  </si>
+  <si>
+    <t>732-3883-ND</t>
+  </si>
+  <si>
+    <t>7448227005</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>492-1243-2-ND</t>
+  </si>
+  <si>
+    <t>SM1210RGB</t>
+  </si>
+  <si>
+    <t>Bivar</t>
+  </si>
+  <si>
+    <t>LED_RGB_CA</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>1210-LED-RGB-CA</t>
+  </si>
+  <si>
+    <t>450-1662-ND</t>
+  </si>
+  <si>
+    <t>1825027-5</t>
+  </si>
+  <si>
+    <t>SW1, SW3</t>
+  </si>
+  <si>
+    <t>380-1110-ND</t>
+  </si>
+  <si>
+    <t>L829-1J1T-43</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
+  <si>
+    <t>CON6</t>
+  </si>
+  <si>
+    <t>336-3692-ND</t>
+  </si>
+  <si>
+    <t>CP2102N-A01-GQFN20</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>CP2102N</t>
+  </si>
+  <si>
+    <t>U44</t>
+  </si>
+  <si>
+    <t>QFN50P400X400-20V1L</t>
+  </si>
+  <si>
+    <t>296-40356-2-ND</t>
+  </si>
+  <si>
+    <t>LP5907MFX-2.5/NOPB</t>
+  </si>
+  <si>
+    <t>U38A, U38B, U38C, U38D</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>296-29537-1-ND</t>
+  </si>
+  <si>
+    <t>TPS2051CDBVR</t>
+  </si>
+  <si>
+    <t>TPS2051C</t>
+  </si>
+  <si>
+    <t>U43</t>
+  </si>
+  <si>
+    <t>296-18593-2-ND</t>
+  </si>
+  <si>
+    <t>SN74LVC8T245PWR</t>
+  </si>
+  <si>
+    <t>U6, U9</t>
+  </si>
+  <si>
+    <t>TSSOP24</t>
+  </si>
+  <si>
+    <t>296-16845-2-ND</t>
+  </si>
+  <si>
+    <t>SN74LVC2T45DCTR</t>
+  </si>
+  <si>
+    <t>U7, U8, U10, U11, U16A, U16B, U16C, U16D, U16E, U16F, U16G, U16H, U16I, U16J, U16K, U16L, U16M, U16N, U16O, U16P</t>
+  </si>
+  <si>
+    <t>SM8</t>
+  </si>
+  <si>
+    <t>277-1667-ND</t>
+  </si>
+  <si>
+    <t>1935161</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>ScrewTerminal_1x2</t>
+  </si>
+  <si>
+    <t>CON2, CON3, CON4</t>
+  </si>
+  <si>
     <t>Capacitor</t>
   </si>
   <si>
+    <t>C1, C6, C11, C15, C24, C31, C37, C43</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>0603-CAP</t>
+  </si>
+  <si>
+    <t>C2, C7, C12, C16, C25, C32, C38, C44, C50, C51, C52, C54, C55, C56, C63, C64, C67, C68, C71, C72, C75, C76, C79, C80, C83, C84, C91A, C91B, C91C, C91D, C91E, C91F, C92A, C92B, C92C, C92D, C92E, C92F, C93A, C93B, C93C, C93D, C93E, C93F, C93G, C93H, C93I, C93J, C93K, C93L, C93M, C93N, C93O, C93P, C94A, C94B, C94C, C94D, C94E, C94F, C94G, C94H, C94I, C94J, C94K, C94L, C94M, C94N, C94O, C94P, C97A, C97B, C97C, C97D, C97E, C97F, C98A, C98B, C98C, C98D, C98E, C98F, C99A, C99B, C99C, C99D, C99E, C99F, C100A, C100B, C100C, C100D, C100E, C100F</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C3, C8, C13, C17, C19, C20, C21, C22, C26, C29, C30, C33, C36, C39, C41, C45, C157A, C157B, C158A, C158B, C161, C162, C163A, C163B</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C4, C5, C9, C10, C14, C18, C27, C28, C34, C35, C40, C46, C57, C58, C59, C60, C172, C174, C176</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
     <t>C23, C42, C53, C61, C62, C65, C66, C69, C70, C73, C74, C77, C78, C81, C82, C85, C86, C89A, C89B, C89C, C89D, C89E, C89F, C89G, C89H, C89I, C89J, C89K, C89L, C89M, C89N, C89O, C89P, C90A, C90B, C90C, C90D, C90E, C90F, C90G, C90H, C90I, C90J, C90K, C90L, C90M, C90N, C90O, C90P, C95A, C95B, C95C, C95D, C95E, C95F, C96A, C96B, C96C, C96D, C96E, C96F, C159A, C159B, C159C, C159D, C160A, C160B, C160C, C160D, C177, C179A, C179B, C180A, C180B, C183A, C183B, C184A, C184B, C187A, C187B, C188A, C188B, C189A, C189B, C189C, C189D, C189E, C189F, C189G, C189H, C190A, C190B, C190C, C190D, C190E, C190F, C190G, C190H</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>0603-CAP</t>
-  </si>
-  <si>
-    <t>C2, C7, C12, C16, C25, C32, C38, C44, C50, C51, C52, C54, C55, C56, C63, C64, C67, C68, C71, C72, C75, C76, C79, C80, C83, C84, C91A, C91B, C91C, C91D, C91E, C91F, C92A, C92B, C92C, C92D, C92E, C92F, C93A, C93B, C93C, C93D, C93E, C93F, C93G, C93H, C93I, C93J, C93K, C93L, C93M, C93N, C93O, C93P, C94A, C94B, C94C, C94D, C94E, C94F, C94G, C94H, C94I, C94J, C94K, C94L, C94M, C94N, C94O, C94P, C97A, C97B, C97C, C97D, C97E, C97F, C98A, C98B, C98C, C98D, C98E, C98F, C99A, C99B, C99C, C99D, C99E, C99F, C100A, C100B, C100C, C100D, C100E, C100F</t>
-  </si>
-  <si>
-    <t>100nF</t>
+    <t>C47A, C47B, C47C, C47D, C47E, C47F, C47G, C47H, C49A, C49B, C49C, C49D, C49E, C49F, C49G, C49H</t>
+  </si>
+  <si>
+    <t>1nF, 1%</t>
+  </si>
+  <si>
+    <t>C48A, C48B, C48C, C48D, C48E, C48F, C48G, C48H, C181A, C181B, C182A, C182B, C185A, C185B, C186A, C186B</t>
+  </si>
+  <si>
+    <t>33nF, 1%</t>
+  </si>
+  <si>
+    <t>C149, C150, C153, C154</t>
+  </si>
+  <si>
+    <t>1000pF, 2kV</t>
+  </si>
+  <si>
+    <t>1808-CAP</t>
+  </si>
+  <si>
+    <t>C151, C152, C155, C156</t>
+  </si>
+  <si>
+    <t>6.8uF, 50V</t>
+  </si>
+  <si>
+    <t>1812-CAP</t>
+  </si>
+  <si>
+    <t>C164A, C164B, C171</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C165A, C165B, C165C, C165D, C166A, C166B, C166C, C166D, C167A, C167B, C167C, C167D, C168A, C168B, C168C, C168D, C169, C178</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C170</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C173, C175</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>CON10</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x7</t>
+  </si>
+  <si>
+    <t>JTAG-SMT2</t>
+  </si>
+  <si>
+    <t>CON9</t>
+  </si>
+  <si>
+    <t>Jumper2</t>
+  </si>
+  <si>
+    <t>JP1, JP9, JP12, JP13, JP14, JP15</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1x2</t>
+  </si>
+  <si>
+    <t>Jumper3</t>
+  </si>
+  <si>
+    <t>JP2, JP3, JP4, JP5, JP8, JP10, JP11, JP16</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1X3</t>
+  </si>
+  <si>
+    <t>Jumper4T</t>
+  </si>
+  <si>
+    <t>JP6, JP7</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1X3T</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED1, LED5</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>0603-LED</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>LED3, LED6</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>MOUNT_HOLE</t>
+  </si>
+  <si>
+    <t>MH1, MH2, MH3, MH4, MH5, MH6, MH7, MH8</t>
+  </si>
+  <si>
+    <t>MOUNTING_HOLE</t>
+  </si>
+  <si>
+    <t>PicoZed</t>
+  </si>
+  <si>
+    <t>SOM1</t>
+  </si>
+  <si>
+    <t>PicoZedSOM</t>
+  </si>
+  <si>
+    <t>PIN_2x3</t>
+  </si>
+  <si>
+    <t>CON14, CON17</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x3</t>
+  </si>
+  <si>
+    <t>PIN_2x4</t>
+  </si>
+  <si>
+    <t>CON13, CON15, CON16</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x4</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
+    <t>R1, R23, R24, R25, R26A, R26B, R26C, R26D, R46, R53</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0603-RES</t>
+  </si>
+  <si>
+    <t>R2A, R2B, R2C, R2D, R2E, R2F, R2G, R2H, R8A, R8B, R8C, R8D, R8E, R8F, R8G, R8H</t>
+  </si>
+  <si>
+    <t>16k, 1%</t>
+  </si>
+  <si>
     <t>R3A, R3B, R3C, R3D, R3E, R3F, R3G, R3H, R4A, R4B, R4C, R4D, R4E, R4F, R4G, R4H, R7A, R7B, R7C, R7D, R7E, R7F, R7G, R7H, R9A, R9B, R9C, R9D, R9E, R9F, R9G, R9H</t>
   </si>
   <si>
     <t>1k, 1%</t>
   </si>
   <si>
-    <t>0603-RES</t>
-  </si>
-  <si>
-    <t>C3, C8, C13, C17, C19, C20, C21, C22, C26, C29, C30, C33, C36, C39, C41, C45, C157A, C157B, C158A, C158B, C161, C162, C163A, C163B</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>296-16845-2-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC2T45DCTR</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>U7, U8, U10, U11, U16A, U16B, U16C, U16D, U16E, U16F, U16G, U16H, U16I, U16J, U16K, U16L, U16M, U16N, U16O, U16P</t>
-  </si>
-  <si>
-    <t>SM8</t>
-  </si>
-  <si>
-    <t>C4, C5, C9, C10, C14, C18, C27, C28, C34, C35, C40, C46, C57, C58, C59, C60, C172, C174, C176</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C165A, C165B, C165C, C165D, C166A, C166B, C166C, C166D, C167A, C167B, C167C, C167D, C168A, C168B, C168C, C168D, C169, C178</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C47A, C47B, C47C, C47D, C47E, C47F, C47G, C47H, C49A, C49B, C49C, C49D, C49E, C49F, C49G, C49H</t>
-  </si>
-  <si>
-    <t>1nF, 1%</t>
-  </si>
-  <si>
-    <t>C48A, C48B, C48C, C48D, C48E, C48F, C48G, C48H, C181A, C181B, C182A, C182B, C185A, C185B, C186A, C186B</t>
-  </si>
-  <si>
-    <t>33nF, 1%</t>
-  </si>
-  <si>
-    <t>R2A, R2B, R2C, R2D, R2E, R2F, R2G, R2H, R8A, R8B, R8C, R8D, R8E, R8F, R8G, R8H</t>
-  </si>
-  <si>
-    <t>16k, 1%</t>
-  </si>
-  <si>
     <t>R5A, R5B, R5C, R5D, R5E, R5F, R5G, R5H, R57A, R57B, R58A, R58B, R59A, R59B, R60A, R60B</t>
   </si>
   <si>
     <t>100, 1%</t>
   </si>
   <si>
-    <t>R17, R18, R20, R21, R22, R43, R44, R45, R47, R48, R50, R51</t>
+    <t>R6A, R6B, R6C, R6D, R6E, R6F, R6G, R6H</t>
+  </si>
+  <si>
+    <t>2k, 1%</t>
+  </si>
+  <si>
+    <t>R10, R11, R14, R15, R16, R49</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>R13, R27, R52</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>R17, R18, R20, R21, R22, R39A, R39B, R39C, R39D, R43, R44, R45, R47, R48, R50, R51</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>TC4468COE-ND</t>
-  </si>
-  <si>
-    <t>TC4468COE</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>TC4468</t>
-  </si>
-  <si>
-    <t>U12A, U12B, U12C, U12D, U12E, U12F, U15A, U15B, U15C, U15D, U15E, U15F</t>
-  </si>
-  <si>
-    <t>SOIC16_N</t>
-  </si>
-  <si>
-    <t>R1, R23, R24, R25, R26A, R26B, R26C, R26D, R46, R53</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ADA4522-4ARZ-ND</t>
-  </si>
-  <si>
-    <t>ADA4522-4ARZ</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>ADA4522-4</t>
-  </si>
-  <si>
-    <t>U3A, U3B, U3C, U3D, U3E, U3F, U3G, U3H, U46A, U46B</t>
-  </si>
-  <si>
-    <t>TSSOP14</t>
-  </si>
-  <si>
-    <t>C1, C6, C11, C15, C24, C31, C37, C43</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>Jumper3</t>
-  </si>
-  <si>
-    <t>JP2, JP3, JP4, JP5, JP8, JP10, JP11, JP16</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1X3</t>
-  </si>
-  <si>
-    <t>R6A, R6B, R6C, R6D, R6E, R6F, R6G, R6H</t>
-  </si>
-  <si>
-    <t>2k, 1%</t>
-  </si>
-  <si>
-    <t>R38A, R38B, R38C, R38D, R41A, R41B, R41C, R41D</t>
-  </si>
-  <si>
-    <t>60k</t>
-  </si>
-  <si>
-    <t>DMN65D8L-7DITR-ND</t>
-  </si>
-  <si>
-    <t>DMN65D8L-7</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>MOSFET</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
-  </si>
-  <si>
-    <t>SOT95P250-3N</t>
-  </si>
-  <si>
-    <t>ADG3308BRUZ-ND</t>
-  </si>
-  <si>
-    <t>ADG3308BRUZ</t>
-  </si>
-  <si>
-    <t>ADG3308</t>
-  </si>
-  <si>
-    <t>U4, U13A, U13B, U13C, U13D, U13E, U13F</t>
-  </si>
-  <si>
-    <t>TSSOP50P640-20N</t>
-  </si>
-  <si>
-    <t>Jumper2</t>
-  </si>
-  <si>
-    <t>JP1, JP9, JP12, JP13, JP14, JP15</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1x2</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED1, LED2, LED3, LED5, LED6, LED7</t>
-  </si>
-  <si>
-    <t>0603-LED</t>
-  </si>
-  <si>
-    <t>R10, R11, R14, R15, R16, R49</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>1115FFE-ND</t>
-  </si>
-  <si>
-    <t>178-015-513R571</t>
-  </si>
-  <si>
-    <t>NorComp</t>
-  </si>
-  <si>
-    <t>CON7, CON8A, CON8B, CON8C, CON8D</t>
-  </si>
-  <si>
-    <t>C149, C150, C153, C154</t>
-  </si>
-  <si>
-    <t>1000pF, 2kV</t>
-  </si>
-  <si>
-    <t>1808-CAP</t>
-  </si>
-  <si>
-    <t>C151, C152, C155, C156</t>
-  </si>
-  <si>
-    <t>6.8uF, 50V</t>
-  </si>
-  <si>
-    <t>1812-CAP</t>
-  </si>
-  <si>
-    <t>R39A, R39B, R39C, R39D</t>
-  </si>
-  <si>
-    <t>5.2k</t>
+    <t>R28, R29</t>
+  </si>
+  <si>
+    <t>150, 2W</t>
+  </si>
+  <si>
+    <t>2512-RES</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>R38A, R38B, R38C, R38D</t>
+  </si>
+  <si>
+    <t>115k</t>
   </si>
   <si>
     <t>R40A, R40B, R40C, R40D</t>
   </si>
   <si>
-    <t>5.3k</t>
-  </si>
-  <si>
-    <t>296-40356-2-ND</t>
-  </si>
-  <si>
-    <t>LP5907MFX-2.5/NOPB</t>
-  </si>
-  <si>
-    <t>U38A, U38B, U38C, U38D</t>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-R7-ND</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-R7</t>
-  </si>
-  <si>
-    <t>U41A, U41B, U41C, U41D</t>
-  </si>
-  <si>
-    <t>TSOT-23</t>
-  </si>
-  <si>
-    <t>ADP7182AUJZ-R7-ND</t>
-  </si>
-  <si>
-    <t>ADP7182AUJZ-R7</t>
-  </si>
-  <si>
-    <t>U42A, U42B, U42C, U42D</t>
-  </si>
-  <si>
-    <t>F2895TR-ND</t>
-  </si>
-  <si>
-    <t>SP1001-04JTG</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
-    <t>D1, D3, D7, D8</t>
-  </si>
-  <si>
-    <t>SC70-5</t>
-  </si>
-  <si>
-    <t>INA2143UA-ND</t>
-  </si>
-  <si>
-    <t>INA2143UA</t>
-  </si>
-  <si>
-    <t>U47A, U47B, U48A, U48B</t>
-  </si>
-  <si>
-    <t>SOIC14_N</t>
-  </si>
-  <si>
-    <t>C164A, C164B, C171</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>PIN_2x4</t>
-  </si>
-  <si>
-    <t>CON13, CON15, CON16</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x4</t>
-  </si>
-  <si>
-    <t>R13, R27, R52</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>277-1667-ND</t>
-  </si>
-  <si>
-    <t>1935161</t>
-  </si>
-  <si>
-    <t>Phoenix Contact</t>
-  </si>
-  <si>
-    <t>ScrewTerminal_1x2</t>
-  </si>
-  <si>
-    <t>CON2, CON3, CON4</t>
-  </si>
-  <si>
-    <t>C173, C175</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>Jumper4T</t>
-  </si>
-  <si>
-    <t>JP6, JP7</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1X3T</t>
-  </si>
-  <si>
-    <t>PIN_2x3</t>
-  </si>
-  <si>
-    <t>CON14, CON17</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x3</t>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>R41A, R41B, R41C, R41D</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>1k</t>
   </si>
   <si>
     <t>R54, R55</t>
@@ -436,358 +808,16 @@
     <t>330</t>
   </si>
   <si>
-    <t>296-18593-2-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC8T245PWR</t>
-  </si>
-  <si>
-    <t>U6, U9</t>
-  </si>
-  <si>
-    <t>TSSOP24</t>
-  </si>
-  <si>
-    <t>450-1662-ND</t>
-  </si>
-  <si>
-    <t>1825027-5</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>SW1, SW3</t>
-  </si>
-  <si>
-    <t>732-3883-ND</t>
-  </si>
-  <si>
-    <t>7448227005</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>A97799TR-ND</t>
-  </si>
-  <si>
-    <t>1981584-1</t>
-  </si>
-  <si>
-    <t>CON11, CON12</t>
-  </si>
-  <si>
-    <t>LT1529CQ-5#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1529CQ-5#PBF</t>
-  </si>
-  <si>
-    <t>Analog Devices / Linear Technology</t>
-  </si>
-  <si>
-    <t>U40A, U40B</t>
-  </si>
-  <si>
-    <t>5-DDPAK</t>
-  </si>
-  <si>
-    <t>LT1764EQ-1.8#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1764EQ-1.8#PBF</t>
-  </si>
-  <si>
-    <t>U37A, U37B</t>
-  </si>
-  <si>
-    <t>LTC2320CUKG-14#PBF-ND</t>
-  </si>
-  <si>
-    <t>LTC2320CUKG-14#PBF</t>
-  </si>
-  <si>
-    <t>LTC2320-14</t>
-  </si>
-  <si>
-    <t>U1, U2</t>
-  </si>
-  <si>
-    <t>QFN52</t>
-  </si>
-  <si>
-    <t>C170</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>JTAG</t>
-  </si>
-  <si>
-    <t>CON10</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x7</t>
-  </si>
-  <si>
-    <t>JTAG-SMT2</t>
-  </si>
-  <si>
-    <t>CON9</t>
-  </si>
-  <si>
-    <t>PicoZed</t>
-  </si>
-  <si>
-    <t>SOM1</t>
-  </si>
-  <si>
-    <t>PicoZedSOM</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>150, 2W</t>
-  </si>
-  <si>
-    <t>2512-RES</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>120, 2W</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>R56</t>
   </si>
   <si>
-    <t>5k</t>
-  </si>
-  <si>
-    <t>296-29537-1-ND</t>
-  </si>
-  <si>
-    <t>TPS2051CDBVR</t>
-  </si>
-  <si>
-    <t>TPS2051C</t>
-  </si>
-  <si>
-    <t>U43</t>
-  </si>
-  <si>
-    <t>336-3692-ND</t>
-  </si>
-  <si>
-    <t>CP2102N-A01-GQFN20</t>
-  </si>
-  <si>
-    <t>Silicon Labs</t>
-  </si>
-  <si>
-    <t>CP2102N</t>
-  </si>
-  <si>
-    <t>U44</t>
-  </si>
-  <si>
-    <t>QFN50P400X400-20V1L</t>
-  </si>
-  <si>
-    <t>380-1110-ND</t>
-  </si>
-  <si>
-    <t>L829-1J1T-43</t>
-  </si>
-  <si>
-    <t>Bel</t>
-  </si>
-  <si>
-    <t>CON6</t>
-  </si>
-  <si>
-    <t>492-1243-2-ND</t>
-  </si>
-  <si>
-    <t>SM1210RGB</t>
-  </si>
-  <si>
-    <t>Bivar</t>
-  </si>
-  <si>
-    <t>LED_RGB_CA</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>1210-LED-RGB-CA</t>
-  </si>
-  <si>
-    <t>945-2397-5-ND</t>
-  </si>
-  <si>
-    <t>RP40-2405SG</t>
-  </si>
-  <si>
-    <t>Recom</t>
-  </si>
-  <si>
-    <t>U36</t>
-  </si>
-  <si>
-    <t>RP40-G</t>
-  </si>
-  <si>
-    <t>1727-4560-2-ND</t>
-  </si>
-  <si>
-    <t>74LVC1T45GW,125</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>U34</t>
-  </si>
-  <si>
-    <t>SOT363-6N</t>
-  </si>
-  <si>
-    <t>A115463-ND</t>
-  </si>
-  <si>
-    <t>5569257-1</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>AE10921-ND</t>
-  </si>
-  <si>
-    <t>A-DF09A/KG-T2S</t>
-  </si>
-  <si>
-    <t>Assmann</t>
-  </si>
-  <si>
-    <t>A-DF 09 A/KG-T2S</t>
-  </si>
-  <si>
-    <t>CON5</t>
-  </si>
-  <si>
-    <t>CT1943MST-ND</t>
-  </si>
-  <si>
-    <t>194-3MST</t>
-  </si>
-  <si>
-    <t>CTS</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>LT1461CCS8-2.5#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1461CCS8-2.5#PBF</t>
-  </si>
-  <si>
-    <t>U45</t>
-  </si>
-  <si>
-    <t>SOIC8_N</t>
-  </si>
-  <si>
-    <t>LT1764EQ-3.3#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1764EQ-3.3#PBF</t>
-  </si>
-  <si>
-    <t>U39</t>
-  </si>
-  <si>
-    <t>MAX3097ECEE+-ND</t>
-  </si>
-  <si>
-    <t>MAX3097ECEE+</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>MAX3097E</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOP127P826-16L</t>
-  </si>
-  <si>
-    <t>RB521S30T1GOSTR-ND</t>
-  </si>
-  <si>
-    <t>RB521S30T1G</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>RB521</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-  </si>
-  <si>
-    <t>RP40-2415DGW-ND</t>
-  </si>
-  <si>
-    <t>RP40-2415DGW</t>
-  </si>
-  <si>
-    <t>RP40-2415DG</t>
-  </si>
-  <si>
-    <t>U35</t>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>WEMPEC</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6885995-1011-474B-9F69-E32A584FEA82}">
-  <dimension ref="A1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B405F22F-1BF5-4DCE-B26A-AD7EC25D5461}">
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,2149 +1257,2265 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F20" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F38" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="F39" s="3">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="F40" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F43" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F45" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F50" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="3">
         <v>8</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="3">
         <v>8</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="F62" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F63" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="F64" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="F66" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="3">
+        <v>16</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F73" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" s="3">
         <v>1</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>215</v>
+      <c r="G76" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" tooltip="Supplier" display="'" xr:uid="{3607B916-89FE-416E-8798-4C454905BFDA}"/>
-    <hyperlink ref="B2" tooltip="Manufacturer" display="'" xr:uid="{27C0F938-15CF-4B74-A322-4D6CAF68F951}"/>
-    <hyperlink ref="C2" tooltip="Component" display="'" xr:uid="{F7D8303B-3429-4AF3-B945-92F9A6558411}"/>
-    <hyperlink ref="A3" tooltip="Supplier" display="'" xr:uid="{23A2646F-AB0F-4505-8034-FA3DFE8B277C}"/>
-    <hyperlink ref="B3" tooltip="Manufacturer" display="'" xr:uid="{6E15BE39-1F26-4702-A6DE-6FA8358B5E79}"/>
-    <hyperlink ref="C3" tooltip="Component" display="'" xr:uid="{F28649A9-D5CA-49D6-BD8E-BC683437E53B}"/>
-    <hyperlink ref="A4" tooltip="Supplier" display="'" xr:uid="{D695CC8C-6AE2-40D6-8505-5F6D497501B3}"/>
-    <hyperlink ref="B4" tooltip="Manufacturer" display="'" xr:uid="{C18B7B34-C807-4238-A63B-9226C7F6140B}"/>
-    <hyperlink ref="C4" tooltip="Component" display="'" xr:uid="{06F4C9D2-F7D8-43A5-9B1D-9D9E0C94554B}"/>
-    <hyperlink ref="A5" tooltip="Supplier" display="'" xr:uid="{F8DD9B6C-981D-4742-B171-2195E5CB52A6}"/>
-    <hyperlink ref="B5" tooltip="Manufacturer" display="'" xr:uid="{1C01E4A6-64A9-44C3-BBD6-7AACA3E5BE16}"/>
-    <hyperlink ref="C5" tooltip="Component" display="'" xr:uid="{957B0EB7-7B75-48B0-868C-89A10747DE41}"/>
-    <hyperlink ref="A6" r:id="rId1" tooltip="Supplier" display="'296-16845-2-ND" xr:uid="{E7B13344-397F-41A8-90A6-99DCE5EA1F15}"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="Manufacturer" display="'SN74LVC2T45DCTR" xr:uid="{341975D8-2892-4FD7-B5AF-0CC4703333B1}"/>
-    <hyperlink ref="C6" r:id="rId3" tooltip="Component" display="'Texas Instruments" xr:uid="{7AB01C1D-EFDF-45EF-851B-47B1E6DF9411}"/>
-    <hyperlink ref="A7" tooltip="Supplier" display="'" xr:uid="{928E39EB-0D14-4E4B-AEFE-1FCA50213C5A}"/>
-    <hyperlink ref="B7" tooltip="Manufacturer" display="'" xr:uid="{479A2A87-6137-4582-A4EA-009BE02C8FC1}"/>
-    <hyperlink ref="C7" tooltip="Component" display="'" xr:uid="{F2456C2C-0ACA-4BD9-A15A-A6A74A297C76}"/>
-    <hyperlink ref="A8" tooltip="Supplier" display="'" xr:uid="{A067E9FE-D1DF-4422-AA88-AC8F01FEF385}"/>
-    <hyperlink ref="B8" tooltip="Manufacturer" display="'" xr:uid="{3D628A43-A281-4F00-A55B-065E090A34AC}"/>
-    <hyperlink ref="C8" tooltip="Component" display="'" xr:uid="{DCA0F00F-5FE6-4315-9522-150992792477}"/>
-    <hyperlink ref="A9" tooltip="Supplier" display="'" xr:uid="{F92333AC-6B12-46E9-A034-6F128EFE9B7C}"/>
-    <hyperlink ref="B9" tooltip="Manufacturer" display="'" xr:uid="{6BEF0946-A637-4B99-93DA-FA6B783A81C1}"/>
-    <hyperlink ref="C9" tooltip="Component" display="'" xr:uid="{152F6B4A-7B54-4635-A07F-A83D25D7D76C}"/>
-    <hyperlink ref="A10" tooltip="Supplier" display="'" xr:uid="{7D8EC956-D168-4DC4-9006-48C8DAF94315}"/>
-    <hyperlink ref="B10" tooltip="Manufacturer" display="'" xr:uid="{E74247A6-F797-4F02-A383-7441BB593724}"/>
-    <hyperlink ref="C10" tooltip="Component" display="'" xr:uid="{376EDD8D-EA25-4D18-80D0-138FB8B34595}"/>
-    <hyperlink ref="A11" tooltip="Supplier" display="'" xr:uid="{65AAB679-7FAE-429A-9F50-ECFD66D7FE3A}"/>
-    <hyperlink ref="B11" tooltip="Manufacturer" display="'" xr:uid="{8DFD9EC9-E433-4C0C-8C61-B40DD6FA1DF2}"/>
-    <hyperlink ref="C11" tooltip="Component" display="'" xr:uid="{C4D8A6F1-EC6C-4510-8C59-777B642167AD}"/>
-    <hyperlink ref="A12" tooltip="Supplier" display="'" xr:uid="{0C9D1D39-60E3-49B8-9409-ED14FF407365}"/>
-    <hyperlink ref="B12" tooltip="Manufacturer" display="'" xr:uid="{35E7F561-DCC8-4133-91DD-B0693481E179}"/>
-    <hyperlink ref="C12" tooltip="Component" display="'" xr:uid="{BB690E76-44ED-4DF5-BDCF-B90ADFF44430}"/>
-    <hyperlink ref="A13" tooltip="Supplier" display="'" xr:uid="{8F06381A-501E-4B4B-9E26-C7A06F11E822}"/>
-    <hyperlink ref="B13" tooltip="Manufacturer" display="'" xr:uid="{480B49B3-75D5-4A77-9BDC-5AD6C326D097}"/>
-    <hyperlink ref="C13" tooltip="Component" display="'" xr:uid="{7FC4858B-EC70-415C-9B58-13921CF54D46}"/>
-    <hyperlink ref="A14" r:id="rId4" tooltip="Supplier" display="'TC4468COE-ND" xr:uid="{56027FA7-C8E9-49AF-A2E4-993B218606E1}"/>
-    <hyperlink ref="B14" r:id="rId5" tooltip="Manufacturer" display="'TC4468COE" xr:uid="{CB30C951-0201-403A-AC90-6B273AB6D1A6}"/>
-    <hyperlink ref="C14" r:id="rId6" tooltip="Component" display="'Microchip" xr:uid="{A933807C-95BE-40F6-A60D-30383A547C01}"/>
-    <hyperlink ref="A15" tooltip="Supplier" display="'" xr:uid="{445FEB2F-030E-41B8-92DB-3E1AC2856164}"/>
-    <hyperlink ref="B15" tooltip="Manufacturer" display="'" xr:uid="{5659E457-5C9F-41FF-880D-6FF09056A840}"/>
-    <hyperlink ref="C15" tooltip="Component" display="'" xr:uid="{C73F05A0-51F6-4B52-9C34-046369A6CB30}"/>
-    <hyperlink ref="A16" r:id="rId7" tooltip="Supplier" display="'ADA4522-4ARZ-ND" xr:uid="{0D8909A7-BD3A-4B45-A907-89AE996A5872}"/>
-    <hyperlink ref="B16" r:id="rId8" tooltip="Manufacturer" display="'ADA4522-4ARZ" xr:uid="{27E61726-5F3A-41CF-BD18-65F1195BD0F8}"/>
-    <hyperlink ref="C16" r:id="rId9" tooltip="Component" display="'Analog Devices" xr:uid="{46560314-EFE3-49FD-883E-D350996CB6B3}"/>
-    <hyperlink ref="A17" tooltip="Supplier" display="'" xr:uid="{31CB8E00-03C2-4F71-AAA8-298AB731D447}"/>
-    <hyperlink ref="B17" tooltip="Manufacturer" display="'" xr:uid="{7954D69F-B02C-4FFC-90BC-9E8E4027AA19}"/>
-    <hyperlink ref="C17" tooltip="Component" display="'" xr:uid="{BA097129-41D2-4E79-A6D6-88C18ACD436E}"/>
-    <hyperlink ref="A18" tooltip="Supplier" display="'" xr:uid="{A3B51022-BA80-4AC2-A3FC-775BD3C401F3}"/>
-    <hyperlink ref="B18" tooltip="Manufacturer" display="'" xr:uid="{88FE8E6E-B88E-4C50-B212-F705E30A600A}"/>
-    <hyperlink ref="C18" tooltip="Component" display="'" xr:uid="{A1417396-0904-4727-8FE0-0FFD9C7AA9B5}"/>
-    <hyperlink ref="A19" tooltip="Supplier" display="'" xr:uid="{583FF7B7-8A17-48DA-A615-7F9B35EA92DA}"/>
-    <hyperlink ref="B19" tooltip="Manufacturer" display="'" xr:uid="{C8EBE499-0BAE-4C12-8ED0-216D2DCE022D}"/>
-    <hyperlink ref="C19" tooltip="Component" display="'" xr:uid="{FB164CDB-492D-47C3-AB09-FABEC8DD9FE1}"/>
-    <hyperlink ref="A20" tooltip="Supplier" display="'" xr:uid="{7AAA0929-CD77-4417-9104-EC19F69BFC2B}"/>
-    <hyperlink ref="B20" tooltip="Manufacturer" display="'" xr:uid="{7642BF84-1C92-4BD4-897E-F0B3E30ABD54}"/>
-    <hyperlink ref="C20" tooltip="Component" display="'" xr:uid="{CB8BB1C4-ABB1-402A-9B2D-5E2FAA1684B4}"/>
-    <hyperlink ref="A21" r:id="rId10" tooltip="Supplier" display="'DMN65D8L-7DITR-ND" xr:uid="{EEB65D74-3EED-492F-8A9B-5BD14015366A}"/>
-    <hyperlink ref="B21" r:id="rId11" tooltip="Manufacturer" display="'DMN65D8L-7" xr:uid="{9A0F2A94-319D-4E84-A7C4-5C2CF633FD0D}"/>
-    <hyperlink ref="C21" r:id="rId12" tooltip="Component" display="'Diodes" xr:uid="{1D5CB591-823A-483F-B8A7-938464C47DF4}"/>
-    <hyperlink ref="A22" r:id="rId13" tooltip="Supplier" display="'ADG3308BRUZ-ND" xr:uid="{86DD1875-8D82-44E4-A893-B7B25038DAC0}"/>
-    <hyperlink ref="B22" r:id="rId14" tooltip="Manufacturer" display="'ADG3308BRUZ" xr:uid="{58FD0D0C-B060-4988-89DD-D49BAEB95EA4}"/>
-    <hyperlink ref="C22" r:id="rId15" tooltip="Component" display="'Analog Devices" xr:uid="{D9333B2A-5CD6-4E22-A3DF-07AD0028A2BB}"/>
-    <hyperlink ref="A23" tooltip="Supplier" display="'" xr:uid="{A790E1B0-06B0-4E8F-A727-4731E7BCB6B9}"/>
-    <hyperlink ref="B23" tooltip="Manufacturer" display="'" xr:uid="{4601D003-68F5-467E-A393-BA63FDB83AC9}"/>
-    <hyperlink ref="C23" tooltip="Component" display="'" xr:uid="{6635CACD-ACB6-429D-895E-2D9F745039CC}"/>
-    <hyperlink ref="A24" tooltip="Supplier" display="'" xr:uid="{5EF8B92E-2607-4339-9887-4349F9C05FB1}"/>
-    <hyperlink ref="B24" tooltip="Manufacturer" display="'" xr:uid="{4EAF26AA-609D-4761-A02C-F25C22D2EB9E}"/>
-    <hyperlink ref="C24" tooltip="Component" display="'" xr:uid="{1D5BFC0B-FABC-4549-8BCF-909BA753DE09}"/>
-    <hyperlink ref="A25" tooltip="Supplier" display="'" xr:uid="{FD403A1C-9E08-4603-B636-829623F8E3FE}"/>
-    <hyperlink ref="B25" tooltip="Manufacturer" display="'" xr:uid="{E3DF17B9-C1FF-4C97-89A1-C46239468BD0}"/>
-    <hyperlink ref="C25" tooltip="Component" display="'" xr:uid="{5610C191-E8B7-49DA-996C-F63C8BC17902}"/>
-    <hyperlink ref="A26" r:id="rId16" tooltip="Supplier" display="'1115FFE-ND" xr:uid="{4AE51522-7447-4F7B-88A6-E66A36F94A4B}"/>
-    <hyperlink ref="B26" r:id="rId17" tooltip="Manufacturer" display="'178-015-513R571" xr:uid="{C26F7664-F279-42B4-A365-B23B988EB110}"/>
-    <hyperlink ref="C26" r:id="rId18" tooltip="Component" display="'NorComp" xr:uid="{FD8C5573-1470-4159-968C-4D755E9EDEE6}"/>
-    <hyperlink ref="A27" tooltip="Supplier" display="'" xr:uid="{E83084F1-10CE-4097-A929-91B60FCFF24E}"/>
-    <hyperlink ref="B27" tooltip="Manufacturer" display="'" xr:uid="{51F31859-3645-482E-A636-0A43D449DDA6}"/>
-    <hyperlink ref="C27" tooltip="Component" display="'" xr:uid="{1E947FAF-6A5B-4A73-A1F8-325BA77FB211}"/>
-    <hyperlink ref="A28" tooltip="Supplier" display="'" xr:uid="{B265D90F-5811-447F-ADFA-C8C7D3371096}"/>
-    <hyperlink ref="B28" tooltip="Manufacturer" display="'" xr:uid="{359F94EE-3428-4805-A350-145679BBBE1C}"/>
-    <hyperlink ref="C28" tooltip="Component" display="'" xr:uid="{C0D56312-8947-4431-BFF3-0D17689C6C38}"/>
-    <hyperlink ref="A29" tooltip="Supplier" display="'" xr:uid="{56557B57-9FB2-48EC-9D2F-02C2906C7755}"/>
-    <hyperlink ref="B29" tooltip="Manufacturer" display="'" xr:uid="{CF8309AE-93A0-47CD-B397-A20889924BE8}"/>
-    <hyperlink ref="C29" tooltip="Component" display="'" xr:uid="{D09CA224-B50E-4EEF-BF22-3504E33E73CE}"/>
-    <hyperlink ref="A30" tooltip="Supplier" display="'" xr:uid="{29D25F61-A276-4202-AA24-621C88ECFDBF}"/>
-    <hyperlink ref="B30" tooltip="Manufacturer" display="'" xr:uid="{4FB76854-6ED8-4B41-9E19-3573A38EFA61}"/>
-    <hyperlink ref="C30" tooltip="Component" display="'" xr:uid="{059F6E0C-A1D8-4E52-A5E6-A1CBBC8E46BC}"/>
-    <hyperlink ref="A31" r:id="rId19" tooltip="Supplier" display="'296-40356-2-ND" xr:uid="{F108F85B-2FB8-4443-9AEB-183A7F5AA8CC}"/>
-    <hyperlink ref="B31" r:id="rId20" tooltip="Manufacturer" display="'LP5907MFX-2.5/NOPB" xr:uid="{350FCDC7-76ED-4782-A644-7E39B6A0CA38}"/>
-    <hyperlink ref="C31" r:id="rId21" tooltip="Component" display="'Texas Instruments" xr:uid="{0221E0D7-FFFD-4BB5-93C7-68BA41AB2D0F}"/>
-    <hyperlink ref="A32" r:id="rId22" tooltip="Supplier" display="'ADP7118AUJZ-R7-ND" xr:uid="{7169DFB5-9AA3-4A48-BF44-FCA113F397AA}"/>
-    <hyperlink ref="B32" r:id="rId23" tooltip="Manufacturer" display="'ADP7118AUJZ-R7" xr:uid="{2554F652-7088-4519-805A-2FE2C8C7F7F8}"/>
-    <hyperlink ref="C32" r:id="rId24" tooltip="Component" display="'Analog Devices" xr:uid="{DBA54BA1-9F77-4B1E-A980-BBF453EBC088}"/>
-    <hyperlink ref="A33" r:id="rId25" tooltip="Supplier" display="'ADP7182AUJZ-R7-ND" xr:uid="{27DBBECD-09B9-4ECB-A029-98109BC6262A}"/>
-    <hyperlink ref="B33" r:id="rId26" tooltip="Manufacturer" display="'ADP7182AUJZ-R7" xr:uid="{DA64C497-C143-45C1-A07C-C19478900BF2}"/>
-    <hyperlink ref="C33" r:id="rId27" tooltip="Component" display="'Analog Devices" xr:uid="{21639DDE-EFD4-4061-8DCB-659449A23BC8}"/>
-    <hyperlink ref="A34" r:id="rId28" tooltip="Supplier" display="'F2895TR-ND" xr:uid="{14F7D4BE-00F5-40E9-8922-EC3DA1EC79FC}"/>
-    <hyperlink ref="B34" r:id="rId29" tooltip="Manufacturer" display="'SP1001-04JTG" xr:uid="{9DDB4FED-364C-419E-BF85-F6176AC97CF2}"/>
-    <hyperlink ref="C34" r:id="rId30" tooltip="Component" display="'Littelfuse" xr:uid="{0008F0DD-0262-4DD3-98E1-3948A971C907}"/>
-    <hyperlink ref="A35" r:id="rId31" tooltip="Supplier" display="'INA2143UA-ND" xr:uid="{A4FC2F24-04F9-455D-8119-02F72C72997A}"/>
-    <hyperlink ref="B35" r:id="rId32" tooltip="Manufacturer" display="'INA2143UA" xr:uid="{FC8DBB74-B460-4EA9-8237-3A41F7944531}"/>
-    <hyperlink ref="C35" r:id="rId33" tooltip="Component" display="'Texas Instruments" xr:uid="{4E28FEAF-9D12-42C1-A31C-6053AF761836}"/>
-    <hyperlink ref="A36" tooltip="Supplier" display="'" xr:uid="{288BD552-07CC-4268-B769-BCB9B5971BDB}"/>
-    <hyperlink ref="B36" tooltip="Manufacturer" display="'" xr:uid="{37BFAAD4-4B25-4AE6-A9DA-95286AE47190}"/>
-    <hyperlink ref="C36" tooltip="Component" display="'" xr:uid="{53B487E4-7E16-4445-BCF3-BDF6ED0B9608}"/>
-    <hyperlink ref="A37" tooltip="Supplier" display="'" xr:uid="{659AC831-8029-4061-BEC2-EBB1A681ABAC}"/>
-    <hyperlink ref="B37" tooltip="Manufacturer" display="'" xr:uid="{288A50A2-5576-4FEE-891F-EA20FDA1D402}"/>
-    <hyperlink ref="C37" tooltip="Component" display="'" xr:uid="{39C068D0-86D6-4B72-9500-0A30C1F9ABB3}"/>
-    <hyperlink ref="A38" tooltip="Supplier" display="'" xr:uid="{699F1827-701B-47AD-9399-89BC9D97FAEB}"/>
-    <hyperlink ref="B38" tooltip="Manufacturer" display="'" xr:uid="{856E8848-AD77-4E3A-AA45-A229FCE7AF66}"/>
-    <hyperlink ref="C38" tooltip="Component" display="'" xr:uid="{1E084E54-E89F-400D-8721-B522DBA38C90}"/>
-    <hyperlink ref="A39" r:id="rId34" tooltip="Supplier" display="'277-1667-ND" xr:uid="{F2EB731D-F5C3-4B07-BD31-793CEE55818A}"/>
-    <hyperlink ref="B39" r:id="rId35" tooltip="Manufacturer" display="'1935161" xr:uid="{58196FD0-C246-45C9-9A51-7DD3764B3326}"/>
-    <hyperlink ref="C39" r:id="rId36" tooltip="Component" display="'Phoenix Contact" xr:uid="{8E3A512C-2D08-4DA0-B834-74C4E10C7F08}"/>
-    <hyperlink ref="A40" tooltip="Supplier" display="'" xr:uid="{4DEBB1A3-CFFD-47F3-B8B9-C291D56E34FD}"/>
-    <hyperlink ref="B40" tooltip="Manufacturer" display="'" xr:uid="{6A7472D4-DAED-4690-BDC6-9AE35873AF53}"/>
-    <hyperlink ref="C40" tooltip="Component" display="'" xr:uid="{42ED691F-D0CE-45AA-84A8-BED6B48ADE65}"/>
-    <hyperlink ref="A41" tooltip="Supplier" display="'" xr:uid="{C40411CC-FAE3-41E6-809F-A241344712E5}"/>
-    <hyperlink ref="B41" tooltip="Manufacturer" display="'" xr:uid="{461BCA0B-1772-4A48-A750-AF6AC91CFB6D}"/>
-    <hyperlink ref="C41" tooltip="Component" display="'" xr:uid="{A37601F9-08B8-4732-BA21-B2319E9144F1}"/>
-    <hyperlink ref="A42" tooltip="Supplier" display="'" xr:uid="{D2003059-417F-4B83-ADF5-C779753C1BA0}"/>
-    <hyperlink ref="B42" tooltip="Manufacturer" display="'" xr:uid="{76496DF3-EFC6-4EC8-B45C-4C89FD5B4B54}"/>
-    <hyperlink ref="C42" tooltip="Component" display="'" xr:uid="{A5AE2407-A0F6-4787-AAFA-55BBD3A73501}"/>
-    <hyperlink ref="A43" tooltip="Supplier" display="'" xr:uid="{FA015C6B-4472-4210-A1FB-224F9CE809FE}"/>
-    <hyperlink ref="B43" tooltip="Manufacturer" display="'" xr:uid="{E098E2DE-D712-4477-9EB5-46D6351CBA5C}"/>
-    <hyperlink ref="C43" tooltip="Component" display="'" xr:uid="{5AAFAED8-BDBA-4C86-8BC0-3DD03E121930}"/>
-    <hyperlink ref="A44" r:id="rId37" tooltip="Supplier" display="'296-18593-2-ND" xr:uid="{561435D8-E4BA-463E-A7C0-0A234AAD5DD8}"/>
-    <hyperlink ref="B44" r:id="rId38" tooltip="Manufacturer" display="'SN74LVC8T245PWR" xr:uid="{9174001F-AA5F-4320-8F96-FE4DF617AB21}"/>
-    <hyperlink ref="C44" r:id="rId39" tooltip="Component" display="'Texas Instruments" xr:uid="{D9C8BF22-A196-4725-8CFA-8B53E042E4C2}"/>
-    <hyperlink ref="A45" r:id="rId40" tooltip="Supplier" display="'450-1662-ND" xr:uid="{CB2CF280-CE0B-4329-9665-48DA49CA06D5}"/>
-    <hyperlink ref="B45" r:id="rId41" tooltip="Manufacturer" display="'1825027-5" xr:uid="{7E9F57DA-980A-4EA3-8610-A2C9DA5B88C7}"/>
-    <hyperlink ref="C45" r:id="rId42" tooltip="Component" display="'TE Connectivity" xr:uid="{52EF7DEA-A883-410F-BACC-30BEDF6553C3}"/>
-    <hyperlink ref="A46" r:id="rId43" tooltip="Supplier" display="'732-3883-ND" xr:uid="{8297DD52-96B7-49E6-B294-FAA5982475A2}"/>
-    <hyperlink ref="B46" r:id="rId44" tooltip="Manufacturer" display="'7448227005" xr:uid="{73F76353-76BF-4DF6-8BB3-B13F89BB35F9}"/>
-    <hyperlink ref="C46" r:id="rId45" tooltip="Component" display="'Wurth Electronics" xr:uid="{9A83F12E-70FA-4513-9CEC-6402ABF1F179}"/>
-    <hyperlink ref="A47" r:id="rId46" tooltip="Supplier" display="'A97799TR-ND" xr:uid="{9F0E7B18-B029-4B7C-8A25-C74A8F502A70}"/>
-    <hyperlink ref="B47" r:id="rId47" tooltip="Manufacturer" display="'1981584-1" xr:uid="{604C8495-5CFF-4A8B-9A1E-3D51A811A7CA}"/>
-    <hyperlink ref="C47" r:id="rId48" tooltip="Component" display="'TE Connectivity" xr:uid="{9FB9E06B-80D3-43DE-82FF-A4D4D6A15777}"/>
-    <hyperlink ref="A48" r:id="rId49" tooltip="Supplier" display="'LT1529CQ-5#PBF-ND" xr:uid="{AE0EE25B-80BF-4DA0-9CB2-6F76A2FBC386}"/>
-    <hyperlink ref="B48" r:id="rId50" tooltip="Manufacturer" display="'LT1529CQ-5#PBF" xr:uid="{321EAA67-65F4-4BA5-9321-6FB53A4CFBF3}"/>
-    <hyperlink ref="C48" r:id="rId51" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{51A9C0B9-4FFE-49EB-857B-678CB2334208}"/>
-    <hyperlink ref="A49" r:id="rId52" tooltip="Supplier" display="'LT1764EQ-1.8#PBF-ND" xr:uid="{BA470C7F-E315-4210-A37D-08E3178FD539}"/>
-    <hyperlink ref="B49" r:id="rId53" tooltip="Manufacturer" display="'LT1764EQ-1.8#PBF" xr:uid="{8C912177-D589-4C82-A4F9-C52329933C69}"/>
-    <hyperlink ref="C49" r:id="rId54" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{5999EAB8-7FFF-47BF-87BC-29835E410B16}"/>
-    <hyperlink ref="A50" r:id="rId55" tooltip="Supplier" display="'LTC2320CUKG-14#PBF-ND" xr:uid="{74A31B93-1E1E-47F9-8190-28DAA295860C}"/>
-    <hyperlink ref="B50" r:id="rId56" tooltip="Manufacturer" display="'LTC2320CUKG-14#PBF" xr:uid="{16EB4EC2-1271-4335-ADA4-90E711B2BB63}"/>
-    <hyperlink ref="C50" r:id="rId57" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{C977810D-5AAC-4D0E-AA09-B13517C641B8}"/>
-    <hyperlink ref="A51" tooltip="Supplier" display="'" xr:uid="{5B1464C3-1A85-4F01-9440-40992216C270}"/>
-    <hyperlink ref="B51" tooltip="Manufacturer" display="'" xr:uid="{63067CEE-27F8-469C-9A4D-4F342EA1B355}"/>
-    <hyperlink ref="C51" tooltip="Component" display="'" xr:uid="{389C088E-C824-47C1-8A35-EF0835A1A1D0}"/>
-    <hyperlink ref="A52" tooltip="Supplier" display="'" xr:uid="{9F3FA6D5-6D3F-4921-B255-5E5F83540583}"/>
-    <hyperlink ref="B52" tooltip="Manufacturer" display="'" xr:uid="{EC0BDF4F-7D80-4A20-BCC7-3731D50E47B2}"/>
-    <hyperlink ref="C52" tooltip="Component" display="'" xr:uid="{8EAF2EF5-5C13-4B71-A59A-87AAE4EFA9E7}"/>
-    <hyperlink ref="A53" tooltip="Supplier" display="'" xr:uid="{0A2FC269-F764-4A92-AC54-A8B76B00B603}"/>
-    <hyperlink ref="B53" tooltip="Manufacturer" display="'" xr:uid="{2F5D0980-BF98-43C3-B8CB-222B01AE1E8E}"/>
-    <hyperlink ref="C53" tooltip="Component" display="'" xr:uid="{686EACB1-9BC9-4526-9E4B-9941C5FB53A1}"/>
-    <hyperlink ref="A54" tooltip="Supplier" display="'" xr:uid="{4B3517F8-207E-4FF7-9641-1FEDFA16DFCE}"/>
-    <hyperlink ref="B54" tooltip="Manufacturer" display="'" xr:uid="{5AFE6325-0167-4CB1-8C6F-F23A92698662}"/>
-    <hyperlink ref="C54" tooltip="Component" display="'" xr:uid="{89AB74CB-4E48-483E-9052-D5145601B0C9}"/>
-    <hyperlink ref="A55" tooltip="Supplier" display="'" xr:uid="{C8D4BC34-2DB4-4169-85DD-F45224D4FF80}"/>
-    <hyperlink ref="B55" tooltip="Manufacturer" display="'" xr:uid="{84705CE4-6FC9-478D-953D-D804353B2D9D}"/>
-    <hyperlink ref="C55" tooltip="Component" display="'" xr:uid="{6C128E03-6E86-41D1-845F-84E017D75CE6}"/>
-    <hyperlink ref="A56" tooltip="Supplier" display="'" xr:uid="{4D903AED-1CA4-44A9-9A59-2CCACE0710F0}"/>
-    <hyperlink ref="B56" tooltip="Manufacturer" display="'" xr:uid="{F1633EFD-5473-49A1-BF8C-469D7CBCAD58}"/>
-    <hyperlink ref="C56" tooltip="Component" display="'" xr:uid="{4C714176-8572-4264-BB82-457D7DC7F9F2}"/>
-    <hyperlink ref="A57" tooltip="Supplier" display="'" xr:uid="{8C3ECADF-C32C-4AFC-BDB4-AB574D3CE99E}"/>
-    <hyperlink ref="B57" tooltip="Manufacturer" display="'" xr:uid="{3919D4ED-FEFE-4531-9A01-B2E63FE64B80}"/>
-    <hyperlink ref="C57" tooltip="Component" display="'" xr:uid="{0603D05B-D8E1-4C67-8C9D-34C733A62385}"/>
-    <hyperlink ref="A58" tooltip="Supplier" display="'" xr:uid="{33A7BCCE-B59E-4B86-9C72-CCAD644110F9}"/>
-    <hyperlink ref="B58" tooltip="Manufacturer" display="'" xr:uid="{9854282B-C72C-4E2E-A241-C86BC3B07212}"/>
-    <hyperlink ref="C58" tooltip="Component" display="'" xr:uid="{97FDFF1D-87AF-427F-A75F-285D45BC23D1}"/>
-    <hyperlink ref="A59" tooltip="Supplier" display="'" xr:uid="{F84B3E8F-6FCE-4659-95B0-C8497A714307}"/>
-    <hyperlink ref="B59" tooltip="Manufacturer" display="'" xr:uid="{860EA3C6-0E2F-4891-BBC7-8921EBD2AEDC}"/>
-    <hyperlink ref="C59" tooltip="Component" display="'" xr:uid="{B1FCE05B-77B5-4A0B-81F8-7054602E1582}"/>
-    <hyperlink ref="A60" tooltip="Supplier" display="'" xr:uid="{16DAEFA2-3BCD-467E-95A1-5A291A948F79}"/>
-    <hyperlink ref="B60" tooltip="Manufacturer" display="'" xr:uid="{85EEBB2F-E598-40D5-8680-8039CE16E604}"/>
-    <hyperlink ref="C60" tooltip="Component" display="'" xr:uid="{5C5BFAA3-D360-4F06-A688-60B4115A1705}"/>
-    <hyperlink ref="A61" tooltip="Supplier" display="'" xr:uid="{800DFD27-D97C-4025-8CF9-A79F15386517}"/>
-    <hyperlink ref="B61" tooltip="Manufacturer" display="'" xr:uid="{0B7AED38-061B-479C-83AA-5657D4CAF3BB}"/>
-    <hyperlink ref="C61" tooltip="Component" display="'" xr:uid="{1D938038-2378-474F-83E1-A1910B7AE0D6}"/>
-    <hyperlink ref="A62" r:id="rId58" tooltip="Supplier" display="'296-29537-1-ND" xr:uid="{85294526-4383-42E8-AA43-D04D0CDFE1C8}"/>
-    <hyperlink ref="B62" r:id="rId59" tooltip="Manufacturer" display="'TPS2051CDBVR" xr:uid="{F3E33975-B897-4D30-BE51-D494D8E082B5}"/>
-    <hyperlink ref="C62" r:id="rId60" tooltip="Component" display="'Texas Instruments" xr:uid="{74B05FF8-DF21-4397-A172-FEFB5C60380E}"/>
-    <hyperlink ref="A63" r:id="rId61" tooltip="Supplier" display="'336-3692-ND" xr:uid="{61A682D0-CD01-424D-86E6-B86812CBF6D8}"/>
-    <hyperlink ref="B63" r:id="rId62" tooltip="Manufacturer" display="'CP2102N-A01-GQFN20" xr:uid="{19AE8ED4-4673-4E5F-9CEE-0C2BDDB499F5}"/>
-    <hyperlink ref="C63" r:id="rId63" tooltip="Component" display="'Silicon Labs" xr:uid="{CB5E2DDB-3806-4EE4-BC58-5E0337680197}"/>
-    <hyperlink ref="A64" r:id="rId64" tooltip="Supplier" display="'380-1110-ND" xr:uid="{15D850EE-A8ED-4B1C-9137-61E34348E34C}"/>
-    <hyperlink ref="B64" r:id="rId65" tooltip="Manufacturer" display="'L829-1J1T-43" xr:uid="{756DA154-1D90-4062-87AD-B4DDCDADCB3F}"/>
-    <hyperlink ref="C64" r:id="rId66" tooltip="Component" display="'Bel" xr:uid="{DAEE9137-FEF8-40C8-8343-9FA5A9863C95}"/>
-    <hyperlink ref="A65" r:id="rId67" tooltip="Supplier" display="'492-1243-2-ND" xr:uid="{60545F64-81DE-412B-9938-7802EE27A7C2}"/>
-    <hyperlink ref="B65" r:id="rId68" tooltip="Manufacturer" display="'SM1210RGB" xr:uid="{AC0EF8DC-E6BE-440D-99AB-2E50BB5B2DAB}"/>
-    <hyperlink ref="C65" r:id="rId69" tooltip="Component" display="'Bivar" xr:uid="{B449C109-D52A-4B0F-98E8-B5F5520A0679}"/>
-    <hyperlink ref="A66" r:id="rId70" tooltip="Supplier" display="'945-2397-5-ND" xr:uid="{497A2CE9-995D-46BB-846F-98AF6F919564}"/>
-    <hyperlink ref="B66" r:id="rId71" tooltip="Manufacturer" display="'RP40-2405SG" xr:uid="{585C4426-0C3D-40A2-89E0-265C5E6CE548}"/>
-    <hyperlink ref="C66" r:id="rId72" tooltip="Component" display="'Recom" xr:uid="{698618CB-787B-477A-ADB0-DFD27B9ED67F}"/>
-    <hyperlink ref="A67" r:id="rId73" tooltip="Supplier" display="'1727-4560-2-ND" xr:uid="{91EF5745-4A09-4E0E-A130-2D57E7DCCD0E}"/>
-    <hyperlink ref="B67" r:id="rId74" tooltip="Manufacturer" display="'74LVC1T45GW,125" xr:uid="{C9E04C30-F5DF-487A-86FB-5DDD0F29F444}"/>
-    <hyperlink ref="C67" r:id="rId75" tooltip="Component" display="'Nexperia" xr:uid="{EAFD1581-2492-42A6-9133-4DF655A8F9DE}"/>
-    <hyperlink ref="A68" r:id="rId76" tooltip="Supplier" display="'A115463-ND" xr:uid="{34288967-9423-4294-B6F0-D2F397D97E84}"/>
-    <hyperlink ref="B68" r:id="rId77" tooltip="Manufacturer" display="'5569257-1" xr:uid="{03E60FF4-8159-4B8D-8426-591E00C703A2}"/>
-    <hyperlink ref="C68" r:id="rId78" tooltip="Component" display="'TE Connectivity" xr:uid="{7D5FAD23-95DF-4367-BD2D-DF43B86F6135}"/>
-    <hyperlink ref="A69" r:id="rId79" tooltip="Supplier" display="'AE10921-ND" xr:uid="{EBDEFB23-7D1E-4DEC-87F2-4B19C952417B}"/>
-    <hyperlink ref="B69" r:id="rId80" tooltip="Manufacturer" display="'A-DF09A/KG-T2S" xr:uid="{EAE4FB0A-3FC8-4FFC-BDC5-C236D49CC5F1}"/>
-    <hyperlink ref="C69" r:id="rId81" tooltip="Component" display="'Assmann" xr:uid="{D7CE7942-44CB-401E-96DA-4C3E86E6B513}"/>
-    <hyperlink ref="A70" r:id="rId82" tooltip="Supplier" display="'CT1943MST-ND" xr:uid="{18AA88DA-1828-4688-9C0E-43E7B0DFBC5D}"/>
-    <hyperlink ref="B70" r:id="rId83" tooltip="Manufacturer" display="'194-3MST" xr:uid="{0A20C159-E31D-4CF9-8150-285A6E08F448}"/>
-    <hyperlink ref="C70" r:id="rId84" tooltip="Component" display="'CTS" xr:uid="{0CBD3F65-BCB8-4111-A3AC-954999AD2E59}"/>
-    <hyperlink ref="A71" r:id="rId85" tooltip="Supplier" display="'LT1461CCS8-2.5#PBF-ND" xr:uid="{E7C514EB-B710-4725-B5F7-E44B8827877B}"/>
-    <hyperlink ref="B71" r:id="rId86" tooltip="Manufacturer" display="'LT1461CCS8-2.5#PBF" xr:uid="{68007B14-FE2D-4A92-9845-2FD451352985}"/>
-    <hyperlink ref="C71" r:id="rId87" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{3589B115-71A9-40A0-B78F-D6007F4E07D9}"/>
-    <hyperlink ref="A72" r:id="rId88" tooltip="Supplier" display="'LT1764EQ-3.3#PBF-ND" xr:uid="{6DAA0244-A1B9-4976-959E-184BB6C74476}"/>
-    <hyperlink ref="B72" r:id="rId89" tooltip="Manufacturer" display="'LT1764EQ-3.3#PBF" xr:uid="{9D7823D9-67C2-42AF-ADCE-329138ACB761}"/>
-    <hyperlink ref="C72" r:id="rId90" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{53751339-052E-4A21-80E4-B6836FD6F960}"/>
-    <hyperlink ref="A73" r:id="rId91" tooltip="Supplier" display="'MAX3097ECEE+-ND" xr:uid="{12A70511-D30A-4E80-A706-E0BD8FC95418}"/>
-    <hyperlink ref="B73" r:id="rId92" tooltip="Manufacturer" display="'MAX3097ECEE+" xr:uid="{53BE7723-F515-431F-B2E6-4AFDB222DABD}"/>
-    <hyperlink ref="C73" r:id="rId93" tooltip="Component" display="'Maxim" xr:uid="{01891A8A-4ED7-4A7A-8020-8FA8C2DB0534}"/>
-    <hyperlink ref="A74" r:id="rId94" tooltip="Supplier" display="'RB521S30T1GOSTR-ND" xr:uid="{1E83BC89-FF1E-499D-BE0A-857B1486F1DF}"/>
-    <hyperlink ref="B74" r:id="rId95" tooltip="Manufacturer" display="'RB521S30T1G" xr:uid="{33565A8D-15BE-4DA6-8D2B-1E91CEC8A2F5}"/>
-    <hyperlink ref="C74" r:id="rId96" tooltip="Component" display="'ON Semiconductor" xr:uid="{107E099D-5630-41C8-99DA-45E17E260D72}"/>
-    <hyperlink ref="A75" r:id="rId97" tooltip="Supplier" display="'RP40-2415DGW-ND" xr:uid="{02E838FC-895E-459B-93B8-49079898BA58}"/>
-    <hyperlink ref="B75" r:id="rId98" tooltip="Manufacturer" display="'RP40-2415DGW" xr:uid="{A12F7042-33A7-494E-9679-24FB35C340B4}"/>
-    <hyperlink ref="C75" r:id="rId99" tooltip="Component" display="'Recom" xr:uid="{0B30505E-87AC-4534-BB76-B58C40CEA488}"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Supplier" display="'TC4468COE-ND" xr:uid="{4795D364-CB4E-4B71-90E2-92D7FC5F474D}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="Manufacturer" display="'TC4468COE" xr:uid="{6B9A60CC-357D-4F20-BF4C-EADD16BE369B}"/>
+    <hyperlink ref="C2" r:id="rId3" tooltip="Component" display="'Microchip" xr:uid="{24124F06-54EB-4B1F-B671-B6D97501BE57}"/>
+    <hyperlink ref="A3" r:id="rId4" tooltip="Supplier" display="'RP40-2415DGW-ND" xr:uid="{CFE2F5C4-685A-4F19-82A5-9B3B9132C070}"/>
+    <hyperlink ref="B3" r:id="rId5" tooltip="Manufacturer" display="'RP40-2415DGW" xr:uid="{FAFAF5A3-2BE3-4D15-93AD-66A8B3998602}"/>
+    <hyperlink ref="C3" r:id="rId6" tooltip="Component" display="'Recom" xr:uid="{4F41619D-3F03-4BE4-B2C0-FFB98A5D1049}"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="Supplier" display="'RB521S30T1GOSTR-ND" xr:uid="{DB736B21-BDFA-4BD6-AFE2-2126062D1D15}"/>
+    <hyperlink ref="B4" r:id="rId8" tooltip="Manufacturer" display="'RB521S30T1G" xr:uid="{2E56A0A5-CC69-455A-AB19-A0188CCC866A}"/>
+    <hyperlink ref="C4" r:id="rId9" tooltip="Component" display="'ON Semiconductor" xr:uid="{BCE336F4-E29F-4837-B7A1-F66A76045FE6}"/>
+    <hyperlink ref="A5" r:id="rId10" tooltip="Supplier" display="'MAX3097ECEE+-ND" xr:uid="{7FADC3E5-B306-4750-948B-2D711A99B8EA}"/>
+    <hyperlink ref="B5" r:id="rId11" tooltip="Manufacturer" display="'MAX3097ECEE+" xr:uid="{0CF40847-FE12-49B1-93B1-50E3FC820313}"/>
+    <hyperlink ref="C5" r:id="rId12" tooltip="Component" display="'Maxim" xr:uid="{6A8BAFBC-8E34-402C-B684-C8336E6011B0}"/>
+    <hyperlink ref="A6" r:id="rId13" tooltip="Supplier" display="'LTC2320CUKG-14#PBF-ND" xr:uid="{09B5CBA9-F691-4EAE-84DA-FC1A03A1B5B6}"/>
+    <hyperlink ref="B6" r:id="rId14" tooltip="Manufacturer" display="'LTC2320CUKG-14#PBF" xr:uid="{986888E0-C883-4850-B17E-39AF996B438F}"/>
+    <hyperlink ref="C6" r:id="rId15" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{7BE21294-0191-413C-A3D0-88898E28C3B2}"/>
+    <hyperlink ref="A7" r:id="rId16" tooltip="Supplier" display="'LT1764EQ-3.3#PBF-ND" xr:uid="{48C90109-2BF2-4C41-87B6-E9CFE8447D64}"/>
+    <hyperlink ref="B7" r:id="rId17" tooltip="Manufacturer" display="'LT1764EQ-3.3#PBF" xr:uid="{6B7161F0-5C43-43B9-87EE-4E57AB24F3EB}"/>
+    <hyperlink ref="C7" r:id="rId18" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{226F4C46-84D0-4962-AF1D-8882F0C8BDCE}"/>
+    <hyperlink ref="A8" r:id="rId19" tooltip="Supplier" display="'LT1764EQ-1.8#PBF-ND" xr:uid="{43387D1D-0915-4D36-8E77-8925C3BD8F8F}"/>
+    <hyperlink ref="B8" r:id="rId20" tooltip="Manufacturer" display="'LT1764EQ-1.8#PBF" xr:uid="{F99B41E7-C24D-4C49-BAD8-27C9EA0F3BB1}"/>
+    <hyperlink ref="C8" r:id="rId21" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{2F51F176-920C-4E12-B3EC-08574BC4D659}"/>
+    <hyperlink ref="A9" r:id="rId22" tooltip="Supplier" display="'LT1529CQ-5#PBF-ND" xr:uid="{9749C1A5-9C27-4C5A-8065-10C4497363F2}"/>
+    <hyperlink ref="B9" r:id="rId23" tooltip="Manufacturer" display="'LT1529CQ-5#PBF" xr:uid="{0B9E5FDD-3E4E-42B1-8A51-013E4463B928}"/>
+    <hyperlink ref="C9" r:id="rId24" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{835B2199-17D5-4D60-BBBC-13113EAD55B0}"/>
+    <hyperlink ref="A10" r:id="rId25" tooltip="Supplier" display="'LT1461CCS8-2.5#PBF-ND" xr:uid="{B05C9E65-518C-4821-993E-D7F772B43500}"/>
+    <hyperlink ref="B10" r:id="rId26" tooltip="Manufacturer" display="'LT1461CCS8-2.5#PBF" xr:uid="{1811EADF-2991-49DD-8E64-B126F1414EF1}"/>
+    <hyperlink ref="C10" r:id="rId27" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{B60569E2-A074-4A65-9D4B-BBB63B336F3A}"/>
+    <hyperlink ref="A11" r:id="rId28" tooltip="Supplier" display="'INA2143UA-ND" xr:uid="{2FB385B6-342E-447C-9D13-4DF84854C405}"/>
+    <hyperlink ref="B11" r:id="rId29" tooltip="Manufacturer" display="'INA2143UA" xr:uid="{8017AFF0-AC87-4644-BE3C-4D7C99949818}"/>
+    <hyperlink ref="C11" r:id="rId30" tooltip="Component" display="'Texas Instruments" xr:uid="{E47DF805-8910-4CD9-AA7F-FD85FB13EF06}"/>
+    <hyperlink ref="A12" r:id="rId31" tooltip="Supplier" display="'F2895TR-ND" xr:uid="{7B2091CF-A4AC-4A34-B80B-6BD2B54CE1E0}"/>
+    <hyperlink ref="B12" r:id="rId32" tooltip="Manufacturer" display="'SP1001-04JTG" xr:uid="{7F980821-3195-48D4-B341-32DA707A0648}"/>
+    <hyperlink ref="C12" r:id="rId33" tooltip="Component" display="'Littelfuse" xr:uid="{CDD46492-8586-4BBB-B783-0354D9A454EA}"/>
+    <hyperlink ref="A13" r:id="rId34" tooltip="Supplier" display="'DMN65D8L-7DITR-ND" xr:uid="{3DC2A9C3-1324-4A97-B637-78BAD595B83D}"/>
+    <hyperlink ref="B13" r:id="rId35" tooltip="Manufacturer" display="'DMN65D8L-7" xr:uid="{6F4EB5CD-50E9-4B11-84EF-8274B243D17B}"/>
+    <hyperlink ref="C13" r:id="rId36" tooltip="Component" display="'Diodes" xr:uid="{FB4CB574-4DF1-4336-98AC-AB23EF905227}"/>
+    <hyperlink ref="A14" r:id="rId37" tooltip="Supplier" display="'CT1943MST-ND" xr:uid="{EF6F628B-319C-4A7E-B543-1033E8C077C2}"/>
+    <hyperlink ref="B14" r:id="rId38" tooltip="Manufacturer" display="'194-3MST" xr:uid="{F655C63A-649D-448E-806B-3B676511671B}"/>
+    <hyperlink ref="C14" r:id="rId39" tooltip="Component" display="'CTS" xr:uid="{89CA0F86-5091-40FB-88A4-7C73F0941BAE}"/>
+    <hyperlink ref="A15" r:id="rId40" tooltip="Supplier" display="'AE10921-ND" xr:uid="{BCFE2D16-74AF-4B79-9B03-E02CE87984C2}"/>
+    <hyperlink ref="B15" r:id="rId41" tooltip="Manufacturer" display="'A-DF09A/KG-T2S" xr:uid="{11F14E18-38E4-47B1-B9E5-E67FBBC7F9E2}"/>
+    <hyperlink ref="C15" r:id="rId42" tooltip="Component" display="'Assmann" xr:uid="{6D3D054E-1C38-468D-A1BA-9B2C1DBDC9B8}"/>
+    <hyperlink ref="A16" r:id="rId43" tooltip="Supplier" display="'ADP7182AUJZ-R7-ND" xr:uid="{D1DFD30A-DC70-4EC0-A7B9-2D82A0432617}"/>
+    <hyperlink ref="B16" r:id="rId44" tooltip="Manufacturer" display="'ADP7182AUJZ-R7" xr:uid="{077EFA7B-2311-4467-96F2-567B78F68B47}"/>
+    <hyperlink ref="C16" r:id="rId45" tooltip="Component" display="'Analog Devices" xr:uid="{22841FC5-DE25-45A7-95CD-E6838069067D}"/>
+    <hyperlink ref="A17" r:id="rId46" tooltip="Supplier" display="'ADP7118AUJZ-R7-ND" xr:uid="{99A26627-93AF-4189-A6EF-8EDF9C099375}"/>
+    <hyperlink ref="B17" r:id="rId47" tooltip="Manufacturer" display="'ADP7118AUJZ-R7" xr:uid="{81338561-61D6-40F8-932D-7051819EB1DE}"/>
+    <hyperlink ref="C17" r:id="rId48" tooltip="Component" display="'Analog Devices" xr:uid="{DBB5216B-9CA9-4667-85AC-84685E7B8249}"/>
+    <hyperlink ref="A18" r:id="rId49" tooltip="Supplier" display="'ADG3308BRUZ-ND" xr:uid="{B9FC09FE-D860-4433-9A8D-B93C6D808A42}"/>
+    <hyperlink ref="B18" r:id="rId50" tooltip="Manufacturer" display="'ADG3308BRUZ" xr:uid="{47D1D6B4-4623-453B-92BB-0CB7D457BC0C}"/>
+    <hyperlink ref="C18" r:id="rId51" tooltip="Component" display="'Analog Devices" xr:uid="{9F7373D1-C8D9-45E3-B4EF-CAFC0E052FEA}"/>
+    <hyperlink ref="A19" r:id="rId52" tooltip="Supplier" display="'ADA4522-4ARZ-ND" xr:uid="{0C798C18-3AF1-47C4-9B02-88FB39FCDCC3}"/>
+    <hyperlink ref="B19" r:id="rId53" tooltip="Manufacturer" display="'ADA4522-4ARZ" xr:uid="{FD4008A7-2F41-435C-B7D8-0C43A3961636}"/>
+    <hyperlink ref="C19" r:id="rId54" tooltip="Component" display="'Analog Devices" xr:uid="{7331FBCF-22E2-441F-A166-44C6A398E047}"/>
+    <hyperlink ref="A20" r:id="rId55" tooltip="Supplier" display="'A115463-ND" xr:uid="{04A2EB2A-2851-4CA8-9623-CC6BBF3A918B}"/>
+    <hyperlink ref="B20" r:id="rId56" tooltip="Manufacturer" display="'5569257-1" xr:uid="{897F383E-E3B9-42DC-A153-CE7FD1ED0236}"/>
+    <hyperlink ref="C20" r:id="rId57" tooltip="Component" display="'TE Connectivity" xr:uid="{75D6B040-4CD0-4ECB-9AC4-2C302A2A7B44}"/>
+    <hyperlink ref="A21" r:id="rId58" tooltip="Supplier" display="'A97799TR-ND" xr:uid="{4F01A2D2-AF12-4CEC-AA12-0179B2722078}"/>
+    <hyperlink ref="B21" r:id="rId59" tooltip="Manufacturer" display="'1981584-1" xr:uid="{663713F5-DBE2-4623-83E7-D57CCBE3FE31}"/>
+    <hyperlink ref="C21" r:id="rId60" tooltip="Component" display="'TE Connectivity" xr:uid="{AD72C60D-759A-4FB6-B5F4-66591D0DE51B}"/>
+    <hyperlink ref="A22" r:id="rId61" tooltip="Supplier" display="'1727-4560-2-ND" xr:uid="{AAC906F0-E2CB-4BE9-8339-2B0BDF212247}"/>
+    <hyperlink ref="B22" r:id="rId62" tooltip="Manufacturer" display="'74LVC1T45GW,125" xr:uid="{E74914D0-A6DB-4BBE-AC0D-975E96D2CBDA}"/>
+    <hyperlink ref="C22" r:id="rId63" tooltip="Component" display="'Nexperia" xr:uid="{E3950F72-9CDC-4F5F-A70E-D9FA485233D6}"/>
+    <hyperlink ref="A23" r:id="rId64" tooltip="Supplier" display="'1115FFE-ND" xr:uid="{419C9BC1-7673-44D6-8CFC-5FA24EE028D3}"/>
+    <hyperlink ref="B23" r:id="rId65" tooltip="Manufacturer" display="'178-015-513R571" xr:uid="{D46FA789-F358-40BB-A92F-6F6153872819}"/>
+    <hyperlink ref="C23" r:id="rId66" tooltip="Component" display="'NorComp" xr:uid="{4E7BDF40-A387-4149-A581-2B3AE8B9F257}"/>
+    <hyperlink ref="A24" r:id="rId67" tooltip="Supplier" display="'945-2397-5-ND" xr:uid="{87BB276F-40CE-4316-ADB1-6D60980174EF}"/>
+    <hyperlink ref="B24" r:id="rId68" tooltip="Manufacturer" display="'RP40-2405SG" xr:uid="{DD1080A0-46C2-4BFD-AED1-23599E15C0A6}"/>
+    <hyperlink ref="C24" r:id="rId69" tooltip="Component" display="'Recom" xr:uid="{D0B07B0C-5F35-4C10-9B58-B0A053266DC2}"/>
+    <hyperlink ref="A25" r:id="rId70" tooltip="Supplier" display="'732-3883-ND" xr:uid="{DD47DF7F-A73D-478F-8CD5-1D19CBD57432}"/>
+    <hyperlink ref="B25" r:id="rId71" tooltip="Manufacturer" display="'7448227005" xr:uid="{04691D04-3CFC-49CE-971F-DBF0F118446E}"/>
+    <hyperlink ref="C25" r:id="rId72" tooltip="Component" display="'Wurth Electronics" xr:uid="{D113EC40-FD08-48A4-9226-0C309CA48E5E}"/>
+    <hyperlink ref="A26" r:id="rId73" tooltip="Supplier" display="'492-1243-2-ND" xr:uid="{8EECCD5F-6501-4029-946E-2962E24D6760}"/>
+    <hyperlink ref="B26" r:id="rId74" tooltip="Manufacturer" display="'SM1210RGB" xr:uid="{276957D9-2529-42F0-8370-98F1300A59A3}"/>
+    <hyperlink ref="C26" r:id="rId75" tooltip="Component" display="'Bivar" xr:uid="{87B6EC5E-4401-458D-958C-DD24264D2516}"/>
+    <hyperlink ref="A27" r:id="rId76" tooltip="Supplier" display="'450-1662-ND" xr:uid="{DC30B489-ED14-4C0A-9AAD-A6808676AB78}"/>
+    <hyperlink ref="B27" r:id="rId77" tooltip="Manufacturer" display="'1825027-5" xr:uid="{423BC6AE-8614-486C-BE89-97A1BB20B810}"/>
+    <hyperlink ref="C27" r:id="rId78" tooltip="Component" display="'TE Connectivity" xr:uid="{147EBFA8-FEDF-4F6D-9771-7E7820533911}"/>
+    <hyperlink ref="A28" r:id="rId79" tooltip="Supplier" display="'380-1110-ND" xr:uid="{0428D22A-FCB3-4B38-B2DB-A116DD359183}"/>
+    <hyperlink ref="B28" r:id="rId80" tooltip="Manufacturer" display="'L829-1J1T-43" xr:uid="{81978889-B75D-4CEE-8DD4-533CB250186B}"/>
+    <hyperlink ref="C28" r:id="rId81" tooltip="Component" display="'Bel" xr:uid="{5107FBA5-5EE9-4E9B-B1FA-3A657FFD033C}"/>
+    <hyperlink ref="A29" r:id="rId82" tooltip="Supplier" display="'336-3692-ND" xr:uid="{29E515C5-E4DF-4BFB-A8F8-83C0C4A483E9}"/>
+    <hyperlink ref="B29" r:id="rId83" tooltip="Manufacturer" display="'CP2102N-A01-GQFN20" xr:uid="{6157E097-B91C-4244-AF50-C695E5C5C816}"/>
+    <hyperlink ref="C29" r:id="rId84" tooltip="Component" display="'Silicon Labs" xr:uid="{B7C44C46-4F7D-492F-9430-74C5DEB8D6FA}"/>
+    <hyperlink ref="A30" r:id="rId85" tooltip="Supplier" display="'296-40356-2-ND" xr:uid="{E3499A89-F139-4BCE-BF0F-B4CCA68ADBB7}"/>
+    <hyperlink ref="B30" r:id="rId86" tooltip="Manufacturer" display="'LP5907MFX-2.5/NOPB" xr:uid="{903CD5BD-1410-4111-ACC8-E37A9E66EDF1}"/>
+    <hyperlink ref="C30" r:id="rId87" tooltip="Component" display="'Texas Instruments" xr:uid="{A7DF2D7A-71B0-494D-8641-0F3DA95135F4}"/>
+    <hyperlink ref="A31" r:id="rId88" tooltip="Supplier" display="'296-29537-1-ND" xr:uid="{46F1AB3B-0A5B-4139-BA81-94DDA67042AA}"/>
+    <hyperlink ref="B31" r:id="rId89" tooltip="Manufacturer" display="'TPS2051CDBVR" xr:uid="{69B32DBA-BE15-48F7-8DD0-39A522A8A31E}"/>
+    <hyperlink ref="C31" r:id="rId90" tooltip="Component" display="'Texas Instruments" xr:uid="{633C306B-0963-46C8-B122-6C423065CB72}"/>
+    <hyperlink ref="A32" r:id="rId91" tooltip="Supplier" display="'296-18593-2-ND" xr:uid="{0F41C364-19D9-4E58-9490-69FD14AC0025}"/>
+    <hyperlink ref="B32" r:id="rId92" tooltip="Manufacturer" display="'SN74LVC8T245PWR" xr:uid="{9DFE8037-8D89-469E-AD15-1EE28953F024}"/>
+    <hyperlink ref="C32" r:id="rId93" tooltip="Component" display="'Texas Instruments" xr:uid="{D77FD6DD-278A-44DF-87BD-83673E86DB1F}"/>
+    <hyperlink ref="A33" r:id="rId94" tooltip="Supplier" display="'296-16845-2-ND" xr:uid="{DDF77622-33C8-4263-B327-04EEE454DB23}"/>
+    <hyperlink ref="B33" r:id="rId95" tooltip="Manufacturer" display="'SN74LVC2T45DCTR" xr:uid="{14E94EB0-C4DE-4127-91E4-7FE1CBB5CA12}"/>
+    <hyperlink ref="C33" r:id="rId96" tooltip="Component" display="'Texas Instruments" xr:uid="{8967F3D1-58C5-436B-9B0B-826C8E1A5A00}"/>
+    <hyperlink ref="A34" r:id="rId97" tooltip="Supplier" display="'277-1667-ND" xr:uid="{17949603-39F9-43F7-A91A-6CF35F75F56A}"/>
+    <hyperlink ref="B34" r:id="rId98" tooltip="Manufacturer" display="'1935161" xr:uid="{82B37844-56FF-48F9-AF85-2A0F67BDBE2B}"/>
+    <hyperlink ref="C34" r:id="rId99" tooltip="Component" display="'Phoenix Contact" xr:uid="{95A6A8C6-EC1C-40A5-B17C-47CE0539EAFC}"/>
+    <hyperlink ref="A35" tooltip="Supplier" display="'" xr:uid="{91F23529-9063-449E-AE4A-054D9A8F0EDB}"/>
+    <hyperlink ref="B35" tooltip="Manufacturer" display="'" xr:uid="{F5C1667F-B2DA-4B6D-8FA5-A9828193EFD7}"/>
+    <hyperlink ref="C35" tooltip="Component" display="'" xr:uid="{8D5DFB9D-69C3-4EBA-BF3F-84D6E17FCA62}"/>
+    <hyperlink ref="A36" tooltip="Supplier" display="'" xr:uid="{380F8594-1278-40BD-A757-AA8C07350C6A}"/>
+    <hyperlink ref="B36" tooltip="Manufacturer" display="'" xr:uid="{3151BEDB-CB14-4CDF-8D2E-2664345198B8}"/>
+    <hyperlink ref="C36" tooltip="Component" display="'" xr:uid="{C8F51D0F-0CE2-4D4C-9981-1262AE9DC437}"/>
+    <hyperlink ref="A37" tooltip="Supplier" display="'" xr:uid="{F4AB943F-4AA2-40C0-A55D-B56DF7AF75EB}"/>
+    <hyperlink ref="B37" tooltip="Manufacturer" display="'" xr:uid="{C277E435-EFCD-435C-AB30-ED413A8B7E77}"/>
+    <hyperlink ref="C37" tooltip="Component" display="'" xr:uid="{3E182E34-5896-4448-AF77-D284FE416944}"/>
+    <hyperlink ref="A38" tooltip="Supplier" display="'" xr:uid="{B81A7B15-08AD-4912-BF52-C98ACB2D248F}"/>
+    <hyperlink ref="B38" tooltip="Manufacturer" display="'" xr:uid="{D175BC85-2E80-4ED5-A188-667C1F42EAF5}"/>
+    <hyperlink ref="C38" tooltip="Component" display="'" xr:uid="{045CB4B3-2467-406C-9C70-8A197B25E6B3}"/>
+    <hyperlink ref="A39" tooltip="Supplier" display="'" xr:uid="{2D3AEE11-D4AA-41C7-900F-73502FAA4121}"/>
+    <hyperlink ref="B39" tooltip="Manufacturer" display="'" xr:uid="{F78FD2AF-847A-4081-8FB8-21FD7991FC6A}"/>
+    <hyperlink ref="C39" tooltip="Component" display="'" xr:uid="{3A98C72B-B1B4-4636-9E4D-C85A113DABB9}"/>
+    <hyperlink ref="A40" tooltip="Supplier" display="'" xr:uid="{6E709CF1-37C5-4310-9EC7-EF9E39BA22A5}"/>
+    <hyperlink ref="B40" tooltip="Manufacturer" display="'" xr:uid="{22E3B2CE-0DF2-4306-9D0F-B4EAFD7B5B22}"/>
+    <hyperlink ref="C40" tooltip="Component" display="'" xr:uid="{491D6233-EC37-4272-87A2-956CCF2BEA6F}"/>
+    <hyperlink ref="A41" tooltip="Supplier" display="'" xr:uid="{433C0422-6227-4DFE-956A-BE6EA56B2C84}"/>
+    <hyperlink ref="B41" tooltip="Manufacturer" display="'" xr:uid="{7502E069-3AB0-4992-98A0-11E52C103C23}"/>
+    <hyperlink ref="C41" tooltip="Component" display="'" xr:uid="{54580372-00EA-4C56-9B54-EAEC9233F383}"/>
+    <hyperlink ref="A42" tooltip="Supplier" display="'" xr:uid="{F9B0197C-5FF9-4E46-8D4F-9C99F5230436}"/>
+    <hyperlink ref="B42" tooltip="Manufacturer" display="'" xr:uid="{98760138-3752-4EEF-9DE6-A153BCA1A8FF}"/>
+    <hyperlink ref="C42" tooltip="Component" display="'" xr:uid="{C450EA3E-773C-4711-8AF6-E0BF300DF182}"/>
+    <hyperlink ref="A43" tooltip="Supplier" display="'" xr:uid="{DB26FD82-B4FF-477C-AEDC-88765AB07F54}"/>
+    <hyperlink ref="B43" tooltip="Manufacturer" display="'" xr:uid="{CBA6AF55-0D8F-4478-A74A-DD6596362F58}"/>
+    <hyperlink ref="C43" tooltip="Component" display="'" xr:uid="{22658C18-4D12-45B7-90BB-57CF57F56757}"/>
+    <hyperlink ref="A44" tooltip="Supplier" display="'" xr:uid="{D5631D54-CB6E-4DE4-BAE9-AE1D4D07EE1C}"/>
+    <hyperlink ref="B44" tooltip="Manufacturer" display="'" xr:uid="{84594A65-D68B-44EE-849E-7D3CFCF34DF2}"/>
+    <hyperlink ref="C44" tooltip="Component" display="'" xr:uid="{D9E95733-0412-4AF2-BB07-CE5071C0209F}"/>
+    <hyperlink ref="A45" tooltip="Supplier" display="'" xr:uid="{CB6AAC3A-5122-4A88-AA23-E371E74A7D7E}"/>
+    <hyperlink ref="B45" tooltip="Manufacturer" display="'" xr:uid="{FE6909DE-7C63-4743-837B-E27B51EF70F5}"/>
+    <hyperlink ref="C45" tooltip="Component" display="'" xr:uid="{2C03D152-FDD8-46B8-ACD3-D3B72D8C73FE}"/>
+    <hyperlink ref="A46" tooltip="Supplier" display="'" xr:uid="{6A0E4985-2283-460D-BB18-63132227C2F7}"/>
+    <hyperlink ref="B46" tooltip="Manufacturer" display="'" xr:uid="{CA3663A2-15E2-4998-AFAB-7EA649170A18}"/>
+    <hyperlink ref="C46" tooltip="Component" display="'" xr:uid="{4F00297A-9DDB-47AD-B8A3-7506BF696E6D}"/>
+    <hyperlink ref="A47" tooltip="Supplier" display="'" xr:uid="{9700D194-9278-4FA2-85E5-9B8490657F31}"/>
+    <hyperlink ref="B47" tooltip="Manufacturer" display="'" xr:uid="{A296FD65-51EE-4920-BABF-83F43FDC6022}"/>
+    <hyperlink ref="C47" tooltip="Component" display="'" xr:uid="{784E99A2-227D-4DC0-A9D1-1FE7E0B21280}"/>
+    <hyperlink ref="A48" tooltip="Supplier" display="'" xr:uid="{9037BBA2-E325-496B-BABB-7531C60AF937}"/>
+    <hyperlink ref="B48" tooltip="Manufacturer" display="'" xr:uid="{520C9542-7078-415A-B3D3-A68CEDF15C91}"/>
+    <hyperlink ref="C48" tooltip="Component" display="'" xr:uid="{78C1A506-0359-4786-94F6-3C2D2FCA635F}"/>
+    <hyperlink ref="A49" tooltip="Supplier" display="'" xr:uid="{5811F844-C3AA-4268-A66A-CF72951BC4DA}"/>
+    <hyperlink ref="B49" tooltip="Manufacturer" display="'" xr:uid="{9D4A1C57-84FF-444F-9CBD-C73018D7EA56}"/>
+    <hyperlink ref="C49" tooltip="Component" display="'" xr:uid="{588FEB1F-D32A-4054-83F6-9C1B0E6B2F75}"/>
+    <hyperlink ref="A50" tooltip="Supplier" display="'" xr:uid="{BEF73B2D-AC64-435F-8624-F4050778DC46}"/>
+    <hyperlink ref="B50" tooltip="Manufacturer" display="'" xr:uid="{2613161B-4741-4A32-AD0C-D5A38C44F5FB}"/>
+    <hyperlink ref="C50" tooltip="Component" display="'" xr:uid="{70B0D014-4834-435D-8E1F-EF895597B065}"/>
+    <hyperlink ref="A51" tooltip="Supplier" display="'" xr:uid="{ADEB9E1D-9512-46C4-8EF5-9A7A112A14DC}"/>
+    <hyperlink ref="B51" tooltip="Manufacturer" display="'" xr:uid="{7352D4F1-330C-468F-B237-286180215F6B}"/>
+    <hyperlink ref="C51" tooltip="Component" display="'" xr:uid="{CCD0C6C4-6610-4344-8F6F-C015E2349E6A}"/>
+    <hyperlink ref="A52" tooltip="Supplier" display="'" xr:uid="{DC78AA3D-943E-4995-8FD5-91C670B91D64}"/>
+    <hyperlink ref="B52" tooltip="Manufacturer" display="'" xr:uid="{750EDBD4-BF30-4226-99B7-421927DECA85}"/>
+    <hyperlink ref="C52" tooltip="Component" display="'" xr:uid="{AB77F097-AA49-4B1B-B9D8-4241BC3AE67C}"/>
+    <hyperlink ref="A53" tooltip="Supplier" display="'" xr:uid="{87B3C20E-E79E-44FC-9A6C-522B809C5DA3}"/>
+    <hyperlink ref="B53" tooltip="Manufacturer" display="'" xr:uid="{B1EAE623-ACC9-4091-8935-8439521EEAB9}"/>
+    <hyperlink ref="C53" tooltip="Component" display="'" xr:uid="{3082517A-FFA3-464B-BD87-56EBCBD64455}"/>
+    <hyperlink ref="A54" tooltip="Supplier" display="'" xr:uid="{AAB981D3-C7F9-4738-AE26-345DE812D4A7}"/>
+    <hyperlink ref="B54" tooltip="Manufacturer" display="'" xr:uid="{F831FD85-9755-49FE-B966-5DD72C980981}"/>
+    <hyperlink ref="C54" tooltip="Component" display="'" xr:uid="{3377B0E5-D2FA-4C16-9471-53AE459EDC2B}"/>
+    <hyperlink ref="A55" tooltip="Supplier" display="'" xr:uid="{17836BF6-8FD8-4158-81AC-1ED9CC4555B9}"/>
+    <hyperlink ref="B55" tooltip="Manufacturer" display="'" xr:uid="{1DE7F9E4-AAFE-426C-9B57-55DB5898AA61}"/>
+    <hyperlink ref="C55" tooltip="Component" display="'" xr:uid="{D8463EF1-A380-45D7-B637-E26D877B7391}"/>
+    <hyperlink ref="A56" tooltip="Supplier" display="'" xr:uid="{4A5C2219-8F37-4931-90F7-484F5B151675}"/>
+    <hyperlink ref="B56" tooltip="Manufacturer" display="'" xr:uid="{7B4A3A0F-66B0-489A-8639-72147D794FB8}"/>
+    <hyperlink ref="C56" tooltip="Component" display="'" xr:uid="{C1E6B441-91D6-4012-A998-4888DA166092}"/>
+    <hyperlink ref="A57" tooltip="Supplier" display="'" xr:uid="{84B4E9C3-7519-4CA3-96E3-34A50D5AE73C}"/>
+    <hyperlink ref="B57" tooltip="Manufacturer" display="'" xr:uid="{200BAF65-C136-4EAD-B39F-8E9C046225A4}"/>
+    <hyperlink ref="C57" tooltip="Component" display="'" xr:uid="{BABEC1AD-5E66-4A92-98B1-A52B6BD1CD3C}"/>
+    <hyperlink ref="A58" tooltip="Supplier" display="'" xr:uid="{6AF6B11A-EBE4-461C-8BFF-7411D6A3BB32}"/>
+    <hyperlink ref="B58" tooltip="Manufacturer" display="'" xr:uid="{D85AF308-5E82-4CB7-8682-E0A4A92DDF64}"/>
+    <hyperlink ref="C58" tooltip="Component" display="'" xr:uid="{BF14F82F-ACD2-4427-831D-19B34423E940}"/>
+    <hyperlink ref="A59" tooltip="Supplier" display="'" xr:uid="{821FBAEE-CA9F-4083-BF4B-F79B1870CF4A}"/>
+    <hyperlink ref="B59" tooltip="Manufacturer" display="'" xr:uid="{3D3AEE48-6626-4648-9353-D90FD97E28CD}"/>
+    <hyperlink ref="C59" tooltip="Component" display="'" xr:uid="{65443FC3-376E-42E5-928E-7D03FF9240E6}"/>
+    <hyperlink ref="A60" tooltip="Supplier" display="'" xr:uid="{40145ADC-7AE4-47B4-9A10-4C04A6D423AE}"/>
+    <hyperlink ref="B60" tooltip="Manufacturer" display="'" xr:uid="{FA12424E-8772-489A-8280-95836E89C67D}"/>
+    <hyperlink ref="C60" tooltip="Component" display="'" xr:uid="{A629DA67-3058-47D8-9D29-52A19C56155B}"/>
+    <hyperlink ref="A61" tooltip="Supplier" display="'" xr:uid="{044B6AB4-86B5-426C-8AB0-283406C59208}"/>
+    <hyperlink ref="B61" tooltip="Manufacturer" display="'" xr:uid="{9578ECA5-4B00-494D-9752-3C5A03CBDDF2}"/>
+    <hyperlink ref="C61" tooltip="Component" display="'" xr:uid="{912DF088-6513-40F3-9B5C-818D5D7582B1}"/>
+    <hyperlink ref="A62" tooltip="Supplier" display="'" xr:uid="{E8E74349-89FC-4B6A-B24F-DCA05BA47883}"/>
+    <hyperlink ref="B62" tooltip="Manufacturer" display="'" xr:uid="{4718BEEE-9EE0-417C-A0A6-566C26A82A13}"/>
+    <hyperlink ref="C62" tooltip="Component" display="'" xr:uid="{E8EF6926-E476-4C04-A071-90E3070139D2}"/>
+    <hyperlink ref="A63" tooltip="Supplier" display="'" xr:uid="{2555DAC1-D921-4AE7-AD4E-EB4AF7FDF4CB}"/>
+    <hyperlink ref="B63" tooltip="Manufacturer" display="'" xr:uid="{DDF3DE0A-9A6F-4857-8ED7-C1781E0335FB}"/>
+    <hyperlink ref="C63" tooltip="Component" display="'" xr:uid="{A3B23F55-0103-4825-A9B6-645411BE304B}"/>
+    <hyperlink ref="A64" tooltip="Supplier" display="'" xr:uid="{899EBD5A-2158-428B-8B12-0ACA16004189}"/>
+    <hyperlink ref="B64" tooltip="Manufacturer" display="'" xr:uid="{3103207F-0282-4BEF-A1D4-88326D7F311A}"/>
+    <hyperlink ref="C64" tooltip="Component" display="'" xr:uid="{C850D269-BC7D-437E-AC7C-34B36FACF546}"/>
+    <hyperlink ref="A65" tooltip="Supplier" display="'" xr:uid="{BC4FF957-9C79-4433-8B9A-045118A22C3A}"/>
+    <hyperlink ref="B65" tooltip="Manufacturer" display="'" xr:uid="{BDEE2187-4289-420E-B1F9-C44B35BA110D}"/>
+    <hyperlink ref="C65" tooltip="Component" display="'" xr:uid="{3E69EB0A-B276-4682-A47D-EF4C54EEA24A}"/>
+    <hyperlink ref="A66" tooltip="Supplier" display="'" xr:uid="{82677E56-4CAA-49E8-B316-58BF415F4933}"/>
+    <hyperlink ref="B66" tooltip="Manufacturer" display="'" xr:uid="{4A378538-59B3-4C0A-96B0-04EDE670CC0A}"/>
+    <hyperlink ref="C66" tooltip="Component" display="'" xr:uid="{553603E1-0B46-431B-91AA-1CCAB88D82D9}"/>
+    <hyperlink ref="A67" tooltip="Supplier" display="'" xr:uid="{2E28BA54-5084-41FC-BBB2-0CC3E212539F}"/>
+    <hyperlink ref="B67" tooltip="Manufacturer" display="'" xr:uid="{D07A1853-7369-4EA8-B61A-AB47F79823C4}"/>
+    <hyperlink ref="C67" tooltip="Component" display="'" xr:uid="{59F8CFA7-8074-4FD0-BCB3-B0716C139265}"/>
+    <hyperlink ref="A68" tooltip="Supplier" display="'" xr:uid="{E08E4C37-C8E5-4559-874B-907338932A74}"/>
+    <hyperlink ref="B68" tooltip="Manufacturer" display="'" xr:uid="{2ED628DE-B9F3-4016-B4DE-497440AF9E44}"/>
+    <hyperlink ref="C68" tooltip="Component" display="'" xr:uid="{8341BB30-73B1-4EB6-9D8F-8AA523D1A776}"/>
+    <hyperlink ref="A69" tooltip="Supplier" display="'" xr:uid="{58F12584-4B00-4591-923E-E751CB3E35CC}"/>
+    <hyperlink ref="B69" tooltip="Manufacturer" display="'" xr:uid="{C6EB049E-29E7-4078-AAB5-9AE4A3E5F85F}"/>
+    <hyperlink ref="C69" tooltip="Component" display="'" xr:uid="{085892F0-3772-4A72-B1FE-E0A94A348A99}"/>
+    <hyperlink ref="A70" tooltip="Supplier" display="'" xr:uid="{07BA5DB8-ACFC-4109-8231-8D7090C6D3F1}"/>
+    <hyperlink ref="B70" tooltip="Manufacturer" display="'" xr:uid="{0E060066-32FF-4D9F-8DE8-F9580CDEE55E}"/>
+    <hyperlink ref="C70" tooltip="Component" display="'" xr:uid="{7198BB9A-695A-4AD8-893F-027F31E00E22}"/>
+    <hyperlink ref="A71" tooltip="Supplier" display="'" xr:uid="{24DC50A2-FF2D-4170-8A6B-F56AB0FCE564}"/>
+    <hyperlink ref="B71" tooltip="Manufacturer" display="'" xr:uid="{7533D1B3-B41B-4F07-A0DE-F43840E2FF42}"/>
+    <hyperlink ref="C71" tooltip="Component" display="'" xr:uid="{BBF8A3FE-4453-41FC-80F2-ED4FC05B0DBA}"/>
+    <hyperlink ref="A72" tooltip="Supplier" display="'" xr:uid="{3D756284-382C-4469-88B5-F16A08F6485D}"/>
+    <hyperlink ref="B72" tooltip="Manufacturer" display="'" xr:uid="{680345BA-7095-4646-8362-BDB64BD785A6}"/>
+    <hyperlink ref="C72" tooltip="Component" display="'" xr:uid="{7D3093A6-AF8A-4346-B381-5177FD58CD49}"/>
+    <hyperlink ref="A73" tooltip="Supplier" display="'" xr:uid="{9A4B0AF7-2E42-4B42-ADF2-53C77AAB5295}"/>
+    <hyperlink ref="B73" tooltip="Manufacturer" display="'" xr:uid="{A107FC83-5C09-424D-861F-65BEDB2F49D8}"/>
+    <hyperlink ref="C73" tooltip="Component" display="'" xr:uid="{D39E075D-322F-4883-A86A-FF2486EDDB4D}"/>
+    <hyperlink ref="A74" tooltip="Supplier" display="'" xr:uid="{03CAAEB3-95E7-451C-A551-93B526D45EB5}"/>
+    <hyperlink ref="B74" tooltip="Manufacturer" display="'" xr:uid="{686E8DA9-9573-4DBB-BE65-A3CBC72754C0}"/>
+    <hyperlink ref="C74" tooltip="Component" display="'" xr:uid="{FBFEA798-82C1-4DF3-9312-C3C199111D34}"/>
+    <hyperlink ref="A75" tooltip="Supplier" display="'" xr:uid="{B32909D7-E6AC-4DC9-8737-C2A7C2849EB4}"/>
+    <hyperlink ref="B75" tooltip="Manufacturer" display="'" xr:uid="{8FFFCFE5-55FF-4099-9C03-AEB21FC1DA3D}"/>
+    <hyperlink ref="C75" tooltip="Component" display="'" xr:uid="{6A93B60F-16D5-4C74-AC62-413FB5CDFE4D}"/>
+    <hyperlink ref="A76" tooltip="Supplier" display="'" xr:uid="{DCA18381-83DD-4C84-BDBB-97D262DE7ED1}"/>
+    <hyperlink ref="B76" tooltip="Manufacturer" display="'" xr:uid="{34CE6D8E-B55A-4C70-A369-227B7C5981E1}"/>
+    <hyperlink ref="C76" tooltip="Component" display="'" xr:uid="{B48DDFA6-D0B0-457A-AEB5-B7F9BBC84388}"/>
+    <hyperlink ref="A77" tooltip="Supplier" display="'" xr:uid="{4C1D3830-A722-4045-B59C-67DCCCFE9AA1}"/>
+    <hyperlink ref="B77" tooltip="Manufacturer" display="'" xr:uid="{852C5474-AEA7-43DE-BB47-167EE48BFCEF}"/>
+    <hyperlink ref="C77" tooltip="Component" display="'" xr:uid="{E0A09FED-3216-42FC-B8B2-6730D81E5655}"/>
+    <hyperlink ref="A78" tooltip="Supplier" display="'" xr:uid="{7B90D098-3811-499E-91EB-9B56665A4EED}"/>
+    <hyperlink ref="B78" tooltip="Manufacturer" display="'" xr:uid="{14E541A7-335F-42DE-814E-2BD305F4C167}"/>
+    <hyperlink ref="C78" tooltip="Component" display="'" xr:uid="{8420D32B-7098-46E1-AB0B-A58944E193AD}"/>
+    <hyperlink ref="A79" tooltip="Supplier" display="'" xr:uid="{F85A5224-2723-4484-8867-3360C53AD96D}"/>
+    <hyperlink ref="B79" tooltip="Manufacturer" display="'" xr:uid="{204B8CF2-C0D4-499E-AA48-0D63B1D62CE2}"/>
+    <hyperlink ref="C79" tooltip="Component" display="'" xr:uid="{7BAE4B37-88F4-49C6-AB19-E9E381A73DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId100"/>

--- a/REV20180525A/AMDC_BOM.xlsx
+++ b/REV20180525A/AMDC_BOM.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31155036-006B-4BCE-91CF-8EEEB3BB0212}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E866D9-58CE-4D9A-BAB1-041A5412E0A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{D5149B8E-25E8-40EE-B8E2-029FB852EF9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{83F8854B-BB18-4338-8AE1-D011671247A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="AMDC_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_v1_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="256">
   <si>
     <t>Supplier Part Number 1</t>
   </si>
@@ -46,6 +46,102 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>C23, C42, C53, C61, C62, C65, C66, C69, C70, C73, C74, C77, C78, C81, C82, C85, C86, C89A, C89B, C89C, C89D, C89E, C89F, C89G, C89H, C89I, C89J, C89K, C89L, C89M, C89N, C89O, C89P, C90A, C90B, C90C, C90D, C90E, C90F, C90G, C90H, C90I, C90J, C90K, C90L, C90M, C90N, C90O, C90P, C95A, C95B, C95C, C95D, C95E, C95F, C96A, C96B, C96C, C96D, C96E, C96F, C159A, C159B, C159C, C159D, C160A, C160B, C160C, C160D, C177, C179A, C179B, C180A, C180B, C183A, C183B, C184A, C184B, C187A, C187B, C188A, C188B, C189A, C189B, C189C, C189D, C189E, C189F, C189G, C189H, C190A, C190B, C190C, C190D, C190E, C190F, C190G, C190H</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>0603-CAP</t>
+  </si>
+  <si>
+    <t>C2, C7, C12, C16, C25, C32, C38, C44, C50, C51, C52, C54, C55, C56, C63, C64, C67, C68, C71, C72, C75, C76, C79, C80, C83, C84, C91A, C91B, C91C, C91D, C91E, C91F, C92A, C92B, C92C, C92D, C92E, C92F, C93A, C93B, C93C, C93D, C93E, C93F, C93G, C93H, C93I, C93J, C93K, C93L, C93M, C93N, C93O, C93P, C94A, C94B, C94C, C94D, C94E, C94F, C94G, C94H, C94I, C94J, C94K, C94L, C94M, C94N, C94O, C94P, C97A, C97B, C97C, C97D, C97E, C97F, C98A, C98B, C98C, C98D, C98E, C98F, C99A, C99B, C99C, C99D, C99E, C99F, C100A, C100B, C100C, C100D, C100E, C100F</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R3A, R3B, R3C, R3D, R3E, R3F, R3G, R3H, R4A, R4B, R4C, R4D, R4E, R4F, R4G, R4H, R7A, R7B, R7C, R7D, R7E, R7F, R7G, R7H, R9A, R9B, R9C, R9D, R9E, R9F, R9G, R9H</t>
+  </si>
+  <si>
+    <t>1k, 1%</t>
+  </si>
+  <si>
+    <t>0603-RES</t>
+  </si>
+  <si>
+    <t>C3, C8, C13, C17, C19, C20, C21, C22, C26, C29, C30, C33, C36, C39, C41, C45, C157A, C157B, C158A, C158B, C161, C162, C163A, C163B</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>296-16845-2-ND</t>
+  </si>
+  <si>
+    <t>SN74LVC2T45DCTR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>U7, U8, U10, U11, U16A, U16B, U16C, U16D, U16E, U16F, U16G, U16H, U16I, U16J, U16K, U16L, U16M, U16N, U16O, U16P</t>
+  </si>
+  <si>
+    <t>SM8</t>
+  </si>
+  <si>
+    <t>C4, C5, C9, C10, C14, C18, C27, C28, C34, C35, C40, C46, C57, C58, C59, C60, C172, C174, C176</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C165A, C165B, C165C, C165D, C166A, C166B, C166C, C166D, C167A, C167B, C167C, C167D, C168A, C168B, C168C, C168D, C169, C178</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C47A, C47B, C47C, C47D, C47E, C47F, C47G, C47H, C49A, C49B, C49C, C49D, C49E, C49F, C49G, C49H</t>
+  </si>
+  <si>
+    <t>1nF, 1%</t>
+  </si>
+  <si>
+    <t>C48A, C48B, C48C, C48D, C48E, C48F, C48G, C48H, C181A, C181B, C182A, C182B, C185A, C185B, C186A, C186B</t>
+  </si>
+  <si>
+    <t>33nF, 1%</t>
+  </si>
+  <si>
+    <t>R2A, R2B, R2C, R2D, R2E, R2F, R2G, R2H, R8A, R8B, R8C, R8D, R8E, R8F, R8G, R8H</t>
+  </si>
+  <si>
+    <t>16k, 1%</t>
+  </si>
+  <si>
+    <t>R5A, R5B, R5C, R5D, R5E, R5F, R5G, R5H, R57A, R57B, R58A, R58B, R59A, R59B, R60A, R60B</t>
+  </si>
+  <si>
+    <t>100, 1%</t>
+  </si>
+  <si>
+    <t>R17, R18, R20, R21, R22, R43, R44, R45, R47, R48, R50, R51</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
     <t>TC4468COE-ND</t>
   </si>
   <si>
@@ -61,763 +157,637 @@
     <t>U12A, U12B, U12C, U12D, U12E, U12F, U15A, U15B, U15C, U15D, U15E, U15F</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>SOIC16_N</t>
   </si>
   <si>
+    <t>R1, R23, R24, R25, R26A, R26B, R26C, R26D, R46, R53</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ADA4522-4ARZ-ND</t>
+  </si>
+  <si>
+    <t>ADA4522-4ARZ</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>ADA4522-4</t>
+  </si>
+  <si>
+    <t>U3A, U3B, U3C, U3D, U3E, U3F, U3G, U3H, U46A, U46B</t>
+  </si>
+  <si>
+    <t>TSSOP14</t>
+  </si>
+  <si>
+    <t>C1, C6, C11, C15, C24, C31, C37, C43</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>Jumper3</t>
+  </si>
+  <si>
+    <t>JP2, JP3, JP4, JP5, JP8, JP10, JP11, JP16</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1X3</t>
+  </si>
+  <si>
+    <t>R6A, R6B, R6C, R6D, R6E, R6F, R6G, R6H</t>
+  </si>
+  <si>
+    <t>2k, 1%</t>
+  </si>
+  <si>
+    <t>R38A, R38B, R38C, R38D, R41A, R41B, R41C, R41D</t>
+  </si>
+  <si>
+    <t>60k</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7DITR-ND</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
+  </si>
+  <si>
+    <t>SOT95P250-3N</t>
+  </si>
+  <si>
+    <t>ADG3308BRUZ-ND</t>
+  </si>
+  <si>
+    <t>ADG3308BRUZ</t>
+  </si>
+  <si>
+    <t>ADG3308</t>
+  </si>
+  <si>
+    <t>U4, U13A, U13B, U13C, U13D, U13E, U13F</t>
+  </si>
+  <si>
+    <t>TSSOP50P640-20N</t>
+  </si>
+  <si>
+    <t>Jumper2</t>
+  </si>
+  <si>
+    <t>JP1, JP9, JP12, JP13, JP14, JP15</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1x2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED1, LED2, LED3, LED5, LED6, LED7</t>
+  </si>
+  <si>
+    <t>0603-LED</t>
+  </si>
+  <si>
+    <t>R10, R11, R14, R15, R16, R49</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1115FFE-ND</t>
+  </si>
+  <si>
+    <t>178-015-513R571</t>
+  </si>
+  <si>
+    <t>NorComp</t>
+  </si>
+  <si>
+    <t>CON7, CON8A, CON8B, CON8C, CON8D</t>
+  </si>
+  <si>
+    <t>C149, C150, C153, C154</t>
+  </si>
+  <si>
+    <t>1000pF, 2kV</t>
+  </si>
+  <si>
+    <t>1808-CAP</t>
+  </si>
+  <si>
+    <t>C151, C152, C155, C156</t>
+  </si>
+  <si>
+    <t>6.8uF, 50V</t>
+  </si>
+  <si>
+    <t>1812-CAP</t>
+  </si>
+  <si>
+    <t>R39A, R39B, R39C, R39D</t>
+  </si>
+  <si>
+    <t>5.2k</t>
+  </si>
+  <si>
+    <t>R40A, R40B, R40C, R40D</t>
+  </si>
+  <si>
+    <t>5.3k</t>
+  </si>
+  <si>
+    <t>296-40356-2-ND</t>
+  </si>
+  <si>
+    <t>LP5907MFX-2.5/NOPB</t>
+  </si>
+  <si>
+    <t>U38A, U38B, U38C, U38D</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-R7-ND</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-R7</t>
+  </si>
+  <si>
+    <t>U41A, U41B, U41C, U41D</t>
+  </si>
+  <si>
+    <t>TSOT-23</t>
+  </si>
+  <si>
+    <t>ADP7182AUJZ-R7-ND</t>
+  </si>
+  <si>
+    <t>ADP7182AUJZ-R7</t>
+  </si>
+  <si>
+    <t>U42A, U42B, U42C, U42D</t>
+  </si>
+  <si>
+    <t>F2895TR-ND</t>
+  </si>
+  <si>
+    <t>SP1001-04JTG</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>D1, D3, D7, D8</t>
+  </si>
+  <si>
+    <t>SC70-5</t>
+  </si>
+  <si>
+    <t>INA2143UA-ND</t>
+  </si>
+  <si>
+    <t>INA2143UA</t>
+  </si>
+  <si>
+    <t>U47A, U47B, U48A, U48B</t>
+  </si>
+  <si>
+    <t>SOIC14_N</t>
+  </si>
+  <si>
+    <t>C164A, C164B, C171</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>PIN_2x4</t>
+  </si>
+  <si>
+    <t>CON13, CON15, CON16</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x4</t>
+  </si>
+  <si>
+    <t>R13, R27, R52</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>277-1667-ND</t>
+  </si>
+  <si>
+    <t>1935161</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>ScrewTerminal_1x2</t>
+  </si>
+  <si>
+    <t>CON2, CON3, CON4</t>
+  </si>
+  <si>
+    <t>C173, C175</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>Jumper4T</t>
+  </si>
+  <si>
+    <t>JP6, JP7</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_1X3T</t>
+  </si>
+  <si>
+    <t>PIN_2x3</t>
+  </si>
+  <si>
+    <t>CON14, CON17</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x3</t>
+  </si>
+  <si>
+    <t>R54, R55</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>296-18593-2-ND</t>
+  </si>
+  <si>
+    <t>SN74LVC8T245PWR</t>
+  </si>
+  <si>
+    <t>U6, U9</t>
+  </si>
+  <si>
+    <t>TSSOP24</t>
+  </si>
+  <si>
+    <t>450-1662-ND</t>
+  </si>
+  <si>
+    <t>1825027-5</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>SW1, SW3</t>
+  </si>
+  <si>
+    <t>732-3883-ND</t>
+  </si>
+  <si>
+    <t>7448227005</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>A97799TR-ND</t>
+  </si>
+  <si>
+    <t>1981584-1</t>
+  </si>
+  <si>
+    <t>CON11, CON12</t>
+  </si>
+  <si>
+    <t>LT1529CQ-5#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1529CQ-5#PBF</t>
+  </si>
+  <si>
+    <t>Analog Devices / Linear Technology</t>
+  </si>
+  <si>
+    <t>U40A, U40B</t>
+  </si>
+  <si>
+    <t>5-DDPAK</t>
+  </si>
+  <si>
+    <t>LT1764EQ-1.8#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1764EQ-1.8#PBF</t>
+  </si>
+  <si>
+    <t>U37A, U37B</t>
+  </si>
+  <si>
+    <t>LTC2320CUKG-14#PBF-ND</t>
+  </si>
+  <si>
+    <t>LTC2320CUKG-14#PBF</t>
+  </si>
+  <si>
+    <t>LTC2320-14</t>
+  </si>
+  <si>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>QFN52</t>
+  </si>
+  <si>
+    <t>C170</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>CON10</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_2x7</t>
+  </si>
+  <si>
+    <t>JTAG-SMT2</t>
+  </si>
+  <si>
+    <t>CON9</t>
+  </si>
+  <si>
+    <t>PicoZed</t>
+  </si>
+  <si>
+    <t>SOM1</t>
+  </si>
+  <si>
+    <t>PicoZedSOM</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>150, 2W</t>
+  </si>
+  <si>
+    <t>2512-RES</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>120, 2W</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>296-29537-1-ND</t>
+  </si>
+  <si>
+    <t>TPS2051CDBVR</t>
+  </si>
+  <si>
+    <t>TPS2051C</t>
+  </si>
+  <si>
+    <t>U43</t>
+  </si>
+  <si>
+    <t>336-3692-ND</t>
+  </si>
+  <si>
+    <t>CP2102N-A01-GQFN20</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>CP2102N</t>
+  </si>
+  <si>
+    <t>U44</t>
+  </si>
+  <si>
+    <t>QFN50P400X400-20V1L</t>
+  </si>
+  <si>
+    <t>380-1110-ND</t>
+  </si>
+  <si>
+    <t>L829-1J1T-43</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
+  <si>
+    <t>CON6</t>
+  </si>
+  <si>
+    <t>492-1243-2-ND</t>
+  </si>
+  <si>
+    <t>SM1210RGB</t>
+  </si>
+  <si>
+    <t>Bivar</t>
+  </si>
+  <si>
+    <t>LED_RGB_CA</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>1210-LED-RGB-CA</t>
+  </si>
+  <si>
+    <t>945-2397-5-ND</t>
+  </si>
+  <si>
+    <t>RP40-2405SG</t>
+  </si>
+  <si>
+    <t>Recom</t>
+  </si>
+  <si>
+    <t>U36</t>
+  </si>
+  <si>
+    <t>RP40-G</t>
+  </si>
+  <si>
+    <t>1727-4560-2-ND</t>
+  </si>
+  <si>
+    <t>74LVC1T45GW,125</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>U34</t>
+  </si>
+  <si>
+    <t>SOT363-6N</t>
+  </si>
+  <si>
+    <t>A115463-ND</t>
+  </si>
+  <si>
+    <t>5569257-1</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>AE10921-ND</t>
+  </si>
+  <si>
+    <t>A-DF09A/KG-T2S</t>
+  </si>
+  <si>
+    <t>Assmann</t>
+  </si>
+  <si>
+    <t>A-DF 09 A/KG-T2S</t>
+  </si>
+  <si>
+    <t>CON5</t>
+  </si>
+  <si>
+    <t>CT1943MST-ND</t>
+  </si>
+  <si>
+    <t>194-3MST</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>LT1461CCS8-2.5#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1461CCS8-2.5#PBF</t>
+  </si>
+  <si>
+    <t>U45</t>
+  </si>
+  <si>
+    <t>SOIC8_N</t>
+  </si>
+  <si>
+    <t>LT1764EQ-3.3#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1764EQ-3.3#PBF</t>
+  </si>
+  <si>
+    <t>U39</t>
+  </si>
+  <si>
+    <t>MAX3097ECEE+-ND</t>
+  </si>
+  <si>
+    <t>MAX3097ECEE+</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>MAX3097E</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOP127P826-16L</t>
+  </si>
+  <si>
+    <t>RB521S30T1GOSTR-ND</t>
+  </si>
+  <si>
+    <t>RB521S30T1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>RB521</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+  </si>
+  <si>
     <t>RP40-2415DGW-ND</t>
   </si>
   <si>
     <t>RP40-2415DGW</t>
   </si>
   <si>
-    <t>Recom</t>
-  </si>
-  <si>
     <t>RP40-2415DG</t>
   </si>
   <si>
     <t>U35</t>
-  </si>
-  <si>
-    <t>RP40-G</t>
-  </si>
-  <si>
-    <t>RB521S30T1GOSTR-ND</t>
-  </si>
-  <si>
-    <t>RB521S30T1G</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>RB521</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-  </si>
-  <si>
-    <t>MAX3097ECEE+-ND</t>
-  </si>
-  <si>
-    <t>MAX3097ECEE+</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>MAX3097E</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOP127P826-16L</t>
-  </si>
-  <si>
-    <t>LTC2320CUKG-14#PBF-ND</t>
-  </si>
-  <si>
-    <t>LTC2320CUKG-14#PBF</t>
-  </si>
-  <si>
-    <t>Analog Devices / Linear Technology</t>
-  </si>
-  <si>
-    <t>LTC2320-14</t>
-  </si>
-  <si>
-    <t>U1, U2</t>
-  </si>
-  <si>
-    <t>QFN52</t>
-  </si>
-  <si>
-    <t>LT1764EQ-3.3#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1764EQ-3.3#PBF</t>
-  </si>
-  <si>
-    <t>U39</t>
-  </si>
-  <si>
-    <t>5-DDPAK</t>
-  </si>
-  <si>
-    <t>LT1764EQ-1.8#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1764EQ-1.8#PBF</t>
-  </si>
-  <si>
-    <t>U37A, U37B</t>
-  </si>
-  <si>
-    <t>LT1529CQ-5#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1529CQ-5#PBF</t>
-  </si>
-  <si>
-    <t>U40A, U40B</t>
-  </si>
-  <si>
-    <t>LT1461CCS8-2.5#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1461CCS8-2.5#PBF</t>
-  </si>
-  <si>
-    <t>U45</t>
-  </si>
-  <si>
-    <t>SOIC8_N</t>
-  </si>
-  <si>
-    <t>INA2143UA-ND</t>
-  </si>
-  <si>
-    <t>INA2143UA</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>U47A, U47B, U48A, U48B</t>
-  </si>
-  <si>
-    <t>SOIC14_N</t>
-  </si>
-  <si>
-    <t>F2895TR-ND</t>
-  </si>
-  <si>
-    <t>SP1001-04JTG</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
-    <t>D1, D3, D7, D8</t>
-  </si>
-  <si>
-    <t>SC70-5</t>
-  </si>
-  <si>
-    <t>DMN65D8L-7DITR-ND</t>
-  </si>
-  <si>
-    <t>DMN65D8L-7</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>MOSFET</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
-  </si>
-  <si>
-    <t>SOT95P250-3N</t>
-  </si>
-  <si>
-    <t>CT1943MST-ND</t>
-  </si>
-  <si>
-    <t>194-3MST</t>
-  </si>
-  <si>
-    <t>CTS</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>AE10921-ND</t>
-  </si>
-  <si>
-    <t>A-DF09A/KG-T2S</t>
-  </si>
-  <si>
-    <t>Assmann</t>
-  </si>
-  <si>
-    <t>A-DF 09 A/KG-T2S</t>
-  </si>
-  <si>
-    <t>CON5</t>
-  </si>
-  <si>
-    <t>ADP7182AUJZ-R7-ND</t>
-  </si>
-  <si>
-    <t>ADP7182AUJZ-R7</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>U42A, U42B, U42C, U42D</t>
-  </si>
-  <si>
-    <t>TSOT-23</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-R7-ND</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-R7</t>
-  </si>
-  <si>
-    <t>U41A, U41B, U41C, U41D</t>
-  </si>
-  <si>
-    <t>ADG3308BRUZ-ND</t>
-  </si>
-  <si>
-    <t>ADG3308BRUZ</t>
-  </si>
-  <si>
-    <t>ADG3308</t>
-  </si>
-  <si>
-    <t>U4, U13A, U13B, U13C, U13D, U13E, U13F</t>
-  </si>
-  <si>
-    <t>TSSOP50P640-20N</t>
-  </si>
-  <si>
-    <t>ADA4522-4ARZ-ND</t>
-  </si>
-  <si>
-    <t>ADA4522-4ARZ</t>
-  </si>
-  <si>
-    <t>ADA4522-4</t>
-  </si>
-  <si>
-    <t>U3A, U3B, U3C, U3D, U3E, U3F, U3G, U3H, U46A, U46B</t>
-  </si>
-  <si>
-    <t>TSSOP14</t>
-  </si>
-  <si>
-    <t>A115463-ND</t>
-  </si>
-  <si>
-    <t>5569257-1</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>A97799TR-ND</t>
-  </si>
-  <si>
-    <t>1981584-1</t>
-  </si>
-  <si>
-    <t>CON11, CON12</t>
-  </si>
-  <si>
-    <t>1727-4560-2-ND</t>
-  </si>
-  <si>
-    <t>74LVC1T45GW,125</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>U34</t>
-  </si>
-  <si>
-    <t>SOT363-6N</t>
-  </si>
-  <si>
-    <t>1115FFE-ND</t>
-  </si>
-  <si>
-    <t>178-015-513R571</t>
-  </si>
-  <si>
-    <t>NorComp</t>
-  </si>
-  <si>
-    <t>CON7, CON8A, CON8B, CON8C, CON8D</t>
-  </si>
-  <si>
-    <t>945-2397-5-ND</t>
-  </si>
-  <si>
-    <t>RP40-2405SG</t>
-  </si>
-  <si>
-    <t>U36</t>
-  </si>
-  <si>
-    <t>732-3883-ND</t>
-  </si>
-  <si>
-    <t>7448227005</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>492-1243-2-ND</t>
-  </si>
-  <si>
-    <t>SM1210RGB</t>
-  </si>
-  <si>
-    <t>Bivar</t>
-  </si>
-  <si>
-    <t>LED_RGB_CA</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>1210-LED-RGB-CA</t>
-  </si>
-  <si>
-    <t>450-1662-ND</t>
-  </si>
-  <si>
-    <t>1825027-5</t>
-  </si>
-  <si>
-    <t>SW1, SW3</t>
-  </si>
-  <si>
-    <t>380-1110-ND</t>
-  </si>
-  <si>
-    <t>L829-1J1T-43</t>
-  </si>
-  <si>
-    <t>Bel</t>
-  </si>
-  <si>
-    <t>CON6</t>
-  </si>
-  <si>
-    <t>336-3692-ND</t>
-  </si>
-  <si>
-    <t>CP2102N-A01-GQFN20</t>
-  </si>
-  <si>
-    <t>Silicon Labs</t>
-  </si>
-  <si>
-    <t>CP2102N</t>
-  </si>
-  <si>
-    <t>U44</t>
-  </si>
-  <si>
-    <t>QFN50P400X400-20V1L</t>
-  </si>
-  <si>
-    <t>296-40356-2-ND</t>
-  </si>
-  <si>
-    <t>LP5907MFX-2.5/NOPB</t>
-  </si>
-  <si>
-    <t>U38A, U38B, U38C, U38D</t>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
-    <t>296-29537-1-ND</t>
-  </si>
-  <si>
-    <t>TPS2051CDBVR</t>
-  </si>
-  <si>
-    <t>TPS2051C</t>
-  </si>
-  <si>
-    <t>U43</t>
-  </si>
-  <si>
-    <t>296-18593-2-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC8T245PWR</t>
-  </si>
-  <si>
-    <t>U6, U9</t>
-  </si>
-  <si>
-    <t>TSSOP24</t>
-  </si>
-  <si>
-    <t>296-16845-2-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC2T45DCTR</t>
-  </si>
-  <si>
-    <t>U7, U8, U10, U11, U16A, U16B, U16C, U16D, U16E, U16F, U16G, U16H, U16I, U16J, U16K, U16L, U16M, U16N, U16O, U16P</t>
-  </si>
-  <si>
-    <t>SM8</t>
-  </si>
-  <si>
-    <t>277-1667-ND</t>
-  </si>
-  <si>
-    <t>1935161</t>
-  </si>
-  <si>
-    <t>Phoenix Contact</t>
-  </si>
-  <si>
-    <t>ScrewTerminal_1x2</t>
-  </si>
-  <si>
-    <t>CON2, CON3, CON4</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C1, C6, C11, C15, C24, C31, C37, C43</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>0603-CAP</t>
-  </si>
-  <si>
-    <t>C2, C7, C12, C16, C25, C32, C38, C44, C50, C51, C52, C54, C55, C56, C63, C64, C67, C68, C71, C72, C75, C76, C79, C80, C83, C84, C91A, C91B, C91C, C91D, C91E, C91F, C92A, C92B, C92C, C92D, C92E, C92F, C93A, C93B, C93C, C93D, C93E, C93F, C93G, C93H, C93I, C93J, C93K, C93L, C93M, C93N, C93O, C93P, C94A, C94B, C94C, C94D, C94E, C94F, C94G, C94H, C94I, C94J, C94K, C94L, C94M, C94N, C94O, C94P, C97A, C97B, C97C, C97D, C97E, C97F, C98A, C98B, C98C, C98D, C98E, C98F, C99A, C99B, C99C, C99D, C99E, C99F, C100A, C100B, C100C, C100D, C100E, C100F</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C3, C8, C13, C17, C19, C20, C21, C22, C26, C29, C30, C33, C36, C39, C41, C45, C157A, C157B, C158A, C158B, C161, C162, C163A, C163B</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C4, C5, C9, C10, C14, C18, C27, C28, C34, C35, C40, C46, C57, C58, C59, C60, C172, C174, C176</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C23, C42, C53, C61, C62, C65, C66, C69, C70, C73, C74, C77, C78, C81, C82, C85, C86, C89A, C89B, C89C, C89D, C89E, C89F, C89G, C89H, C89I, C89J, C89K, C89L, C89M, C89N, C89O, C89P, C90A, C90B, C90C, C90D, C90E, C90F, C90G, C90H, C90I, C90J, C90K, C90L, C90M, C90N, C90O, C90P, C95A, C95B, C95C, C95D, C95E, C95F, C96A, C96B, C96C, C96D, C96E, C96F, C159A, C159B, C159C, C159D, C160A, C160B, C160C, C160D, C177, C179A, C179B, C180A, C180B, C183A, C183B, C184A, C184B, C187A, C187B, C188A, C188B, C189A, C189B, C189C, C189D, C189E, C189F, C189G, C189H, C190A, C190B, C190C, C190D, C190E, C190F, C190G, C190H</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C47A, C47B, C47C, C47D, C47E, C47F, C47G, C47H, C49A, C49B, C49C, C49D, C49E, C49F, C49G, C49H</t>
-  </si>
-  <si>
-    <t>1nF, 1%</t>
-  </si>
-  <si>
-    <t>C48A, C48B, C48C, C48D, C48E, C48F, C48G, C48H, C181A, C181B, C182A, C182B, C185A, C185B, C186A, C186B</t>
-  </si>
-  <si>
-    <t>33nF, 1%</t>
-  </si>
-  <si>
-    <t>C149, C150, C153, C154</t>
-  </si>
-  <si>
-    <t>1000pF, 2kV</t>
-  </si>
-  <si>
-    <t>1808-CAP</t>
-  </si>
-  <si>
-    <t>C151, C152, C155, C156</t>
-  </si>
-  <si>
-    <t>6.8uF, 50V</t>
-  </si>
-  <si>
-    <t>1812-CAP</t>
-  </si>
-  <si>
-    <t>C164A, C164B, C171</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C165A, C165B, C165C, C165D, C166A, C166B, C166C, C166D, C167A, C167B, C167C, C167D, C168A, C168B, C168C, C168D, C169, C178</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C170</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C173, C175</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>JTAG</t>
-  </si>
-  <si>
-    <t>CON10</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x7</t>
-  </si>
-  <si>
-    <t>JTAG-SMT2</t>
-  </si>
-  <si>
-    <t>CON9</t>
-  </si>
-  <si>
-    <t>Jumper2</t>
-  </si>
-  <si>
-    <t>JP1, JP9, JP12, JP13, JP14, JP15</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1x2</t>
-  </si>
-  <si>
-    <t>Jumper3</t>
-  </si>
-  <si>
-    <t>JP2, JP3, JP4, JP5, JP8, JP10, JP11, JP16</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1X3</t>
-  </si>
-  <si>
-    <t>Jumper4T</t>
-  </si>
-  <si>
-    <t>JP6, JP7</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_1X3T</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED1, LED5</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>0603-LED</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>LED3, LED6</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>LED7</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>MOUNT_HOLE</t>
-  </si>
-  <si>
-    <t>MH1, MH2, MH3, MH4, MH5, MH6, MH7, MH8</t>
-  </si>
-  <si>
-    <t>MOUNTING_HOLE</t>
-  </si>
-  <si>
-    <t>PicoZed</t>
-  </si>
-  <si>
-    <t>SOM1</t>
-  </si>
-  <si>
-    <t>PicoZedSOM</t>
-  </si>
-  <si>
-    <t>PIN_2x3</t>
-  </si>
-  <si>
-    <t>CON14, CON17</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x3</t>
-  </si>
-  <si>
-    <t>PIN_2x4</t>
-  </si>
-  <si>
-    <t>CON13, CON15, CON16</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_2x4</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1, R23, R24, R25, R26A, R26B, R26C, R26D, R46, R53</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0603-RES</t>
-  </si>
-  <si>
-    <t>R2A, R2B, R2C, R2D, R2E, R2F, R2G, R2H, R8A, R8B, R8C, R8D, R8E, R8F, R8G, R8H</t>
-  </si>
-  <si>
-    <t>16k, 1%</t>
-  </si>
-  <si>
-    <t>R3A, R3B, R3C, R3D, R3E, R3F, R3G, R3H, R4A, R4B, R4C, R4D, R4E, R4F, R4G, R4H, R7A, R7B, R7C, R7D, R7E, R7F, R7G, R7H, R9A, R9B, R9C, R9D, R9E, R9F, R9G, R9H</t>
-  </si>
-  <si>
-    <t>1k, 1%</t>
-  </si>
-  <si>
-    <t>R5A, R5B, R5C, R5D, R5E, R5F, R5G, R5H, R57A, R57B, R58A, R58B, R59A, R59B, R60A, R60B</t>
-  </si>
-  <si>
-    <t>100, 1%</t>
-  </si>
-  <si>
-    <t>R6A, R6B, R6C, R6D, R6E, R6F, R6G, R6H</t>
-  </si>
-  <si>
-    <t>2k, 1%</t>
-  </si>
-  <si>
-    <t>R10, R11, R14, R15, R16, R49</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>R13, R27, R52</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>R17, R18, R20, R21, R22, R39A, R39B, R39C, R39D, R43, R44, R45, R47, R48, R50, R51</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R28, R29</t>
-  </si>
-  <si>
-    <t>150, 2W</t>
-  </si>
-  <si>
-    <t>2512-RES</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>R38A, R38B, R38C, R38D</t>
-  </si>
-  <si>
-    <t>115k</t>
-  </si>
-  <si>
-    <t>R40A, R40B, R40C, R40D</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>R41A, R41B, R41C, R41D</t>
-  </si>
-  <si>
-    <t>180k</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R54, R55</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R56</t>
-  </si>
-  <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>WEMPEC</t>
-  </si>
-  <si>
-    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B405F22F-1BF5-4DCE-B26A-AD7EC25D5461}">
-  <dimension ref="A1:H79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6885995-1011-474B-9F69-E32A584FEA82}">
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1257,2265 +1227,2149 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="F34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="F37" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="F38" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="F39" s="3">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="F40" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F41" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F43" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="F44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="F45" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="F50" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="F51" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="F55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="F57" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F60" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F61" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="F62" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F63" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F64" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F65" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F66" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F68" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F69" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F73" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F74" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F75" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F77" s="3">
-        <v>2</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Supplier" display="'TC4468COE-ND" xr:uid="{4795D364-CB4E-4B71-90E2-92D7FC5F474D}"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="Manufacturer" display="'TC4468COE" xr:uid="{6B9A60CC-357D-4F20-BF4C-EADD16BE369B}"/>
-    <hyperlink ref="C2" r:id="rId3" tooltip="Component" display="'Microchip" xr:uid="{24124F06-54EB-4B1F-B671-B6D97501BE57}"/>
-    <hyperlink ref="A3" r:id="rId4" tooltip="Supplier" display="'RP40-2415DGW-ND" xr:uid="{CFE2F5C4-685A-4F19-82A5-9B3B9132C070}"/>
-    <hyperlink ref="B3" r:id="rId5" tooltip="Manufacturer" display="'RP40-2415DGW" xr:uid="{FAFAF5A3-2BE3-4D15-93AD-66A8B3998602}"/>
-    <hyperlink ref="C3" r:id="rId6" tooltip="Component" display="'Recom" xr:uid="{4F41619D-3F03-4BE4-B2C0-FFB98A5D1049}"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="Supplier" display="'RB521S30T1GOSTR-ND" xr:uid="{DB736B21-BDFA-4BD6-AFE2-2126062D1D15}"/>
-    <hyperlink ref="B4" r:id="rId8" tooltip="Manufacturer" display="'RB521S30T1G" xr:uid="{2E56A0A5-CC69-455A-AB19-A0188CCC866A}"/>
-    <hyperlink ref="C4" r:id="rId9" tooltip="Component" display="'ON Semiconductor" xr:uid="{BCE336F4-E29F-4837-B7A1-F66A76045FE6}"/>
-    <hyperlink ref="A5" r:id="rId10" tooltip="Supplier" display="'MAX3097ECEE+-ND" xr:uid="{7FADC3E5-B306-4750-948B-2D711A99B8EA}"/>
-    <hyperlink ref="B5" r:id="rId11" tooltip="Manufacturer" display="'MAX3097ECEE+" xr:uid="{0CF40847-FE12-49B1-93B1-50E3FC820313}"/>
-    <hyperlink ref="C5" r:id="rId12" tooltip="Component" display="'Maxim" xr:uid="{6A8BAFBC-8E34-402C-B684-C8336E6011B0}"/>
-    <hyperlink ref="A6" r:id="rId13" tooltip="Supplier" display="'LTC2320CUKG-14#PBF-ND" xr:uid="{09B5CBA9-F691-4EAE-84DA-FC1A03A1B5B6}"/>
-    <hyperlink ref="B6" r:id="rId14" tooltip="Manufacturer" display="'LTC2320CUKG-14#PBF" xr:uid="{986888E0-C883-4850-B17E-39AF996B438F}"/>
-    <hyperlink ref="C6" r:id="rId15" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{7BE21294-0191-413C-A3D0-88898E28C3B2}"/>
-    <hyperlink ref="A7" r:id="rId16" tooltip="Supplier" display="'LT1764EQ-3.3#PBF-ND" xr:uid="{48C90109-2BF2-4C41-87B6-E9CFE8447D64}"/>
-    <hyperlink ref="B7" r:id="rId17" tooltip="Manufacturer" display="'LT1764EQ-3.3#PBF" xr:uid="{6B7161F0-5C43-43B9-87EE-4E57AB24F3EB}"/>
-    <hyperlink ref="C7" r:id="rId18" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{226F4C46-84D0-4962-AF1D-8882F0C8BDCE}"/>
-    <hyperlink ref="A8" r:id="rId19" tooltip="Supplier" display="'LT1764EQ-1.8#PBF-ND" xr:uid="{43387D1D-0915-4D36-8E77-8925C3BD8F8F}"/>
-    <hyperlink ref="B8" r:id="rId20" tooltip="Manufacturer" display="'LT1764EQ-1.8#PBF" xr:uid="{F99B41E7-C24D-4C49-BAD8-27C9EA0F3BB1}"/>
-    <hyperlink ref="C8" r:id="rId21" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{2F51F176-920C-4E12-B3EC-08574BC4D659}"/>
-    <hyperlink ref="A9" r:id="rId22" tooltip="Supplier" display="'LT1529CQ-5#PBF-ND" xr:uid="{9749C1A5-9C27-4C5A-8065-10C4497363F2}"/>
-    <hyperlink ref="B9" r:id="rId23" tooltip="Manufacturer" display="'LT1529CQ-5#PBF" xr:uid="{0B9E5FDD-3E4E-42B1-8A51-013E4463B928}"/>
-    <hyperlink ref="C9" r:id="rId24" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{835B2199-17D5-4D60-BBBC-13113EAD55B0}"/>
-    <hyperlink ref="A10" r:id="rId25" tooltip="Supplier" display="'LT1461CCS8-2.5#PBF-ND" xr:uid="{B05C9E65-518C-4821-993E-D7F772B43500}"/>
-    <hyperlink ref="B10" r:id="rId26" tooltip="Manufacturer" display="'LT1461CCS8-2.5#PBF" xr:uid="{1811EADF-2991-49DD-8E64-B126F1414EF1}"/>
-    <hyperlink ref="C10" r:id="rId27" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{B60569E2-A074-4A65-9D4B-BBB63B336F3A}"/>
-    <hyperlink ref="A11" r:id="rId28" tooltip="Supplier" display="'INA2143UA-ND" xr:uid="{2FB385B6-342E-447C-9D13-4DF84854C405}"/>
-    <hyperlink ref="B11" r:id="rId29" tooltip="Manufacturer" display="'INA2143UA" xr:uid="{8017AFF0-AC87-4644-BE3C-4D7C99949818}"/>
-    <hyperlink ref="C11" r:id="rId30" tooltip="Component" display="'Texas Instruments" xr:uid="{E47DF805-8910-4CD9-AA7F-FD85FB13EF06}"/>
-    <hyperlink ref="A12" r:id="rId31" tooltip="Supplier" display="'F2895TR-ND" xr:uid="{7B2091CF-A4AC-4A34-B80B-6BD2B54CE1E0}"/>
-    <hyperlink ref="B12" r:id="rId32" tooltip="Manufacturer" display="'SP1001-04JTG" xr:uid="{7F980821-3195-48D4-B341-32DA707A0648}"/>
-    <hyperlink ref="C12" r:id="rId33" tooltip="Component" display="'Littelfuse" xr:uid="{CDD46492-8586-4BBB-B783-0354D9A454EA}"/>
-    <hyperlink ref="A13" r:id="rId34" tooltip="Supplier" display="'DMN65D8L-7DITR-ND" xr:uid="{3DC2A9C3-1324-4A97-B637-78BAD595B83D}"/>
-    <hyperlink ref="B13" r:id="rId35" tooltip="Manufacturer" display="'DMN65D8L-7" xr:uid="{6F4EB5CD-50E9-4B11-84EF-8274B243D17B}"/>
-    <hyperlink ref="C13" r:id="rId36" tooltip="Component" display="'Diodes" xr:uid="{FB4CB574-4DF1-4336-98AC-AB23EF905227}"/>
-    <hyperlink ref="A14" r:id="rId37" tooltip="Supplier" display="'CT1943MST-ND" xr:uid="{EF6F628B-319C-4A7E-B543-1033E8C077C2}"/>
-    <hyperlink ref="B14" r:id="rId38" tooltip="Manufacturer" display="'194-3MST" xr:uid="{F655C63A-649D-448E-806B-3B676511671B}"/>
-    <hyperlink ref="C14" r:id="rId39" tooltip="Component" display="'CTS" xr:uid="{89CA0F86-5091-40FB-88A4-7C73F0941BAE}"/>
-    <hyperlink ref="A15" r:id="rId40" tooltip="Supplier" display="'AE10921-ND" xr:uid="{BCFE2D16-74AF-4B79-9B03-E02CE87984C2}"/>
-    <hyperlink ref="B15" r:id="rId41" tooltip="Manufacturer" display="'A-DF09A/KG-T2S" xr:uid="{11F14E18-38E4-47B1-B9E5-E67FBBC7F9E2}"/>
-    <hyperlink ref="C15" r:id="rId42" tooltip="Component" display="'Assmann" xr:uid="{6D3D054E-1C38-468D-A1BA-9B2C1DBDC9B8}"/>
-    <hyperlink ref="A16" r:id="rId43" tooltip="Supplier" display="'ADP7182AUJZ-R7-ND" xr:uid="{D1DFD30A-DC70-4EC0-A7B9-2D82A0432617}"/>
-    <hyperlink ref="B16" r:id="rId44" tooltip="Manufacturer" display="'ADP7182AUJZ-R7" xr:uid="{077EFA7B-2311-4467-96F2-567B78F68B47}"/>
-    <hyperlink ref="C16" r:id="rId45" tooltip="Component" display="'Analog Devices" xr:uid="{22841FC5-DE25-45A7-95CD-E6838069067D}"/>
-    <hyperlink ref="A17" r:id="rId46" tooltip="Supplier" display="'ADP7118AUJZ-R7-ND" xr:uid="{99A26627-93AF-4189-A6EF-8EDF9C099375}"/>
-    <hyperlink ref="B17" r:id="rId47" tooltip="Manufacturer" display="'ADP7118AUJZ-R7" xr:uid="{81338561-61D6-40F8-932D-7051819EB1DE}"/>
-    <hyperlink ref="C17" r:id="rId48" tooltip="Component" display="'Analog Devices" xr:uid="{DBB5216B-9CA9-4667-85AC-84685E7B8249}"/>
-    <hyperlink ref="A18" r:id="rId49" tooltip="Supplier" display="'ADG3308BRUZ-ND" xr:uid="{B9FC09FE-D860-4433-9A8D-B93C6D808A42}"/>
-    <hyperlink ref="B18" r:id="rId50" tooltip="Manufacturer" display="'ADG3308BRUZ" xr:uid="{47D1D6B4-4623-453B-92BB-0CB7D457BC0C}"/>
-    <hyperlink ref="C18" r:id="rId51" tooltip="Component" display="'Analog Devices" xr:uid="{9F7373D1-C8D9-45E3-B4EF-CAFC0E052FEA}"/>
-    <hyperlink ref="A19" r:id="rId52" tooltip="Supplier" display="'ADA4522-4ARZ-ND" xr:uid="{0C798C18-3AF1-47C4-9B02-88FB39FCDCC3}"/>
-    <hyperlink ref="B19" r:id="rId53" tooltip="Manufacturer" display="'ADA4522-4ARZ" xr:uid="{FD4008A7-2F41-435C-B7D8-0C43A3961636}"/>
-    <hyperlink ref="C19" r:id="rId54" tooltip="Component" display="'Analog Devices" xr:uid="{7331FBCF-22E2-441F-A166-44C6A398E047}"/>
-    <hyperlink ref="A20" r:id="rId55" tooltip="Supplier" display="'A115463-ND" xr:uid="{04A2EB2A-2851-4CA8-9623-CC6BBF3A918B}"/>
-    <hyperlink ref="B20" r:id="rId56" tooltip="Manufacturer" display="'5569257-1" xr:uid="{897F383E-E3B9-42DC-A153-CE7FD1ED0236}"/>
-    <hyperlink ref="C20" r:id="rId57" tooltip="Component" display="'TE Connectivity" xr:uid="{75D6B040-4CD0-4ECB-9AC4-2C302A2A7B44}"/>
-    <hyperlink ref="A21" r:id="rId58" tooltip="Supplier" display="'A97799TR-ND" xr:uid="{4F01A2D2-AF12-4CEC-AA12-0179B2722078}"/>
-    <hyperlink ref="B21" r:id="rId59" tooltip="Manufacturer" display="'1981584-1" xr:uid="{663713F5-DBE2-4623-83E7-D57CCBE3FE31}"/>
-    <hyperlink ref="C21" r:id="rId60" tooltip="Component" display="'TE Connectivity" xr:uid="{AD72C60D-759A-4FB6-B5F4-66591D0DE51B}"/>
-    <hyperlink ref="A22" r:id="rId61" tooltip="Supplier" display="'1727-4560-2-ND" xr:uid="{AAC906F0-E2CB-4BE9-8339-2B0BDF212247}"/>
-    <hyperlink ref="B22" r:id="rId62" tooltip="Manufacturer" display="'74LVC1T45GW,125" xr:uid="{E74914D0-A6DB-4BBE-AC0D-975E96D2CBDA}"/>
-    <hyperlink ref="C22" r:id="rId63" tooltip="Component" display="'Nexperia" xr:uid="{E3950F72-9CDC-4F5F-A70E-D9FA485233D6}"/>
-    <hyperlink ref="A23" r:id="rId64" tooltip="Supplier" display="'1115FFE-ND" xr:uid="{419C9BC1-7673-44D6-8CFC-5FA24EE028D3}"/>
-    <hyperlink ref="B23" r:id="rId65" tooltip="Manufacturer" display="'178-015-513R571" xr:uid="{D46FA789-F358-40BB-A92F-6F6153872819}"/>
-    <hyperlink ref="C23" r:id="rId66" tooltip="Component" display="'NorComp" xr:uid="{4E7BDF40-A387-4149-A581-2B3AE8B9F257}"/>
-    <hyperlink ref="A24" r:id="rId67" tooltip="Supplier" display="'945-2397-5-ND" xr:uid="{87BB276F-40CE-4316-ADB1-6D60980174EF}"/>
-    <hyperlink ref="B24" r:id="rId68" tooltip="Manufacturer" display="'RP40-2405SG" xr:uid="{DD1080A0-46C2-4BFD-AED1-23599E15C0A6}"/>
-    <hyperlink ref="C24" r:id="rId69" tooltip="Component" display="'Recom" xr:uid="{D0B07B0C-5F35-4C10-9B58-B0A053266DC2}"/>
-    <hyperlink ref="A25" r:id="rId70" tooltip="Supplier" display="'732-3883-ND" xr:uid="{DD47DF7F-A73D-478F-8CD5-1D19CBD57432}"/>
-    <hyperlink ref="B25" r:id="rId71" tooltip="Manufacturer" display="'7448227005" xr:uid="{04691D04-3CFC-49CE-971F-DBF0F118446E}"/>
-    <hyperlink ref="C25" r:id="rId72" tooltip="Component" display="'Wurth Electronics" xr:uid="{D113EC40-FD08-48A4-9226-0C309CA48E5E}"/>
-    <hyperlink ref="A26" r:id="rId73" tooltip="Supplier" display="'492-1243-2-ND" xr:uid="{8EECCD5F-6501-4029-946E-2962E24D6760}"/>
-    <hyperlink ref="B26" r:id="rId74" tooltip="Manufacturer" display="'SM1210RGB" xr:uid="{276957D9-2529-42F0-8370-98F1300A59A3}"/>
-    <hyperlink ref="C26" r:id="rId75" tooltip="Component" display="'Bivar" xr:uid="{87B6EC5E-4401-458D-958C-DD24264D2516}"/>
-    <hyperlink ref="A27" r:id="rId76" tooltip="Supplier" display="'450-1662-ND" xr:uid="{DC30B489-ED14-4C0A-9AAD-A6808676AB78}"/>
-    <hyperlink ref="B27" r:id="rId77" tooltip="Manufacturer" display="'1825027-5" xr:uid="{423BC6AE-8614-486C-BE89-97A1BB20B810}"/>
-    <hyperlink ref="C27" r:id="rId78" tooltip="Component" display="'TE Connectivity" xr:uid="{147EBFA8-FEDF-4F6D-9771-7E7820533911}"/>
-    <hyperlink ref="A28" r:id="rId79" tooltip="Supplier" display="'380-1110-ND" xr:uid="{0428D22A-FCB3-4B38-B2DB-A116DD359183}"/>
-    <hyperlink ref="B28" r:id="rId80" tooltip="Manufacturer" display="'L829-1J1T-43" xr:uid="{81978889-B75D-4CEE-8DD4-533CB250186B}"/>
-    <hyperlink ref="C28" r:id="rId81" tooltip="Component" display="'Bel" xr:uid="{5107FBA5-5EE9-4E9B-B1FA-3A657FFD033C}"/>
-    <hyperlink ref="A29" r:id="rId82" tooltip="Supplier" display="'336-3692-ND" xr:uid="{29E515C5-E4DF-4BFB-A8F8-83C0C4A483E9}"/>
-    <hyperlink ref="B29" r:id="rId83" tooltip="Manufacturer" display="'CP2102N-A01-GQFN20" xr:uid="{6157E097-B91C-4244-AF50-C695E5C5C816}"/>
-    <hyperlink ref="C29" r:id="rId84" tooltip="Component" display="'Silicon Labs" xr:uid="{B7C44C46-4F7D-492F-9430-74C5DEB8D6FA}"/>
-    <hyperlink ref="A30" r:id="rId85" tooltip="Supplier" display="'296-40356-2-ND" xr:uid="{E3499A89-F139-4BCE-BF0F-B4CCA68ADBB7}"/>
-    <hyperlink ref="B30" r:id="rId86" tooltip="Manufacturer" display="'LP5907MFX-2.5/NOPB" xr:uid="{903CD5BD-1410-4111-ACC8-E37A9E66EDF1}"/>
-    <hyperlink ref="C30" r:id="rId87" tooltip="Component" display="'Texas Instruments" xr:uid="{A7DF2D7A-71B0-494D-8641-0F3DA95135F4}"/>
-    <hyperlink ref="A31" r:id="rId88" tooltip="Supplier" display="'296-29537-1-ND" xr:uid="{46F1AB3B-0A5B-4139-BA81-94DDA67042AA}"/>
-    <hyperlink ref="B31" r:id="rId89" tooltip="Manufacturer" display="'TPS2051CDBVR" xr:uid="{69B32DBA-BE15-48F7-8DD0-39A522A8A31E}"/>
-    <hyperlink ref="C31" r:id="rId90" tooltip="Component" display="'Texas Instruments" xr:uid="{633C306B-0963-46C8-B122-6C423065CB72}"/>
-    <hyperlink ref="A32" r:id="rId91" tooltip="Supplier" display="'296-18593-2-ND" xr:uid="{0F41C364-19D9-4E58-9490-69FD14AC0025}"/>
-    <hyperlink ref="B32" r:id="rId92" tooltip="Manufacturer" display="'SN74LVC8T245PWR" xr:uid="{9DFE8037-8D89-469E-AD15-1EE28953F024}"/>
-    <hyperlink ref="C32" r:id="rId93" tooltip="Component" display="'Texas Instruments" xr:uid="{D77FD6DD-278A-44DF-87BD-83673E86DB1F}"/>
-    <hyperlink ref="A33" r:id="rId94" tooltip="Supplier" display="'296-16845-2-ND" xr:uid="{DDF77622-33C8-4263-B327-04EEE454DB23}"/>
-    <hyperlink ref="B33" r:id="rId95" tooltip="Manufacturer" display="'SN74LVC2T45DCTR" xr:uid="{14E94EB0-C4DE-4127-91E4-7FE1CBB5CA12}"/>
-    <hyperlink ref="C33" r:id="rId96" tooltip="Component" display="'Texas Instruments" xr:uid="{8967F3D1-58C5-436B-9B0B-826C8E1A5A00}"/>
-    <hyperlink ref="A34" r:id="rId97" tooltip="Supplier" display="'277-1667-ND" xr:uid="{17949603-39F9-43F7-A91A-6CF35F75F56A}"/>
-    <hyperlink ref="B34" r:id="rId98" tooltip="Manufacturer" display="'1935161" xr:uid="{82B37844-56FF-48F9-AF85-2A0F67BDBE2B}"/>
-    <hyperlink ref="C34" r:id="rId99" tooltip="Component" display="'Phoenix Contact" xr:uid="{95A6A8C6-EC1C-40A5-B17C-47CE0539EAFC}"/>
-    <hyperlink ref="A35" tooltip="Supplier" display="'" xr:uid="{91F23529-9063-449E-AE4A-054D9A8F0EDB}"/>
-    <hyperlink ref="B35" tooltip="Manufacturer" display="'" xr:uid="{F5C1667F-B2DA-4B6D-8FA5-A9828193EFD7}"/>
-    <hyperlink ref="C35" tooltip="Component" display="'" xr:uid="{8D5DFB9D-69C3-4EBA-BF3F-84D6E17FCA62}"/>
-    <hyperlink ref="A36" tooltip="Supplier" display="'" xr:uid="{380F8594-1278-40BD-A757-AA8C07350C6A}"/>
-    <hyperlink ref="B36" tooltip="Manufacturer" display="'" xr:uid="{3151BEDB-CB14-4CDF-8D2E-2664345198B8}"/>
-    <hyperlink ref="C36" tooltip="Component" display="'" xr:uid="{C8F51D0F-0CE2-4D4C-9981-1262AE9DC437}"/>
-    <hyperlink ref="A37" tooltip="Supplier" display="'" xr:uid="{F4AB943F-4AA2-40C0-A55D-B56DF7AF75EB}"/>
-    <hyperlink ref="B37" tooltip="Manufacturer" display="'" xr:uid="{C277E435-EFCD-435C-AB30-ED413A8B7E77}"/>
-    <hyperlink ref="C37" tooltip="Component" display="'" xr:uid="{3E182E34-5896-4448-AF77-D284FE416944}"/>
-    <hyperlink ref="A38" tooltip="Supplier" display="'" xr:uid="{B81A7B15-08AD-4912-BF52-C98ACB2D248F}"/>
-    <hyperlink ref="B38" tooltip="Manufacturer" display="'" xr:uid="{D175BC85-2E80-4ED5-A188-667C1F42EAF5}"/>
-    <hyperlink ref="C38" tooltip="Component" display="'" xr:uid="{045CB4B3-2467-406C-9C70-8A197B25E6B3}"/>
-    <hyperlink ref="A39" tooltip="Supplier" display="'" xr:uid="{2D3AEE11-D4AA-41C7-900F-73502FAA4121}"/>
-    <hyperlink ref="B39" tooltip="Manufacturer" display="'" xr:uid="{F78FD2AF-847A-4081-8FB8-21FD7991FC6A}"/>
-    <hyperlink ref="C39" tooltip="Component" display="'" xr:uid="{3A98C72B-B1B4-4636-9E4D-C85A113DABB9}"/>
-    <hyperlink ref="A40" tooltip="Supplier" display="'" xr:uid="{6E709CF1-37C5-4310-9EC7-EF9E39BA22A5}"/>
-    <hyperlink ref="B40" tooltip="Manufacturer" display="'" xr:uid="{22E3B2CE-0DF2-4306-9D0F-B4EAFD7B5B22}"/>
-    <hyperlink ref="C40" tooltip="Component" display="'" xr:uid="{491D6233-EC37-4272-87A2-956CCF2BEA6F}"/>
-    <hyperlink ref="A41" tooltip="Supplier" display="'" xr:uid="{433C0422-6227-4DFE-956A-BE6EA56B2C84}"/>
-    <hyperlink ref="B41" tooltip="Manufacturer" display="'" xr:uid="{7502E069-3AB0-4992-98A0-11E52C103C23}"/>
-    <hyperlink ref="C41" tooltip="Component" display="'" xr:uid="{54580372-00EA-4C56-9B54-EAEC9233F383}"/>
-    <hyperlink ref="A42" tooltip="Supplier" display="'" xr:uid="{F9B0197C-5FF9-4E46-8D4F-9C99F5230436}"/>
-    <hyperlink ref="B42" tooltip="Manufacturer" display="'" xr:uid="{98760138-3752-4EEF-9DE6-A153BCA1A8FF}"/>
-    <hyperlink ref="C42" tooltip="Component" display="'" xr:uid="{C450EA3E-773C-4711-8AF6-E0BF300DF182}"/>
-    <hyperlink ref="A43" tooltip="Supplier" display="'" xr:uid="{DB26FD82-B4FF-477C-AEDC-88765AB07F54}"/>
-    <hyperlink ref="B43" tooltip="Manufacturer" display="'" xr:uid="{CBA6AF55-0D8F-4478-A74A-DD6596362F58}"/>
-    <hyperlink ref="C43" tooltip="Component" display="'" xr:uid="{22658C18-4D12-45B7-90BB-57CF57F56757}"/>
-    <hyperlink ref="A44" tooltip="Supplier" display="'" xr:uid="{D5631D54-CB6E-4DE4-BAE9-AE1D4D07EE1C}"/>
-    <hyperlink ref="B44" tooltip="Manufacturer" display="'" xr:uid="{84594A65-D68B-44EE-849E-7D3CFCF34DF2}"/>
-    <hyperlink ref="C44" tooltip="Component" display="'" xr:uid="{D9E95733-0412-4AF2-BB07-CE5071C0209F}"/>
-    <hyperlink ref="A45" tooltip="Supplier" display="'" xr:uid="{CB6AAC3A-5122-4A88-AA23-E371E74A7D7E}"/>
-    <hyperlink ref="B45" tooltip="Manufacturer" display="'" xr:uid="{FE6909DE-7C63-4743-837B-E27B51EF70F5}"/>
-    <hyperlink ref="C45" tooltip="Component" display="'" xr:uid="{2C03D152-FDD8-46B8-ACD3-D3B72D8C73FE}"/>
-    <hyperlink ref="A46" tooltip="Supplier" display="'" xr:uid="{6A0E4985-2283-460D-BB18-63132227C2F7}"/>
-    <hyperlink ref="B46" tooltip="Manufacturer" display="'" xr:uid="{CA3663A2-15E2-4998-AFAB-7EA649170A18}"/>
-    <hyperlink ref="C46" tooltip="Component" display="'" xr:uid="{4F00297A-9DDB-47AD-B8A3-7506BF696E6D}"/>
-    <hyperlink ref="A47" tooltip="Supplier" display="'" xr:uid="{9700D194-9278-4FA2-85E5-9B8490657F31}"/>
-    <hyperlink ref="B47" tooltip="Manufacturer" display="'" xr:uid="{A296FD65-51EE-4920-BABF-83F43FDC6022}"/>
-    <hyperlink ref="C47" tooltip="Component" display="'" xr:uid="{784E99A2-227D-4DC0-A9D1-1FE7E0B21280}"/>
-    <hyperlink ref="A48" tooltip="Supplier" display="'" xr:uid="{9037BBA2-E325-496B-BABB-7531C60AF937}"/>
-    <hyperlink ref="B48" tooltip="Manufacturer" display="'" xr:uid="{520C9542-7078-415A-B3D3-A68CEDF15C91}"/>
-    <hyperlink ref="C48" tooltip="Component" display="'" xr:uid="{78C1A506-0359-4786-94F6-3C2D2FCA635F}"/>
-    <hyperlink ref="A49" tooltip="Supplier" display="'" xr:uid="{5811F844-C3AA-4268-A66A-CF72951BC4DA}"/>
-    <hyperlink ref="B49" tooltip="Manufacturer" display="'" xr:uid="{9D4A1C57-84FF-444F-9CBD-C73018D7EA56}"/>
-    <hyperlink ref="C49" tooltip="Component" display="'" xr:uid="{588FEB1F-D32A-4054-83F6-9C1B0E6B2F75}"/>
-    <hyperlink ref="A50" tooltip="Supplier" display="'" xr:uid="{BEF73B2D-AC64-435F-8624-F4050778DC46}"/>
-    <hyperlink ref="B50" tooltip="Manufacturer" display="'" xr:uid="{2613161B-4741-4A32-AD0C-D5A38C44F5FB}"/>
-    <hyperlink ref="C50" tooltip="Component" display="'" xr:uid="{70B0D014-4834-435D-8E1F-EF895597B065}"/>
-    <hyperlink ref="A51" tooltip="Supplier" display="'" xr:uid="{ADEB9E1D-9512-46C4-8EF5-9A7A112A14DC}"/>
-    <hyperlink ref="B51" tooltip="Manufacturer" display="'" xr:uid="{7352D4F1-330C-468F-B237-286180215F6B}"/>
-    <hyperlink ref="C51" tooltip="Component" display="'" xr:uid="{CCD0C6C4-6610-4344-8F6F-C015E2349E6A}"/>
-    <hyperlink ref="A52" tooltip="Supplier" display="'" xr:uid="{DC78AA3D-943E-4995-8FD5-91C670B91D64}"/>
-    <hyperlink ref="B52" tooltip="Manufacturer" display="'" xr:uid="{750EDBD4-BF30-4226-99B7-421927DECA85}"/>
-    <hyperlink ref="C52" tooltip="Component" display="'" xr:uid="{AB77F097-AA49-4B1B-B9D8-4241BC3AE67C}"/>
-    <hyperlink ref="A53" tooltip="Supplier" display="'" xr:uid="{87B3C20E-E79E-44FC-9A6C-522B809C5DA3}"/>
-    <hyperlink ref="B53" tooltip="Manufacturer" display="'" xr:uid="{B1EAE623-ACC9-4091-8935-8439521EEAB9}"/>
-    <hyperlink ref="C53" tooltip="Component" display="'" xr:uid="{3082517A-FFA3-464B-BD87-56EBCBD64455}"/>
-    <hyperlink ref="A54" tooltip="Supplier" display="'" xr:uid="{AAB981D3-C7F9-4738-AE26-345DE812D4A7}"/>
-    <hyperlink ref="B54" tooltip="Manufacturer" display="'" xr:uid="{F831FD85-9755-49FE-B966-5DD72C980981}"/>
-    <hyperlink ref="C54" tooltip="Component" display="'" xr:uid="{3377B0E5-D2FA-4C16-9471-53AE459EDC2B}"/>
-    <hyperlink ref="A55" tooltip="Supplier" display="'" xr:uid="{17836BF6-8FD8-4158-81AC-1ED9CC4555B9}"/>
-    <hyperlink ref="B55" tooltip="Manufacturer" display="'" xr:uid="{1DE7F9E4-AAFE-426C-9B57-55DB5898AA61}"/>
-    <hyperlink ref="C55" tooltip="Component" display="'" xr:uid="{D8463EF1-A380-45D7-B637-E26D877B7391}"/>
-    <hyperlink ref="A56" tooltip="Supplier" display="'" xr:uid="{4A5C2219-8F37-4931-90F7-484F5B151675}"/>
-    <hyperlink ref="B56" tooltip="Manufacturer" display="'" xr:uid="{7B4A3A0F-66B0-489A-8639-72147D794FB8}"/>
-    <hyperlink ref="C56" tooltip="Component" display="'" xr:uid="{C1E6B441-91D6-4012-A998-4888DA166092}"/>
-    <hyperlink ref="A57" tooltip="Supplier" display="'" xr:uid="{84B4E9C3-7519-4CA3-96E3-34A50D5AE73C}"/>
-    <hyperlink ref="B57" tooltip="Manufacturer" display="'" xr:uid="{200BAF65-C136-4EAD-B39F-8E9C046225A4}"/>
-    <hyperlink ref="C57" tooltip="Component" display="'" xr:uid="{BABEC1AD-5E66-4A92-98B1-A52B6BD1CD3C}"/>
-    <hyperlink ref="A58" tooltip="Supplier" display="'" xr:uid="{6AF6B11A-EBE4-461C-8BFF-7411D6A3BB32}"/>
-    <hyperlink ref="B58" tooltip="Manufacturer" display="'" xr:uid="{D85AF308-5E82-4CB7-8682-E0A4A92DDF64}"/>
-    <hyperlink ref="C58" tooltip="Component" display="'" xr:uid="{BF14F82F-ACD2-4427-831D-19B34423E940}"/>
-    <hyperlink ref="A59" tooltip="Supplier" display="'" xr:uid="{821FBAEE-CA9F-4083-BF4B-F79B1870CF4A}"/>
-    <hyperlink ref="B59" tooltip="Manufacturer" display="'" xr:uid="{3D3AEE48-6626-4648-9353-D90FD97E28CD}"/>
-    <hyperlink ref="C59" tooltip="Component" display="'" xr:uid="{65443FC3-376E-42E5-928E-7D03FF9240E6}"/>
-    <hyperlink ref="A60" tooltip="Supplier" display="'" xr:uid="{40145ADC-7AE4-47B4-9A10-4C04A6D423AE}"/>
-    <hyperlink ref="B60" tooltip="Manufacturer" display="'" xr:uid="{FA12424E-8772-489A-8280-95836E89C67D}"/>
-    <hyperlink ref="C60" tooltip="Component" display="'" xr:uid="{A629DA67-3058-47D8-9D29-52A19C56155B}"/>
-    <hyperlink ref="A61" tooltip="Supplier" display="'" xr:uid="{044B6AB4-86B5-426C-8AB0-283406C59208}"/>
-    <hyperlink ref="B61" tooltip="Manufacturer" display="'" xr:uid="{9578ECA5-4B00-494D-9752-3C5A03CBDDF2}"/>
-    <hyperlink ref="C61" tooltip="Component" display="'" xr:uid="{912DF088-6513-40F3-9B5C-818D5D7582B1}"/>
-    <hyperlink ref="A62" tooltip="Supplier" display="'" xr:uid="{E8E74349-89FC-4B6A-B24F-DCA05BA47883}"/>
-    <hyperlink ref="B62" tooltip="Manufacturer" display="'" xr:uid="{4718BEEE-9EE0-417C-A0A6-566C26A82A13}"/>
-    <hyperlink ref="C62" tooltip="Component" display="'" xr:uid="{E8EF6926-E476-4C04-A071-90E3070139D2}"/>
-    <hyperlink ref="A63" tooltip="Supplier" display="'" xr:uid="{2555DAC1-D921-4AE7-AD4E-EB4AF7FDF4CB}"/>
-    <hyperlink ref="B63" tooltip="Manufacturer" display="'" xr:uid="{DDF3DE0A-9A6F-4857-8ED7-C1781E0335FB}"/>
-    <hyperlink ref="C63" tooltip="Component" display="'" xr:uid="{A3B23F55-0103-4825-A9B6-645411BE304B}"/>
-    <hyperlink ref="A64" tooltip="Supplier" display="'" xr:uid="{899EBD5A-2158-428B-8B12-0ACA16004189}"/>
-    <hyperlink ref="B64" tooltip="Manufacturer" display="'" xr:uid="{3103207F-0282-4BEF-A1D4-88326D7F311A}"/>
-    <hyperlink ref="C64" tooltip="Component" display="'" xr:uid="{C850D269-BC7D-437E-AC7C-34B36FACF546}"/>
-    <hyperlink ref="A65" tooltip="Supplier" display="'" xr:uid="{BC4FF957-9C79-4433-8B9A-045118A22C3A}"/>
-    <hyperlink ref="B65" tooltip="Manufacturer" display="'" xr:uid="{BDEE2187-4289-420E-B1F9-C44B35BA110D}"/>
-    <hyperlink ref="C65" tooltip="Component" display="'" xr:uid="{3E69EB0A-B276-4682-A47D-EF4C54EEA24A}"/>
-    <hyperlink ref="A66" tooltip="Supplier" display="'" xr:uid="{82677E56-4CAA-49E8-B316-58BF415F4933}"/>
-    <hyperlink ref="B66" tooltip="Manufacturer" display="'" xr:uid="{4A378538-59B3-4C0A-96B0-04EDE670CC0A}"/>
-    <hyperlink ref="C66" tooltip="Component" display="'" xr:uid="{553603E1-0B46-431B-91AA-1CCAB88D82D9}"/>
-    <hyperlink ref="A67" tooltip="Supplier" display="'" xr:uid="{2E28BA54-5084-41FC-BBB2-0CC3E212539F}"/>
-    <hyperlink ref="B67" tooltip="Manufacturer" display="'" xr:uid="{D07A1853-7369-4EA8-B61A-AB47F79823C4}"/>
-    <hyperlink ref="C67" tooltip="Component" display="'" xr:uid="{59F8CFA7-8074-4FD0-BCB3-B0716C139265}"/>
-    <hyperlink ref="A68" tooltip="Supplier" display="'" xr:uid="{E08E4C37-C8E5-4559-874B-907338932A74}"/>
-    <hyperlink ref="B68" tooltip="Manufacturer" display="'" xr:uid="{2ED628DE-B9F3-4016-B4DE-497440AF9E44}"/>
-    <hyperlink ref="C68" tooltip="Component" display="'" xr:uid="{8341BB30-73B1-4EB6-9D8F-8AA523D1A776}"/>
-    <hyperlink ref="A69" tooltip="Supplier" display="'" xr:uid="{58F12584-4B00-4591-923E-E751CB3E35CC}"/>
-    <hyperlink ref="B69" tooltip="Manufacturer" display="'" xr:uid="{C6EB049E-29E7-4078-AAB5-9AE4A3E5F85F}"/>
-    <hyperlink ref="C69" tooltip="Component" display="'" xr:uid="{085892F0-3772-4A72-B1FE-E0A94A348A99}"/>
-    <hyperlink ref="A70" tooltip="Supplier" display="'" xr:uid="{07BA5DB8-ACFC-4109-8231-8D7090C6D3F1}"/>
-    <hyperlink ref="B70" tooltip="Manufacturer" display="'" xr:uid="{0E060066-32FF-4D9F-8DE8-F9580CDEE55E}"/>
-    <hyperlink ref="C70" tooltip="Component" display="'" xr:uid="{7198BB9A-695A-4AD8-893F-027F31E00E22}"/>
-    <hyperlink ref="A71" tooltip="Supplier" display="'" xr:uid="{24DC50A2-FF2D-4170-8A6B-F56AB0FCE564}"/>
-    <hyperlink ref="B71" tooltip="Manufacturer" display="'" xr:uid="{7533D1B3-B41B-4F07-A0DE-F43840E2FF42}"/>
-    <hyperlink ref="C71" tooltip="Component" display="'" xr:uid="{BBF8A3FE-4453-41FC-80F2-ED4FC05B0DBA}"/>
-    <hyperlink ref="A72" tooltip="Supplier" display="'" xr:uid="{3D756284-382C-4469-88B5-F16A08F6485D}"/>
-    <hyperlink ref="B72" tooltip="Manufacturer" display="'" xr:uid="{680345BA-7095-4646-8362-BDB64BD785A6}"/>
-    <hyperlink ref="C72" tooltip="Component" display="'" xr:uid="{7D3093A6-AF8A-4346-B381-5177FD58CD49}"/>
-    <hyperlink ref="A73" tooltip="Supplier" display="'" xr:uid="{9A4B0AF7-2E42-4B42-ADF2-53C77AAB5295}"/>
-    <hyperlink ref="B73" tooltip="Manufacturer" display="'" xr:uid="{A107FC83-5C09-424D-861F-65BEDB2F49D8}"/>
-    <hyperlink ref="C73" tooltip="Component" display="'" xr:uid="{D39E075D-322F-4883-A86A-FF2486EDDB4D}"/>
-    <hyperlink ref="A74" tooltip="Supplier" display="'" xr:uid="{03CAAEB3-95E7-451C-A551-93B526D45EB5}"/>
-    <hyperlink ref="B74" tooltip="Manufacturer" display="'" xr:uid="{686E8DA9-9573-4DBB-BE65-A3CBC72754C0}"/>
-    <hyperlink ref="C74" tooltip="Component" display="'" xr:uid="{FBFEA798-82C1-4DF3-9312-C3C199111D34}"/>
-    <hyperlink ref="A75" tooltip="Supplier" display="'" xr:uid="{B32909D7-E6AC-4DC9-8737-C2A7C2849EB4}"/>
-    <hyperlink ref="B75" tooltip="Manufacturer" display="'" xr:uid="{8FFFCFE5-55FF-4099-9C03-AEB21FC1DA3D}"/>
-    <hyperlink ref="C75" tooltip="Component" display="'" xr:uid="{6A93B60F-16D5-4C74-AC62-413FB5CDFE4D}"/>
-    <hyperlink ref="A76" tooltip="Supplier" display="'" xr:uid="{DCA18381-83DD-4C84-BDBB-97D262DE7ED1}"/>
-    <hyperlink ref="B76" tooltip="Manufacturer" display="'" xr:uid="{34CE6D8E-B55A-4C70-A369-227B7C5981E1}"/>
-    <hyperlink ref="C76" tooltip="Component" display="'" xr:uid="{B48DDFA6-D0B0-457A-AEB5-B7F9BBC84388}"/>
-    <hyperlink ref="A77" tooltip="Supplier" display="'" xr:uid="{4C1D3830-A722-4045-B59C-67DCCCFE9AA1}"/>
-    <hyperlink ref="B77" tooltip="Manufacturer" display="'" xr:uid="{852C5474-AEA7-43DE-BB47-167EE48BFCEF}"/>
-    <hyperlink ref="C77" tooltip="Component" display="'" xr:uid="{E0A09FED-3216-42FC-B8B2-6730D81E5655}"/>
-    <hyperlink ref="A78" tooltip="Supplier" display="'" xr:uid="{7B90D098-3811-499E-91EB-9B56665A4EED}"/>
-    <hyperlink ref="B78" tooltip="Manufacturer" display="'" xr:uid="{14E541A7-335F-42DE-814E-2BD305F4C167}"/>
-    <hyperlink ref="C78" tooltip="Component" display="'" xr:uid="{8420D32B-7098-46E1-AB0B-A58944E193AD}"/>
-    <hyperlink ref="A79" tooltip="Supplier" display="'" xr:uid="{F85A5224-2723-4484-8867-3360C53AD96D}"/>
-    <hyperlink ref="B79" tooltip="Manufacturer" display="'" xr:uid="{204B8CF2-C0D4-499E-AA48-0D63B1D62CE2}"/>
-    <hyperlink ref="C79" tooltip="Component" display="'" xr:uid="{7BAE4B37-88F4-49C6-AB19-E9E381A73DBC}"/>
+    <hyperlink ref="A2" tooltip="Supplier" display="'" xr:uid="{3607B916-89FE-416E-8798-4C454905BFDA}"/>
+    <hyperlink ref="B2" tooltip="Manufacturer" display="'" xr:uid="{27C0F938-15CF-4B74-A322-4D6CAF68F951}"/>
+    <hyperlink ref="C2" tooltip="Component" display="'" xr:uid="{F7D8303B-3429-4AF3-B945-92F9A6558411}"/>
+    <hyperlink ref="A3" tooltip="Supplier" display="'" xr:uid="{23A2646F-AB0F-4505-8034-FA3DFE8B277C}"/>
+    <hyperlink ref="B3" tooltip="Manufacturer" display="'" xr:uid="{6E15BE39-1F26-4702-A6DE-6FA8358B5E79}"/>
+    <hyperlink ref="C3" tooltip="Component" display="'" xr:uid="{F28649A9-D5CA-49D6-BD8E-BC683437E53B}"/>
+    <hyperlink ref="A4" tooltip="Supplier" display="'" xr:uid="{D695CC8C-6AE2-40D6-8505-5F6D497501B3}"/>
+    <hyperlink ref="B4" tooltip="Manufacturer" display="'" xr:uid="{C18B7B34-C807-4238-A63B-9226C7F6140B}"/>
+    <hyperlink ref="C4" tooltip="Component" display="'" xr:uid="{06F4C9D2-F7D8-43A5-9B1D-9D9E0C94554B}"/>
+    <hyperlink ref="A5" tooltip="Supplier" display="'" xr:uid="{F8DD9B6C-981D-4742-B171-2195E5CB52A6}"/>
+    <hyperlink ref="B5" tooltip="Manufacturer" display="'" xr:uid="{1C01E4A6-64A9-44C3-BBD6-7AACA3E5BE16}"/>
+    <hyperlink ref="C5" tooltip="Component" display="'" xr:uid="{957B0EB7-7B75-48B0-868C-89A10747DE41}"/>
+    <hyperlink ref="A6" r:id="rId1" tooltip="Supplier" display="'296-16845-2-ND" xr:uid="{E7B13344-397F-41A8-90A6-99DCE5EA1F15}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="Manufacturer" display="'SN74LVC2T45DCTR" xr:uid="{341975D8-2892-4FD7-B5AF-0CC4703333B1}"/>
+    <hyperlink ref="C6" r:id="rId3" tooltip="Component" display="'Texas Instruments" xr:uid="{7AB01C1D-EFDF-45EF-851B-47B1E6DF9411}"/>
+    <hyperlink ref="A7" tooltip="Supplier" display="'" xr:uid="{928E39EB-0D14-4E4B-AEFE-1FCA50213C5A}"/>
+    <hyperlink ref="B7" tooltip="Manufacturer" display="'" xr:uid="{479A2A87-6137-4582-A4EA-009BE02C8FC1}"/>
+    <hyperlink ref="C7" tooltip="Component" display="'" xr:uid="{F2456C2C-0ACA-4BD9-A15A-A6A74A297C76}"/>
+    <hyperlink ref="A8" tooltip="Supplier" display="'" xr:uid="{A067E9FE-D1DF-4422-AA88-AC8F01FEF385}"/>
+    <hyperlink ref="B8" tooltip="Manufacturer" display="'" xr:uid="{3D628A43-A281-4F00-A55B-065E090A34AC}"/>
+    <hyperlink ref="C8" tooltip="Component" display="'" xr:uid="{DCA0F00F-5FE6-4315-9522-150992792477}"/>
+    <hyperlink ref="A9" tooltip="Supplier" display="'" xr:uid="{F92333AC-6B12-46E9-A034-6F128EFE9B7C}"/>
+    <hyperlink ref="B9" tooltip="Manufacturer" display="'" xr:uid="{6BEF0946-A637-4B99-93DA-FA6B783A81C1}"/>
+    <hyperlink ref="C9" tooltip="Component" display="'" xr:uid="{152F6B4A-7B54-4635-A07F-A83D25D7D76C}"/>
+    <hyperlink ref="A10" tooltip="Supplier" display="'" xr:uid="{7D8EC956-D168-4DC4-9006-48C8DAF94315}"/>
+    <hyperlink ref="B10" tooltip="Manufacturer" display="'" xr:uid="{E74247A6-F797-4F02-A383-7441BB593724}"/>
+    <hyperlink ref="C10" tooltip="Component" display="'" xr:uid="{376EDD8D-EA25-4D18-80D0-138FB8B34595}"/>
+    <hyperlink ref="A11" tooltip="Supplier" display="'" xr:uid="{65AAB679-7FAE-429A-9F50-ECFD66D7FE3A}"/>
+    <hyperlink ref="B11" tooltip="Manufacturer" display="'" xr:uid="{8DFD9EC9-E433-4C0C-8C61-B40DD6FA1DF2}"/>
+    <hyperlink ref="C11" tooltip="Component" display="'" xr:uid="{C4D8A6F1-EC6C-4510-8C59-777B642167AD}"/>
+    <hyperlink ref="A12" tooltip="Supplier" display="'" xr:uid="{0C9D1D39-60E3-49B8-9409-ED14FF407365}"/>
+    <hyperlink ref="B12" tooltip="Manufacturer" display="'" xr:uid="{35E7F561-DCC8-4133-91DD-B0693481E179}"/>
+    <hyperlink ref="C12" tooltip="Component" display="'" xr:uid="{BB690E76-44ED-4DF5-BDCF-B90ADFF44430}"/>
+    <hyperlink ref="A13" tooltip="Supplier" display="'" xr:uid="{8F06381A-501E-4B4B-9E26-C7A06F11E822}"/>
+    <hyperlink ref="B13" tooltip="Manufacturer" display="'" xr:uid="{480B49B3-75D5-4A77-9BDC-5AD6C326D097}"/>
+    <hyperlink ref="C13" tooltip="Component" display="'" xr:uid="{7FC4858B-EC70-415C-9B58-13921CF54D46}"/>
+    <hyperlink ref="A14" r:id="rId4" tooltip="Supplier" display="'TC4468COE-ND" xr:uid="{56027FA7-C8E9-49AF-A2E4-993B218606E1}"/>
+    <hyperlink ref="B14" r:id="rId5" tooltip="Manufacturer" display="'TC4468COE" xr:uid="{CB30C951-0201-403A-AC90-6B273AB6D1A6}"/>
+    <hyperlink ref="C14" r:id="rId6" tooltip="Component" display="'Microchip" xr:uid="{A933807C-95BE-40F6-A60D-30383A547C01}"/>
+    <hyperlink ref="A15" tooltip="Supplier" display="'" xr:uid="{445FEB2F-030E-41B8-92DB-3E1AC2856164}"/>
+    <hyperlink ref="B15" tooltip="Manufacturer" display="'" xr:uid="{5659E457-5C9F-41FF-880D-6FF09056A840}"/>
+    <hyperlink ref="C15" tooltip="Component" display="'" xr:uid="{C73F05A0-51F6-4B52-9C34-046369A6CB30}"/>
+    <hyperlink ref="A16" r:id="rId7" tooltip="Supplier" display="'ADA4522-4ARZ-ND" xr:uid="{0D8909A7-BD3A-4B45-A907-89AE996A5872}"/>
+    <hyperlink ref="B16" r:id="rId8" tooltip="Manufacturer" display="'ADA4522-4ARZ" xr:uid="{27E61726-5F3A-41CF-BD18-65F1195BD0F8}"/>
+    <hyperlink ref="C16" r:id="rId9" tooltip="Component" display="'Analog Devices" xr:uid="{46560314-EFE3-49FD-883E-D350996CB6B3}"/>
+    <hyperlink ref="A17" tooltip="Supplier" display="'" xr:uid="{31CB8E00-03C2-4F71-AAA8-298AB731D447}"/>
+    <hyperlink ref="B17" tooltip="Manufacturer" display="'" xr:uid="{7954D69F-B02C-4FFC-90BC-9E8E4027AA19}"/>
+    <hyperlink ref="C17" tooltip="Component" display="'" xr:uid="{BA097129-41D2-4E79-A6D6-88C18ACD436E}"/>
+    <hyperlink ref="A18" tooltip="Supplier" display="'" xr:uid="{A3B51022-BA80-4AC2-A3FC-775BD3C401F3}"/>
+    <hyperlink ref="B18" tooltip="Manufacturer" display="'" xr:uid="{88FE8E6E-B88E-4C50-B212-F705E30A600A}"/>
+    <hyperlink ref="C18" tooltip="Component" display="'" xr:uid="{A1417396-0904-4727-8FE0-0FFD9C7AA9B5}"/>
+    <hyperlink ref="A19" tooltip="Supplier" display="'" xr:uid="{583FF7B7-8A17-48DA-A615-7F9B35EA92DA}"/>
+    <hyperlink ref="B19" tooltip="Manufacturer" display="'" xr:uid="{C8EBE499-0BAE-4C12-8ED0-216D2DCE022D}"/>
+    <hyperlink ref="C19" tooltip="Component" display="'" xr:uid="{FB164CDB-492D-47C3-AB09-FABEC8DD9FE1}"/>
+    <hyperlink ref="A20" tooltip="Supplier" display="'" xr:uid="{7AAA0929-CD77-4417-9104-EC19F69BFC2B}"/>
+    <hyperlink ref="B20" tooltip="Manufacturer" display="'" xr:uid="{7642BF84-1C92-4BD4-897E-F0B3E30ABD54}"/>
+    <hyperlink ref="C20" tooltip="Component" display="'" xr:uid="{CB8BB1C4-ABB1-402A-9B2D-5E2FAA1684B4}"/>
+    <hyperlink ref="A21" r:id="rId10" tooltip="Supplier" display="'DMN65D8L-7DITR-ND" xr:uid="{EEB65D74-3EED-492F-8A9B-5BD14015366A}"/>
+    <hyperlink ref="B21" r:id="rId11" tooltip="Manufacturer" display="'DMN65D8L-7" xr:uid="{9A0F2A94-319D-4E84-A7C4-5C2CF633FD0D}"/>
+    <hyperlink ref="C21" r:id="rId12" tooltip="Component" display="'Diodes" xr:uid="{1D5CB591-823A-483F-B8A7-938464C47DF4}"/>
+    <hyperlink ref="A22" r:id="rId13" tooltip="Supplier" display="'ADG3308BRUZ-ND" xr:uid="{86DD1875-8D82-44E4-A893-B7B25038DAC0}"/>
+    <hyperlink ref="B22" r:id="rId14" tooltip="Manufacturer" display="'ADG3308BRUZ" xr:uid="{58FD0D0C-B060-4988-89DD-D49BAEB95EA4}"/>
+    <hyperlink ref="C22" r:id="rId15" tooltip="Component" display="'Analog Devices" xr:uid="{D9333B2A-5CD6-4E22-A3DF-07AD0028A2BB}"/>
+    <hyperlink ref="A23" tooltip="Supplier" display="'" xr:uid="{A790E1B0-06B0-4E8F-A727-4731E7BCB6B9}"/>
+    <hyperlink ref="B23" tooltip="Manufacturer" display="'" xr:uid="{4601D003-68F5-467E-A393-BA63FDB83AC9}"/>
+    <hyperlink ref="C23" tooltip="Component" display="'" xr:uid="{6635CACD-ACB6-429D-895E-2D9F745039CC}"/>
+    <hyperlink ref="A24" tooltip="Supplier" display="'" xr:uid="{5EF8B92E-2607-4339-9887-4349F9C05FB1}"/>
+    <hyperlink ref="B24" tooltip="Manufacturer" display="'" xr:uid="{4EAF26AA-609D-4761-A02C-F25C22D2EB9E}"/>
+    <hyperlink ref="C24" tooltip="Component" display="'" xr:uid="{1D5BFC0B-FABC-4549-8BCF-909BA753DE09}"/>
+    <hyperlink ref="A25" tooltip="Supplier" display="'" xr:uid="{FD403A1C-9E08-4603-B636-829623F8E3FE}"/>
+    <hyperlink ref="B25" tooltip="Manufacturer" display="'" xr:uid="{E3DF17B9-C1FF-4C97-89A1-C46239468BD0}"/>
+    <hyperlink ref="C25" tooltip="Component" display="'" xr:uid="{5610C191-E8B7-49DA-996C-F63C8BC17902}"/>
+    <hyperlink ref="A26" r:id="rId16" tooltip="Supplier" display="'1115FFE-ND" xr:uid="{4AE51522-7447-4F7B-88A6-E66A36F94A4B}"/>
+    <hyperlink ref="B26" r:id="rId17" tooltip="Manufacturer" display="'178-015-513R571" xr:uid="{C26F7664-F279-42B4-A365-B23B988EB110}"/>
+    <hyperlink ref="C26" r:id="rId18" tooltip="Component" display="'NorComp" xr:uid="{FD8C5573-1470-4159-968C-4D755E9EDEE6}"/>
+    <hyperlink ref="A27" tooltip="Supplier" display="'" xr:uid="{E83084F1-10CE-4097-A929-91B60FCFF24E}"/>
+    <hyperlink ref="B27" tooltip="Manufacturer" display="'" xr:uid="{51F31859-3645-482E-A636-0A43D449DDA6}"/>
+    <hyperlink ref="C27" tooltip="Component" display="'" xr:uid="{1E947FAF-6A5B-4A73-A1F8-325BA77FB211}"/>
+    <hyperlink ref="A28" tooltip="Supplier" display="'" xr:uid="{B265D90F-5811-447F-ADFA-C8C7D3371096}"/>
+    <hyperlink ref="B28" tooltip="Manufacturer" display="'" xr:uid="{359F94EE-3428-4805-A350-145679BBBE1C}"/>
+    <hyperlink ref="C28" tooltip="Component" display="'" xr:uid="{C0D56312-8947-4431-BFF3-0D17689C6C38}"/>
+    <hyperlink ref="A29" tooltip="Supplier" display="'" xr:uid="{56557B57-9FB2-48EC-9D2F-02C2906C7755}"/>
+    <hyperlink ref="B29" tooltip="Manufacturer" display="'" xr:uid="{CF8309AE-93A0-47CD-B397-A20889924BE8}"/>
+    <hyperlink ref="C29" tooltip="Component" display="'" xr:uid="{D09CA224-B50E-4EEF-BF22-3504E33E73CE}"/>
+    <hyperlink ref="A30" tooltip="Supplier" display="'" xr:uid="{29D25F61-A276-4202-AA24-621C88ECFDBF}"/>
+    <hyperlink ref="B30" tooltip="Manufacturer" display="'" xr:uid="{4FB76854-6ED8-4B41-9E19-3573A38EFA61}"/>
+    <hyperlink ref="C30" tooltip="Component" display="'" xr:uid="{059F6E0C-A1D8-4E52-A5E6-A1CBBC8E46BC}"/>
+    <hyperlink ref="A31" r:id="rId19" tooltip="Supplier" display="'296-40356-2-ND" xr:uid="{F108F85B-2FB8-4443-9AEB-183A7F5AA8CC}"/>
+    <hyperlink ref="B31" r:id="rId20" tooltip="Manufacturer" display="'LP5907MFX-2.5/NOPB" xr:uid="{350FCDC7-76ED-4782-A644-7E39B6A0CA38}"/>
+    <hyperlink ref="C31" r:id="rId21" tooltip="Component" display="'Texas Instruments" xr:uid="{0221E0D7-FFFD-4BB5-93C7-68BA41AB2D0F}"/>
+    <hyperlink ref="A32" r:id="rId22" tooltip="Supplier" display="'ADP7118AUJZ-R7-ND" xr:uid="{7169DFB5-9AA3-4A48-BF44-FCA113F397AA}"/>
+    <hyperlink ref="B32" r:id="rId23" tooltip="Manufacturer" display="'ADP7118AUJZ-R7" xr:uid="{2554F652-7088-4519-805A-2FE2C8C7F7F8}"/>
+    <hyperlink ref="C32" r:id="rId24" tooltip="Component" display="'Analog Devices" xr:uid="{DBA54BA1-9F77-4B1E-A980-BBF453EBC088}"/>
+    <hyperlink ref="A33" r:id="rId25" tooltip="Supplier" display="'ADP7182AUJZ-R7-ND" xr:uid="{27DBBECD-09B9-4ECB-A029-98109BC6262A}"/>
+    <hyperlink ref="B33" r:id="rId26" tooltip="Manufacturer" display="'ADP7182AUJZ-R7" xr:uid="{DA64C497-C143-45C1-A07C-C19478900BF2}"/>
+    <hyperlink ref="C33" r:id="rId27" tooltip="Component" display="'Analog Devices" xr:uid="{21639DDE-EFD4-4061-8DCB-659449A23BC8}"/>
+    <hyperlink ref="A34" r:id="rId28" tooltip="Supplier" display="'F2895TR-ND" xr:uid="{14F7D4BE-00F5-40E9-8922-EC3DA1EC79FC}"/>
+    <hyperlink ref="B34" r:id="rId29" tooltip="Manufacturer" display="'SP1001-04JTG" xr:uid="{9DDB4FED-364C-419E-BF85-F6176AC97CF2}"/>
+    <hyperlink ref="C34" r:id="rId30" tooltip="Component" display="'Littelfuse" xr:uid="{0008F0DD-0262-4DD3-98E1-3948A971C907}"/>
+    <hyperlink ref="A35" r:id="rId31" tooltip="Supplier" display="'INA2143UA-ND" xr:uid="{A4FC2F24-04F9-455D-8119-02F72C72997A}"/>
+    <hyperlink ref="B35" r:id="rId32" tooltip="Manufacturer" display="'INA2143UA" xr:uid="{FC8DBB74-B460-4EA9-8237-3A41F7944531}"/>
+    <hyperlink ref="C35" r:id="rId33" tooltip="Component" display="'Texas Instruments" xr:uid="{4E28FEAF-9D12-42C1-A31C-6053AF761836}"/>
+    <hyperlink ref="A36" tooltip="Supplier" display="'" xr:uid="{288BD552-07CC-4268-B769-BCB9B5971BDB}"/>
+    <hyperlink ref="B36" tooltip="Manufacturer" display="'" xr:uid="{37BFAAD4-4B25-4AE6-A9DA-95286AE47190}"/>
+    <hyperlink ref="C36" tooltip="Component" display="'" xr:uid="{53B487E4-7E16-4445-BCF3-BDF6ED0B9608}"/>
+    <hyperlink ref="A37" tooltip="Supplier" display="'" xr:uid="{659AC831-8029-4061-BEC2-EBB1A681ABAC}"/>
+    <hyperlink ref="B37" tooltip="Manufacturer" display="'" xr:uid="{288A50A2-5576-4FEE-891F-EA20FDA1D402}"/>
+    <hyperlink ref="C37" tooltip="Component" display="'" xr:uid="{39C068D0-86D6-4B72-9500-0A30C1F9ABB3}"/>
+    <hyperlink ref="A38" tooltip="Supplier" display="'" xr:uid="{699F1827-701B-47AD-9399-89BC9D97FAEB}"/>
+    <hyperlink ref="B38" tooltip="Manufacturer" display="'" xr:uid="{856E8848-AD77-4E3A-AA45-A229FCE7AF66}"/>
+    <hyperlink ref="C38" tooltip="Component" display="'" xr:uid="{1E084E54-E89F-400D-8721-B522DBA38C90}"/>
+    <hyperlink ref="A39" r:id="rId34" tooltip="Supplier" display="'277-1667-ND" xr:uid="{F2EB731D-F5C3-4B07-BD31-793CEE55818A}"/>
+    <hyperlink ref="B39" r:id="rId35" tooltip="Manufacturer" display="'1935161" xr:uid="{58196FD0-C246-45C9-9A51-7DD3764B3326}"/>
+    <hyperlink ref="C39" r:id="rId36" tooltip="Component" display="'Phoenix Contact" xr:uid="{8E3A512C-2D08-4DA0-B834-74C4E10C7F08}"/>
+    <hyperlink ref="A40" tooltip="Supplier" display="'" xr:uid="{4DEBB1A3-CFFD-47F3-B8B9-C291D56E34FD}"/>
+    <hyperlink ref="B40" tooltip="Manufacturer" display="'" xr:uid="{6A7472D4-DAED-4690-BDC6-9AE35873AF53}"/>
+    <hyperlink ref="C40" tooltip="Component" display="'" xr:uid="{42ED691F-D0CE-45AA-84A8-BED6B48ADE65}"/>
+    <hyperlink ref="A41" tooltip="Supplier" display="'" xr:uid="{C40411CC-FAE3-41E6-809F-A241344712E5}"/>
+    <hyperlink ref="B41" tooltip="Manufacturer" display="'" xr:uid="{461BCA0B-1772-4A48-A750-AF6AC91CFB6D}"/>
+    <hyperlink ref="C41" tooltip="Component" display="'" xr:uid="{A37601F9-08B8-4732-BA21-B2319E9144F1}"/>
+    <hyperlink ref="A42" tooltip="Supplier" display="'" xr:uid="{D2003059-417F-4B83-ADF5-C779753C1BA0}"/>
+    <hyperlink ref="B42" tooltip="Manufacturer" display="'" xr:uid="{76496DF3-EFC6-4EC8-B45C-4C89FD5B4B54}"/>
+    <hyperlink ref="C42" tooltip="Component" display="'" xr:uid="{A5AE2407-A0F6-4787-AAFA-55BBD3A73501}"/>
+    <hyperlink ref="A43" tooltip="Supplier" display="'" xr:uid="{FA015C6B-4472-4210-A1FB-224F9CE809FE}"/>
+    <hyperlink ref="B43" tooltip="Manufacturer" display="'" xr:uid="{E098E2DE-D712-4477-9EB5-46D6351CBA5C}"/>
+    <hyperlink ref="C43" tooltip="Component" display="'" xr:uid="{5AAFAED8-BDBA-4C86-8BC0-3DD03E121930}"/>
+    <hyperlink ref="A44" r:id="rId37" tooltip="Supplier" display="'296-18593-2-ND" xr:uid="{561435D8-E4BA-463E-A7C0-0A234AAD5DD8}"/>
+    <hyperlink ref="B44" r:id="rId38" tooltip="Manufacturer" display="'SN74LVC8T245PWR" xr:uid="{9174001F-AA5F-4320-8F96-FE4DF617AB21}"/>
+    <hyperlink ref="C44" r:id="rId39" tooltip="Component" display="'Texas Instruments" xr:uid="{D9C8BF22-A196-4725-8CFA-8B53E042E4C2}"/>
+    <hyperlink ref="A45" r:id="rId40" tooltip="Supplier" display="'450-1662-ND" xr:uid="{CB2CF280-CE0B-4329-9665-48DA49CA06D5}"/>
+    <hyperlink ref="B45" r:id="rId41" tooltip="Manufacturer" display="'1825027-5" xr:uid="{7E9F57DA-980A-4EA3-8610-A2C9DA5B88C7}"/>
+    <hyperlink ref="C45" r:id="rId42" tooltip="Component" display="'TE Connectivity" xr:uid="{52EF7DEA-A883-410F-BACC-30BEDF6553C3}"/>
+    <hyperlink ref="A46" r:id="rId43" tooltip="Supplier" display="'732-3883-ND" xr:uid="{8297DD52-96B7-49E6-B294-FAA5982475A2}"/>
+    <hyperlink ref="B46" r:id="rId44" tooltip="Manufacturer" display="'7448227005" xr:uid="{73F76353-76BF-4DF6-8BB3-B13F89BB35F9}"/>
+    <hyperlink ref="C46" r:id="rId45" tooltip="Component" display="'Wurth Electronics" xr:uid="{9A83F12E-70FA-4513-9CEC-6402ABF1F179}"/>
+    <hyperlink ref="A47" r:id="rId46" tooltip="Supplier" display="'A97799TR-ND" xr:uid="{9F0E7B18-B029-4B7C-8A25-C74A8F502A70}"/>
+    <hyperlink ref="B47" r:id="rId47" tooltip="Manufacturer" display="'1981584-1" xr:uid="{604C8495-5CFF-4A8B-9A1E-3D51A811A7CA}"/>
+    <hyperlink ref="C47" r:id="rId48" tooltip="Component" display="'TE Connectivity" xr:uid="{9FB9E06B-80D3-43DE-82FF-A4D4D6A15777}"/>
+    <hyperlink ref="A48" r:id="rId49" tooltip="Supplier" display="'LT1529CQ-5#PBF-ND" xr:uid="{AE0EE25B-80BF-4DA0-9CB2-6F76A2FBC386}"/>
+    <hyperlink ref="B48" r:id="rId50" tooltip="Manufacturer" display="'LT1529CQ-5#PBF" xr:uid="{321EAA67-65F4-4BA5-9321-6FB53A4CFBF3}"/>
+    <hyperlink ref="C48" r:id="rId51" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{51A9C0B9-4FFE-49EB-857B-678CB2334208}"/>
+    <hyperlink ref="A49" r:id="rId52" tooltip="Supplier" display="'LT1764EQ-1.8#PBF-ND" xr:uid="{BA470C7F-E315-4210-A37D-08E3178FD539}"/>
+    <hyperlink ref="B49" r:id="rId53" tooltip="Manufacturer" display="'LT1764EQ-1.8#PBF" xr:uid="{8C912177-D589-4C82-A4F9-C52329933C69}"/>
+    <hyperlink ref="C49" r:id="rId54" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{5999EAB8-7FFF-47BF-87BC-29835E410B16}"/>
+    <hyperlink ref="A50" r:id="rId55" tooltip="Supplier" display="'LTC2320CUKG-14#PBF-ND" xr:uid="{74A31B93-1E1E-47F9-8190-28DAA295860C}"/>
+    <hyperlink ref="B50" r:id="rId56" tooltip="Manufacturer" display="'LTC2320CUKG-14#PBF" xr:uid="{16EB4EC2-1271-4335-ADA4-90E711B2BB63}"/>
+    <hyperlink ref="C50" r:id="rId57" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{C977810D-5AAC-4D0E-AA09-B13517C641B8}"/>
+    <hyperlink ref="A51" tooltip="Supplier" display="'" xr:uid="{5B1464C3-1A85-4F01-9440-40992216C270}"/>
+    <hyperlink ref="B51" tooltip="Manufacturer" display="'" xr:uid="{63067CEE-27F8-469C-9A4D-4F342EA1B355}"/>
+    <hyperlink ref="C51" tooltip="Component" display="'" xr:uid="{389C088E-C824-47C1-8A35-EF0835A1A1D0}"/>
+    <hyperlink ref="A52" tooltip="Supplier" display="'" xr:uid="{9F3FA6D5-6D3F-4921-B255-5E5F83540583}"/>
+    <hyperlink ref="B52" tooltip="Manufacturer" display="'" xr:uid="{EC0BDF4F-7D80-4A20-BCC7-3731D50E47B2}"/>
+    <hyperlink ref="C52" tooltip="Component" display="'" xr:uid="{8EAF2EF5-5C13-4B71-A59A-87AAE4EFA9E7}"/>
+    <hyperlink ref="A53" tooltip="Supplier" display="'" xr:uid="{0A2FC269-F764-4A92-AC54-A8B76B00B603}"/>
+    <hyperlink ref="B53" tooltip="Manufacturer" display="'" xr:uid="{2F5D0980-BF98-43C3-B8CB-222B01AE1E8E}"/>
+    <hyperlink ref="C53" tooltip="Component" display="'" xr:uid="{686EACB1-9BC9-4526-9E4B-9941C5FB53A1}"/>
+    <hyperlink ref="A54" tooltip="Supplier" display="'" xr:uid="{4B3517F8-207E-4FF7-9641-1FEDFA16DFCE}"/>
+    <hyperlink ref="B54" tooltip="Manufacturer" display="'" xr:uid="{5AFE6325-0167-4CB1-8C6F-F23A92698662}"/>
+    <hyperlink ref="C54" tooltip="Component" display="'" xr:uid="{89AB74CB-4E48-483E-9052-D5145601B0C9}"/>
+    <hyperlink ref="A55" tooltip="Supplier" display="'" xr:uid="{C8D4BC34-2DB4-4169-85DD-F45224D4FF80}"/>
+    <hyperlink ref="B55" tooltip="Manufacturer" display="'" xr:uid="{84705CE4-6FC9-478D-953D-D804353B2D9D}"/>
+    <hyperlink ref="C55" tooltip="Component" display="'" xr:uid="{6C128E03-6E86-41D1-845F-84E017D75CE6}"/>
+    <hyperlink ref="A56" tooltip="Supplier" display="'" xr:uid="{4D903AED-1CA4-44A9-9A59-2CCACE0710F0}"/>
+    <hyperlink ref="B56" tooltip="Manufacturer" display="'" xr:uid="{F1633EFD-5473-49A1-BF8C-469D7CBCAD58}"/>
+    <hyperlink ref="C56" tooltip="Component" display="'" xr:uid="{4C714176-8572-4264-BB82-457D7DC7F9F2}"/>
+    <hyperlink ref="A57" tooltip="Supplier" display="'" xr:uid="{8C3ECADF-C32C-4AFC-BDB4-AB574D3CE99E}"/>
+    <hyperlink ref="B57" tooltip="Manufacturer" display="'" xr:uid="{3919D4ED-FEFE-4531-9A01-B2E63FE64B80}"/>
+    <hyperlink ref="C57" tooltip="Component" display="'" xr:uid="{0603D05B-D8E1-4C67-8C9D-34C733A62385}"/>
+    <hyperlink ref="A58" tooltip="Supplier" display="'" xr:uid="{33A7BCCE-B59E-4B86-9C72-CCAD644110F9}"/>
+    <hyperlink ref="B58" tooltip="Manufacturer" display="'" xr:uid="{9854282B-C72C-4E2E-A241-C86BC3B07212}"/>
+    <hyperlink ref="C58" tooltip="Component" display="'" xr:uid="{97FDFF1D-87AF-427F-A75F-285D45BC23D1}"/>
+    <hyperlink ref="A59" tooltip="Supplier" display="'" xr:uid="{F84B3E8F-6FCE-4659-95B0-C8497A714307}"/>
+    <hyperlink ref="B59" tooltip="Manufacturer" display="'" xr:uid="{860EA3C6-0E2F-4891-BBC7-8921EBD2AEDC}"/>
+    <hyperlink ref="C59" tooltip="Component" display="'" xr:uid="{B1FCE05B-77B5-4A0B-81F8-7054602E1582}"/>
+    <hyperlink ref="A60" tooltip="Supplier" display="'" xr:uid="{16DAEFA2-3BCD-467E-95A1-5A291A948F79}"/>
+    <hyperlink ref="B60" tooltip="Manufacturer" display="'" xr:uid="{85EEBB2F-E598-40D5-8680-8039CE16E604}"/>
+    <hyperlink ref="C60" tooltip="Component" display="'" xr:uid="{5C5BFAA3-D360-4F06-A688-60B4115A1705}"/>
+    <hyperlink ref="A61" tooltip="Supplier" display="'" xr:uid="{800DFD27-D97C-4025-8CF9-A79F15386517}"/>
+    <hyperlink ref="B61" tooltip="Manufacturer" display="'" xr:uid="{0B7AED38-061B-479C-83AA-5657D4CAF3BB}"/>
+    <hyperlink ref="C61" tooltip="Component" display="'" xr:uid="{1D938038-2378-474F-83E1-A1910B7AE0D6}"/>
+    <hyperlink ref="A62" r:id="rId58" tooltip="Supplier" display="'296-29537-1-ND" xr:uid="{85294526-4383-42E8-AA43-D04D0CDFE1C8}"/>
+    <hyperlink ref="B62" r:id="rId59" tooltip="Manufacturer" display="'TPS2051CDBVR" xr:uid="{F3E33975-B897-4D30-BE51-D494D8E082B5}"/>
+    <hyperlink ref="C62" r:id="rId60" tooltip="Component" display="'Texas Instruments" xr:uid="{74B05FF8-DF21-4397-A172-FEFB5C60380E}"/>
+    <hyperlink ref="A63" r:id="rId61" tooltip="Supplier" display="'336-3692-ND" xr:uid="{61A682D0-CD01-424D-86E6-B86812CBF6D8}"/>
+    <hyperlink ref="B63" r:id="rId62" tooltip="Manufacturer" display="'CP2102N-A01-GQFN20" xr:uid="{19AE8ED4-4673-4E5F-9CEE-0C2BDDB499F5}"/>
+    <hyperlink ref="C63" r:id="rId63" tooltip="Component" display="'Silicon Labs" xr:uid="{CB5E2DDB-3806-4EE4-BC58-5E0337680197}"/>
+    <hyperlink ref="A64" r:id="rId64" tooltip="Supplier" display="'380-1110-ND" xr:uid="{15D850EE-A8ED-4B1C-9137-61E34348E34C}"/>
+    <hyperlink ref="B64" r:id="rId65" tooltip="Manufacturer" display="'L829-1J1T-43" xr:uid="{756DA154-1D90-4062-87AD-B4DDCDADCB3F}"/>
+    <hyperlink ref="C64" r:id="rId66" tooltip="Component" display="'Bel" xr:uid="{DAEE9137-FEF8-40C8-8343-9FA5A9863C95}"/>
+    <hyperlink ref="A65" r:id="rId67" tooltip="Supplier" display="'492-1243-2-ND" xr:uid="{60545F64-81DE-412B-9938-7802EE27A7C2}"/>
+    <hyperlink ref="B65" r:id="rId68" tooltip="Manufacturer" display="'SM1210RGB" xr:uid="{AC0EF8DC-E6BE-440D-99AB-2E50BB5B2DAB}"/>
+    <hyperlink ref="C65" r:id="rId69" tooltip="Component" display="'Bivar" xr:uid="{B449C109-D52A-4B0F-98E8-B5F5520A0679}"/>
+    <hyperlink ref="A66" r:id="rId70" tooltip="Supplier" display="'945-2397-5-ND" xr:uid="{497A2CE9-995D-46BB-846F-98AF6F919564}"/>
+    <hyperlink ref="B66" r:id="rId71" tooltip="Manufacturer" display="'RP40-2405SG" xr:uid="{585C4426-0C3D-40A2-89E0-265C5E6CE548}"/>
+    <hyperlink ref="C66" r:id="rId72" tooltip="Component" display="'Recom" xr:uid="{698618CB-787B-477A-ADB0-DFD27B9ED67F}"/>
+    <hyperlink ref="A67" r:id="rId73" tooltip="Supplier" display="'1727-4560-2-ND" xr:uid="{91EF5745-4A09-4E0E-A130-2D57E7DCCD0E}"/>
+    <hyperlink ref="B67" r:id="rId74" tooltip="Manufacturer" display="'74LVC1T45GW,125" xr:uid="{C9E04C30-F5DF-487A-86FB-5DDD0F29F444}"/>
+    <hyperlink ref="C67" r:id="rId75" tooltip="Component" display="'Nexperia" xr:uid="{EAFD1581-2492-42A6-9133-4DF655A8F9DE}"/>
+    <hyperlink ref="A68" r:id="rId76" tooltip="Supplier" display="'A115463-ND" xr:uid="{34288967-9423-4294-B6F0-D2F397D97E84}"/>
+    <hyperlink ref="B68" r:id="rId77" tooltip="Manufacturer" display="'5569257-1" xr:uid="{03E60FF4-8159-4B8D-8426-591E00C703A2}"/>
+    <hyperlink ref="C68" r:id="rId78" tooltip="Component" display="'TE Connectivity" xr:uid="{7D5FAD23-95DF-4367-BD2D-DF43B86F6135}"/>
+    <hyperlink ref="A69" r:id="rId79" tooltip="Supplier" display="'AE10921-ND" xr:uid="{EBDEFB23-7D1E-4DEC-87F2-4B19C952417B}"/>
+    <hyperlink ref="B69" r:id="rId80" tooltip="Manufacturer" display="'A-DF09A/KG-T2S" xr:uid="{EAE4FB0A-3FC8-4FFC-BDC5-C236D49CC5F1}"/>
+    <hyperlink ref="C69" r:id="rId81" tooltip="Component" display="'Assmann" xr:uid="{D7CE7942-44CB-401E-96DA-4C3E86E6B513}"/>
+    <hyperlink ref="A70" r:id="rId82" tooltip="Supplier" display="'CT1943MST-ND" xr:uid="{18AA88DA-1828-4688-9C0E-43E7B0DFBC5D}"/>
+    <hyperlink ref="B70" r:id="rId83" tooltip="Manufacturer" display="'194-3MST" xr:uid="{0A20C159-E31D-4CF9-8150-285A6E08F448}"/>
+    <hyperlink ref="C70" r:id="rId84" tooltip="Component" display="'CTS" xr:uid="{0CBD3F65-BCB8-4111-A3AC-954999AD2E59}"/>
+    <hyperlink ref="A71" r:id="rId85" tooltip="Supplier" display="'LT1461CCS8-2.5#PBF-ND" xr:uid="{E7C514EB-B710-4725-B5F7-E44B8827877B}"/>
+    <hyperlink ref="B71" r:id="rId86" tooltip="Manufacturer" display="'LT1461CCS8-2.5#PBF" xr:uid="{68007B14-FE2D-4A92-9845-2FD451352985}"/>
+    <hyperlink ref="C71" r:id="rId87" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{3589B115-71A9-40A0-B78F-D6007F4E07D9}"/>
+    <hyperlink ref="A72" r:id="rId88" tooltip="Supplier" display="'LT1764EQ-3.3#PBF-ND" xr:uid="{6DAA0244-A1B9-4976-959E-184BB6C74476}"/>
+    <hyperlink ref="B72" r:id="rId89" tooltip="Manufacturer" display="'LT1764EQ-3.3#PBF" xr:uid="{9D7823D9-67C2-42AF-ADCE-329138ACB761}"/>
+    <hyperlink ref="C72" r:id="rId90" tooltip="Component" display="'Analog Devices / Linear Technology" xr:uid="{53751339-052E-4A21-80E4-B6836FD6F960}"/>
+    <hyperlink ref="A73" r:id="rId91" tooltip="Supplier" display="'MAX3097ECEE+-ND" xr:uid="{12A70511-D30A-4E80-A706-E0BD8FC95418}"/>
+    <hyperlink ref="B73" r:id="rId92" tooltip="Manufacturer" display="'MAX3097ECEE+" xr:uid="{53BE7723-F515-431F-B2E6-4AFDB222DABD}"/>
+    <hyperlink ref="C73" r:id="rId93" tooltip="Component" display="'Maxim" xr:uid="{01891A8A-4ED7-4A7A-8020-8FA8C2DB0534}"/>
+    <hyperlink ref="A74" r:id="rId94" tooltip="Supplier" display="'RB521S30T1GOSTR-ND" xr:uid="{1E83BC89-FF1E-499D-BE0A-857B1486F1DF}"/>
+    <hyperlink ref="B74" r:id="rId95" tooltip="Manufacturer" display="'RB521S30T1G" xr:uid="{33565A8D-15BE-4DA6-8D2B-1E91CEC8A2F5}"/>
+    <hyperlink ref="C74" r:id="rId96" tooltip="Component" display="'ON Semiconductor" xr:uid="{107E099D-5630-41C8-99DA-45E17E260D72}"/>
+    <hyperlink ref="A75" r:id="rId97" tooltip="Supplier" display="'RP40-2415DGW-ND" xr:uid="{02E838FC-895E-459B-93B8-49079898BA58}"/>
+    <hyperlink ref="B75" r:id="rId98" tooltip="Manufacturer" display="'RP40-2415DGW" xr:uid="{A12F7042-33A7-494E-9679-24FB35C340B4}"/>
+    <hyperlink ref="C75" r:id="rId99" tooltip="Component" display="'Recom" xr:uid="{0B30505E-87AC-4534-BB76-B58C40CEA488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId100"/>
